--- a/data-migration/xlsx_1900-/1903_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1903_Sommer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32000D93-501A-4604-B65A-8D57A1163BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6D87B5-CD41-401F-89BF-D22038947262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3155,9 +3155,6 @@
     <t>stoppany_ga</t>
   </si>
   <si>
-    <t>gysi_fe</t>
-  </si>
-  <si>
     <t>zangger_h</t>
   </si>
   <si>
@@ -3426,6 +3423,9 @@
   </si>
   <si>
     <t>HP</t>
+  </si>
+  <si>
+    <t>gysi_a</t>
   </si>
 </sst>
 </file>
@@ -3770,7 +3770,7 @@
   <dimension ref="A1:P377"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="I163" sqref="I163"/>
+      <selection activeCell="H162" sqref="H162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3792,7 +3792,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F1" t="s">
         <v>379</v>
@@ -3804,7 +3804,7 @@
         <v>992</v>
       </c>
       <c r="I1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3818,7 +3818,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F2" t="s">
         <v>380</v>
@@ -3830,7 +3830,7 @@
         <v>992</v>
       </c>
       <c r="I2" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -3844,7 +3844,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F3" t="s">
         <v>381</v>
@@ -3856,7 +3856,7 @@
         <v>993</v>
       </c>
       <c r="I3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3870,7 +3870,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F4" t="s">
         <v>382</v>
@@ -3882,7 +3882,7 @@
         <v>994</v>
       </c>
       <c r="I4" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3896,7 +3896,7 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F5" t="s">
         <v>383</v>
@@ -3908,10 +3908,10 @@
         <v>995</v>
       </c>
       <c r="I5" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="J5" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3925,7 +3925,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F6" t="s">
         <v>384</v>
@@ -3937,7 +3937,7 @@
         <v>993</v>
       </c>
       <c r="I6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3951,7 +3951,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F7" t="s">
         <v>385</v>
@@ -3963,7 +3963,7 @@
         <v>996</v>
       </c>
       <c r="I7" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3977,7 +3977,7 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F8" t="s">
         <v>386</v>
@@ -3989,7 +3989,7 @@
         <v>993</v>
       </c>
       <c r="I8" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -4003,7 +4003,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F9" t="s">
         <v>387</v>
@@ -4015,7 +4015,7 @@
         <v>994</v>
       </c>
       <c r="I9" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -4029,7 +4029,7 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F10" t="s">
         <v>388</v>
@@ -4041,7 +4041,7 @@
         <v>994</v>
       </c>
       <c r="I10" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -4055,7 +4055,7 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F11" t="s">
         <v>389</v>
@@ -4067,7 +4067,7 @@
         <v>997</v>
       </c>
       <c r="I11" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -4081,7 +4081,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F12" t="s">
         <v>390</v>
@@ -4093,7 +4093,7 @@
         <v>996</v>
       </c>
       <c r="I12" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -4107,7 +4107,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F13" t="s">
         <v>391</v>
@@ -4119,10 +4119,10 @@
         <v>995</v>
       </c>
       <c r="I13" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="J13" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -4136,7 +4136,7 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F14" t="s">
         <v>392</v>
@@ -4148,7 +4148,7 @@
         <v>998</v>
       </c>
       <c r="I14" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -4162,7 +4162,7 @@
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F15" t="s">
         <v>393</v>
@@ -4174,7 +4174,7 @@
         <v>998</v>
       </c>
       <c r="I15" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -4188,7 +4188,7 @@
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F16" t="s">
         <v>394</v>
@@ -4200,7 +4200,7 @@
         <v>998</v>
       </c>
       <c r="I16" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -4214,7 +4214,7 @@
         <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F17" t="s">
         <v>395</v>
@@ -4223,10 +4223,10 @@
         <v>767</v>
       </c>
       <c r="H17" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="I17" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -4240,7 +4240,7 @@
         <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F18" t="s">
         <v>396</v>
@@ -4252,7 +4252,7 @@
         <v>1000</v>
       </c>
       <c r="I18" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -4266,7 +4266,7 @@
         <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F19" t="s">
         <v>397</v>
@@ -4275,10 +4275,10 @@
         <v>769</v>
       </c>
       <c r="H19" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="I19" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -4292,7 +4292,7 @@
         <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F20" t="s">
         <v>398</v>
@@ -4304,7 +4304,7 @@
         <v>1000</v>
       </c>
       <c r="I20" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -4318,7 +4318,7 @@
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F21" t="s">
         <v>399</v>
@@ -4330,7 +4330,7 @@
         <v>1000</v>
       </c>
       <c r="I21" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -4344,7 +4344,7 @@
         <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F22" t="s">
         <v>400</v>
@@ -4356,7 +4356,7 @@
         <v>1000</v>
       </c>
       <c r="I22" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -4370,7 +4370,7 @@
         <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F23" t="s">
         <v>401</v>
@@ -4382,10 +4382,10 @@
         <v>995</v>
       </c>
       <c r="I23" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="J23" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -4399,7 +4399,7 @@
         <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F24" t="s">
         <v>402</v>
@@ -4408,10 +4408,10 @@
         <v>764</v>
       </c>
       <c r="H24" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I24" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -4425,7 +4425,7 @@
         <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F25" t="s">
         <v>403</v>
@@ -4434,10 +4434,10 @@
         <v>763</v>
       </c>
       <c r="H25" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I25" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -4451,7 +4451,7 @@
         <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F26" t="s">
         <v>404</v>
@@ -4460,10 +4460,10 @@
         <v>772</v>
       </c>
       <c r="H26" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I26" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -4477,7 +4477,7 @@
         <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F27" t="s">
         <v>405</v>
@@ -4486,10 +4486,10 @@
         <v>763</v>
       </c>
       <c r="H27" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I27" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -4503,7 +4503,7 @@
         <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F28" t="s">
         <v>406</v>
@@ -4515,7 +4515,7 @@
         <v>992</v>
       </c>
       <c r="I28" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -4529,7 +4529,7 @@
         <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F29" t="s">
         <v>407</v>
@@ -4541,10 +4541,10 @@
         <v>995</v>
       </c>
       <c r="I29" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="J29" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -4558,7 +4558,7 @@
         <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F30" t="s">
         <v>408</v>
@@ -4570,7 +4570,7 @@
         <v>998</v>
       </c>
       <c r="I30" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -4584,7 +4584,7 @@
         <v>32</v>
       </c>
       <c r="E31" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F31" t="s">
         <v>409</v>
@@ -4593,10 +4593,10 @@
         <v>776</v>
       </c>
       <c r="H31" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="I31" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -4610,7 +4610,7 @@
         <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F32" t="s">
         <v>410</v>
@@ -4622,7 +4622,7 @@
         <v>1000</v>
       </c>
       <c r="I32" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -4636,7 +4636,7 @@
         <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F33" t="s">
         <v>411</v>
@@ -4648,7 +4648,7 @@
         <v>1002</v>
       </c>
       <c r="I33" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -4662,7 +4662,7 @@
         <v>35</v>
       </c>
       <c r="E34" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F34" t="s">
         <v>412</v>
@@ -4674,7 +4674,7 @@
         <v>1003</v>
       </c>
       <c r="I34" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -4688,7 +4688,7 @@
         <v>36</v>
       </c>
       <c r="E35" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F35" t="s">
         <v>413</v>
@@ -4700,7 +4700,7 @@
         <v>1004</v>
       </c>
       <c r="I35" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -4714,7 +4714,7 @@
         <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F36" t="s">
         <v>414</v>
@@ -4726,7 +4726,7 @@
         <v>1004</v>
       </c>
       <c r="I36" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -4740,7 +4740,7 @@
         <v>38</v>
       </c>
       <c r="E37" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F37" t="s">
         <v>415</v>
@@ -4752,7 +4752,7 @@
         <v>1003</v>
       </c>
       <c r="I37" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -4766,7 +4766,7 @@
         <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F38" t="s">
         <v>416</v>
@@ -4778,7 +4778,7 @@
         <v>1005</v>
       </c>
       <c r="I38" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -4792,7 +4792,7 @@
         <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F39" t="s">
         <v>417</v>
@@ -4804,7 +4804,7 @@
         <v>1006</v>
       </c>
       <c r="I39" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -4818,7 +4818,7 @@
         <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F40" t="s">
         <v>418</v>
@@ -4830,7 +4830,7 @@
         <v>1006</v>
       </c>
       <c r="I40" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -4844,7 +4844,7 @@
         <v>42</v>
       </c>
       <c r="E41" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F41" t="s">
         <v>419</v>
@@ -4856,7 +4856,7 @@
         <v>1001</v>
       </c>
       <c r="I41" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -4870,7 +4870,7 @@
         <v>43</v>
       </c>
       <c r="E42" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F42" t="s">
         <v>420</v>
@@ -4882,7 +4882,7 @@
         <v>1001</v>
       </c>
       <c r="I42" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -4896,7 +4896,7 @@
         <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F43" t="s">
         <v>421</v>
@@ -4908,7 +4908,7 @@
         <v>1001</v>
       </c>
       <c r="I43" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -4922,7 +4922,7 @@
         <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F44" t="s">
         <v>422</v>
@@ -4934,7 +4934,7 @@
         <v>1001</v>
       </c>
       <c r="I44" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -4948,7 +4948,7 @@
         <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F45" t="s">
         <v>423</v>
@@ -4960,7 +4960,7 @@
         <v>1001</v>
       </c>
       <c r="I45" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -4974,7 +4974,7 @@
         <v>47</v>
       </c>
       <c r="E46" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F46" t="s">
         <v>424</v>
@@ -4986,7 +4986,7 @@
         <v>1007</v>
       </c>
       <c r="I46" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -5000,7 +5000,7 @@
         <v>48</v>
       </c>
       <c r="E47" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F47" t="s">
         <v>425</v>
@@ -5012,7 +5012,7 @@
         <v>1008</v>
       </c>
       <c r="I47" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -5026,7 +5026,7 @@
         <v>49</v>
       </c>
       <c r="E48" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F48" t="s">
         <v>426</v>
@@ -5038,7 +5038,7 @@
         <v>1008</v>
       </c>
       <c r="I48" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -5052,7 +5052,7 @@
         <v>50</v>
       </c>
       <c r="E49" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F49" t="s">
         <v>427</v>
@@ -5064,7 +5064,7 @@
         <v>1008</v>
       </c>
       <c r="I49" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -5078,7 +5078,7 @@
         <v>51</v>
       </c>
       <c r="E50" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F50" t="s">
         <v>428</v>
@@ -5090,7 +5090,7 @@
         <v>1009</v>
       </c>
       <c r="I50" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -5104,7 +5104,7 @@
         <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F51" t="s">
         <v>429</v>
@@ -5116,7 +5116,7 @@
         <v>1009</v>
       </c>
       <c r="I51" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -5130,7 +5130,7 @@
         <v>53</v>
       </c>
       <c r="E52" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F52" t="s">
         <v>430</v>
@@ -5142,7 +5142,7 @@
         <v>1010</v>
       </c>
       <c r="I52" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -5156,7 +5156,7 @@
         <v>54</v>
       </c>
       <c r="E53" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F53" t="s">
         <v>431</v>
@@ -5168,7 +5168,7 @@
         <v>1010</v>
       </c>
       <c r="I53" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -5182,7 +5182,7 @@
         <v>55</v>
       </c>
       <c r="E54" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F54" t="s">
         <v>432</v>
@@ -5194,7 +5194,7 @@
         <v>1010</v>
       </c>
       <c r="I54" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -5208,7 +5208,7 @@
         <v>56</v>
       </c>
       <c r="E55" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F55" t="s">
         <v>433</v>
@@ -5220,7 +5220,7 @@
         <v>1010</v>
       </c>
       <c r="I55" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -5234,7 +5234,7 @@
         <v>57</v>
       </c>
       <c r="E56" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F56" t="s">
         <v>434</v>
@@ -5243,10 +5243,10 @@
         <v>801</v>
       </c>
       <c r="H56" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I56" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -5260,7 +5260,7 @@
         <v>58</v>
       </c>
       <c r="E57" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F57" t="s">
         <v>435</v>
@@ -5269,10 +5269,10 @@
         <v>802</v>
       </c>
       <c r="H57" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I57" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -5286,7 +5286,7 @@
         <v>59</v>
       </c>
       <c r="E58" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F58" t="s">
         <v>436</v>
@@ -5295,10 +5295,10 @@
         <v>803</v>
       </c>
       <c r="H58" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I58" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -5312,7 +5312,7 @@
         <v>60</v>
       </c>
       <c r="E59" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F59" t="s">
         <v>437</v>
@@ -5324,10 +5324,10 @@
         <v>1011</v>
       </c>
       <c r="I59" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="J59" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -5341,7 +5341,7 @@
         <v>61</v>
       </c>
       <c r="E60" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F60" t="s">
         <v>438</v>
@@ -5353,10 +5353,10 @@
         <v>1011</v>
       </c>
       <c r="I60" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="J60" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -5370,7 +5370,7 @@
         <v>62</v>
       </c>
       <c r="E61" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F61" t="s">
         <v>439</v>
@@ -5382,7 +5382,7 @@
         <v>1012</v>
       </c>
       <c r="I61" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -5396,7 +5396,7 @@
         <v>63</v>
       </c>
       <c r="E62" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F62" t="s">
         <v>440</v>
@@ -5408,7 +5408,7 @@
         <v>1012</v>
       </c>
       <c r="I62" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -5422,7 +5422,7 @@
         <v>64</v>
       </c>
       <c r="E63" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F63" t="s">
         <v>441</v>
@@ -5434,7 +5434,7 @@
         <v>1012</v>
       </c>
       <c r="I63" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -5448,7 +5448,7 @@
         <v>65</v>
       </c>
       <c r="E64" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F64" t="s">
         <v>442</v>
@@ -5460,7 +5460,7 @@
         <v>1002</v>
       </c>
       <c r="I64" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -5474,7 +5474,7 @@
         <v>66</v>
       </c>
       <c r="E65" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F65" t="s">
         <v>443</v>
@@ -5486,7 +5486,7 @@
         <v>1004</v>
       </c>
       <c r="I65" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -5500,7 +5500,7 @@
         <v>67</v>
       </c>
       <c r="E66" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F66" t="s">
         <v>444</v>
@@ -5512,7 +5512,7 @@
         <v>1004</v>
       </c>
       <c r="I66" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -5526,7 +5526,7 @@
         <v>68</v>
       </c>
       <c r="E67" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F67" t="s">
         <v>445</v>
@@ -5538,7 +5538,7 @@
         <v>1003</v>
       </c>
       <c r="I67" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -5552,7 +5552,7 @@
         <v>69</v>
       </c>
       <c r="E68" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F68" t="s">
         <v>446</v>
@@ -5564,10 +5564,10 @@
         <v>1005</v>
       </c>
       <c r="I68" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="J68" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -5581,7 +5581,7 @@
         <v>70</v>
       </c>
       <c r="E69" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F69" t="s">
         <v>447</v>
@@ -5593,7 +5593,7 @@
         <v>1008</v>
       </c>
       <c r="I69" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -5607,7 +5607,7 @@
         <v>71</v>
       </c>
       <c r="E70" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F70" t="s">
         <v>448</v>
@@ -5619,7 +5619,7 @@
         <v>1007</v>
       </c>
       <c r="I70" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -5633,7 +5633,7 @@
         <v>72</v>
       </c>
       <c r="E71" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F71" t="s">
         <v>449</v>
@@ -5645,10 +5645,10 @@
         <v>1011</v>
       </c>
       <c r="I71" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="J71" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -5662,7 +5662,7 @@
         <v>73</v>
       </c>
       <c r="E72" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F72" t="s">
         <v>450</v>
@@ -5674,7 +5674,7 @@
         <v>1013</v>
       </c>
       <c r="I72" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -5688,7 +5688,7 @@
         <v>74</v>
       </c>
       <c r="E73" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F73" t="s">
         <v>451</v>
@@ -5700,13 +5700,13 @@
         <v>1013</v>
       </c>
       <c r="I73" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="K73" t="s">
         <v>1014</v>
       </c>
       <c r="L73" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -5720,7 +5720,7 @@
         <v>75</v>
       </c>
       <c r="E74" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F74" t="s">
         <v>452</v>
@@ -5732,7 +5732,7 @@
         <v>1013</v>
       </c>
       <c r="I74" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
@@ -5746,7 +5746,7 @@
         <v>76</v>
       </c>
       <c r="E75" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F75" t="s">
         <v>453</v>
@@ -5758,13 +5758,13 @@
         <v>1013</v>
       </c>
       <c r="I75" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="K75" t="s">
         <v>1014</v>
       </c>
       <c r="L75" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
@@ -5778,7 +5778,7 @@
         <v>77</v>
       </c>
       <c r="E76" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F76" t="s">
         <v>454</v>
@@ -5790,19 +5790,19 @@
         <v>1013</v>
       </c>
       <c r="I76" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="K76" t="s">
         <v>1014</v>
       </c>
       <c r="L76" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="M76" t="s">
         <v>1015</v>
       </c>
       <c r="N76" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -5816,7 +5816,7 @@
         <v>78</v>
       </c>
       <c r="E77" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F77" t="s">
         <v>455</v>
@@ -5828,7 +5828,7 @@
         <v>1014</v>
       </c>
       <c r="I77" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
@@ -5842,7 +5842,7 @@
         <v>79</v>
       </c>
       <c r="E78" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F78" t="s">
         <v>456</v>
@@ -5854,7 +5854,7 @@
         <v>1014</v>
       </c>
       <c r="I78" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -5868,7 +5868,7 @@
         <v>80</v>
       </c>
       <c r="E79" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F79" t="s">
         <v>457</v>
@@ -5880,7 +5880,7 @@
         <v>1015</v>
       </c>
       <c r="I79" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -5894,7 +5894,7 @@
         <v>81</v>
       </c>
       <c r="E80" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F80" t="s">
         <v>458</v>
@@ -5906,7 +5906,7 @@
         <v>1015</v>
       </c>
       <c r="I80" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -5920,7 +5920,7 @@
         <v>82</v>
       </c>
       <c r="E81" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F81" t="s">
         <v>459</v>
@@ -5929,10 +5929,10 @@
         <v>824</v>
       </c>
       <c r="H81" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="I81" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -5946,7 +5946,7 @@
         <v>83</v>
       </c>
       <c r="E82" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F82" t="s">
         <v>460</v>
@@ -5955,10 +5955,10 @@
         <v>825</v>
       </c>
       <c r="H82" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="I82" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -5972,7 +5972,7 @@
         <v>84</v>
       </c>
       <c r="E83" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F83" t="s">
         <v>461</v>
@@ -5981,10 +5981,10 @@
         <v>826</v>
       </c>
       <c r="H83" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="I83" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -5998,7 +5998,7 @@
         <v>85</v>
       </c>
       <c r="E84" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F84" t="s">
         <v>462</v>
@@ -6010,7 +6010,7 @@
         <v>1016</v>
       </c>
       <c r="I84" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -6024,7 +6024,7 @@
         <v>86</v>
       </c>
       <c r="E85" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F85" t="s">
         <v>463</v>
@@ -6036,7 +6036,7 @@
         <v>1016</v>
       </c>
       <c r="I85" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -6050,7 +6050,7 @@
         <v>87</v>
       </c>
       <c r="E86" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F86" t="s">
         <v>464</v>
@@ -6062,7 +6062,7 @@
         <v>1016</v>
       </c>
       <c r="I86" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -6076,7 +6076,7 @@
         <v>88</v>
       </c>
       <c r="E87" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F87" t="s">
         <v>465</v>
@@ -6088,7 +6088,7 @@
         <v>1016</v>
       </c>
       <c r="I87" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -6102,7 +6102,7 @@
         <v>89</v>
       </c>
       <c r="E88" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F88" t="s">
         <v>466</v>
@@ -6114,7 +6114,7 @@
         <v>1017</v>
       </c>
       <c r="I88" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -6128,7 +6128,7 @@
         <v>90</v>
       </c>
       <c r="E89" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F89" t="s">
         <v>467</v>
@@ -6140,7 +6140,7 @@
         <v>1017</v>
       </c>
       <c r="I89" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -6154,7 +6154,7 @@
         <v>91</v>
       </c>
       <c r="E90" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F90" t="s">
         <v>468</v>
@@ -6163,10 +6163,10 @@
         <v>762</v>
       </c>
       <c r="H90" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="I90" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -6180,7 +6180,7 @@
         <v>92</v>
       </c>
       <c r="E91" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F91" t="s">
         <v>469</v>
@@ -6189,10 +6189,10 @@
         <v>831</v>
       </c>
       <c r="H91" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="I91" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -6206,7 +6206,7 @@
         <v>93</v>
       </c>
       <c r="E92" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F92" t="s">
         <v>470</v>
@@ -6215,10 +6215,10 @@
         <v>832</v>
       </c>
       <c r="H92" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="I92" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -6232,7 +6232,7 @@
         <v>94</v>
       </c>
       <c r="E93" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F93" t="s">
         <v>471</v>
@@ -6241,10 +6241,10 @@
         <v>833</v>
       </c>
       <c r="H93" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="I93" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -6258,7 +6258,7 @@
         <v>95</v>
       </c>
       <c r="E94" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F94" t="s">
         <v>472</v>
@@ -6267,10 +6267,10 @@
         <v>834</v>
       </c>
       <c r="H94" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I94" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -6284,7 +6284,7 @@
         <v>96</v>
       </c>
       <c r="E95" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F95" t="s">
         <v>473</v>
@@ -6293,10 +6293,10 @@
         <v>835</v>
       </c>
       <c r="H95" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I95" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -6310,7 +6310,7 @@
         <v>97</v>
       </c>
       <c r="E96" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F96" t="s">
         <v>474</v>
@@ -6319,10 +6319,10 @@
         <v>836</v>
       </c>
       <c r="H96" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I96" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -6336,7 +6336,7 @@
         <v>98</v>
       </c>
       <c r="E97" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F97" t="s">
         <v>475</v>
@@ -6345,10 +6345,10 @@
         <v>770</v>
       </c>
       <c r="H97" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I97" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -6362,7 +6362,7 @@
         <v>99</v>
       </c>
       <c r="E98" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F98" t="s">
         <v>476</v>
@@ -6371,10 +6371,10 @@
         <v>837</v>
       </c>
       <c r="H98" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I98" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -6388,7 +6388,7 @@
         <v>100</v>
       </c>
       <c r="E99" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F99" t="s">
         <v>477</v>
@@ -6397,10 +6397,10 @@
         <v>838</v>
       </c>
       <c r="H99" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I99" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -6414,7 +6414,7 @@
         <v>101</v>
       </c>
       <c r="E100" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F100" t="s">
         <v>478</v>
@@ -6423,10 +6423,10 @@
         <v>839</v>
       </c>
       <c r="H100" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I100" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -6440,7 +6440,7 @@
         <v>102</v>
       </c>
       <c r="E101" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F101" t="s">
         <v>479</v>
@@ -6449,10 +6449,10 @@
         <v>840</v>
       </c>
       <c r="H101" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I101" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -6466,7 +6466,7 @@
         <v>103</v>
       </c>
       <c r="E102" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F102" t="s">
         <v>480</v>
@@ -6475,10 +6475,10 @@
         <v>820</v>
       </c>
       <c r="H102" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I102" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -6492,7 +6492,7 @@
         <v>104</v>
       </c>
       <c r="E103" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F103" t="s">
         <v>481</v>
@@ -6501,10 +6501,10 @@
         <v>841</v>
       </c>
       <c r="H103" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I103" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -6518,7 +6518,7 @@
         <v>105</v>
       </c>
       <c r="E104" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F104" t="s">
         <v>482</v>
@@ -6530,7 +6530,7 @@
         <v>1019</v>
       </c>
       <c r="I104" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -6544,7 +6544,7 @@
         <v>106</v>
       </c>
       <c r="E105" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F105" t="s">
         <v>483</v>
@@ -6556,7 +6556,7 @@
         <v>1020</v>
       </c>
       <c r="I105" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -6570,7 +6570,7 @@
         <v>107</v>
       </c>
       <c r="E106" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F106" t="s">
         <v>484</v>
@@ -6582,7 +6582,7 @@
         <v>1020</v>
       </c>
       <c r="I106" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -6596,7 +6596,7 @@
         <v>108</v>
       </c>
       <c r="E107" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F107" t="s">
         <v>485</v>
@@ -6608,7 +6608,7 @@
         <v>1020</v>
       </c>
       <c r="I107" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -6622,7 +6622,7 @@
         <v>109</v>
       </c>
       <c r="E108" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F108" t="s">
         <v>486</v>
@@ -6634,7 +6634,7 @@
         <v>1020</v>
       </c>
       <c r="I108" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -6648,7 +6648,7 @@
         <v>110</v>
       </c>
       <c r="E109" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F109" t="s">
         <v>487</v>
@@ -6660,7 +6660,7 @@
         <v>1021</v>
       </c>
       <c r="I109" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -6674,7 +6674,7 @@
         <v>111</v>
       </c>
       <c r="E110" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F110" t="s">
         <v>488</v>
@@ -6686,7 +6686,7 @@
         <v>1021</v>
       </c>
       <c r="I110" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -6700,7 +6700,7 @@
         <v>112</v>
       </c>
       <c r="E111" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F111" t="s">
         <v>489</v>
@@ -6712,7 +6712,7 @@
         <v>1021</v>
       </c>
       <c r="I111" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -6726,7 +6726,7 @@
         <v>113</v>
       </c>
       <c r="E112" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F112" t="s">
         <v>490</v>
@@ -6735,10 +6735,10 @@
         <v>845</v>
       </c>
       <c r="H112" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="I112" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -6752,7 +6752,7 @@
         <v>114</v>
       </c>
       <c r="E113" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F113" t="s">
         <v>491</v>
@@ -6761,10 +6761,10 @@
         <v>762</v>
       </c>
       <c r="H113" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="I113" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -6778,7 +6778,7 @@
         <v>115</v>
       </c>
       <c r="E114" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F114" t="s">
         <v>492</v>
@@ -6787,10 +6787,10 @@
         <v>770</v>
       </c>
       <c r="H114" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="I114" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -6804,7 +6804,7 @@
         <v>116</v>
       </c>
       <c r="E115" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F115" t="s">
         <v>493</v>
@@ -6816,7 +6816,7 @@
         <v>1022</v>
       </c>
       <c r="I115" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -6830,7 +6830,7 @@
         <v>117</v>
       </c>
       <c r="E116" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F116" t="s">
         <v>494</v>
@@ -6842,7 +6842,7 @@
         <v>1022</v>
       </c>
       <c r="I116" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -6856,7 +6856,7 @@
         <v>118</v>
       </c>
       <c r="E117" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F117" t="s">
         <v>495</v>
@@ -6868,7 +6868,7 @@
         <v>1022</v>
       </c>
       <c r="I117" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -6882,7 +6882,7 @@
         <v>119</v>
       </c>
       <c r="E118" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F118" t="s">
         <v>496</v>
@@ -6891,10 +6891,10 @@
         <v>762</v>
       </c>
       <c r="H118" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I118" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -6908,7 +6908,7 @@
         <v>120</v>
       </c>
       <c r="E119" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F119" t="s">
         <v>497</v>
@@ -6917,10 +6917,10 @@
         <v>848</v>
       </c>
       <c r="H119" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="I119" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -6934,7 +6934,7 @@
         <v>121</v>
       </c>
       <c r="E120" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F120" t="s">
         <v>498</v>
@@ -6946,7 +6946,7 @@
         <v>1023</v>
       </c>
       <c r="I120" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -6960,7 +6960,7 @@
         <v>122</v>
       </c>
       <c r="E121" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F121" t="s">
         <v>499</v>
@@ -6972,7 +6972,7 @@
         <v>1023</v>
       </c>
       <c r="I121" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -6986,7 +6986,7 @@
         <v>123</v>
       </c>
       <c r="E122" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F122" t="s">
         <v>500</v>
@@ -6998,7 +6998,7 @@
         <v>1023</v>
       </c>
       <c r="I122" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -7012,7 +7012,7 @@
         <v>124</v>
       </c>
       <c r="E123" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F123" t="s">
         <v>501</v>
@@ -7021,10 +7021,10 @@
         <v>852</v>
       </c>
       <c r="H123" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="I123" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -7038,7 +7038,7 @@
         <v>125</v>
       </c>
       <c r="E124" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F124" t="s">
         <v>502</v>
@@ -7047,10 +7047,10 @@
         <v>852</v>
       </c>
       <c r="H124" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="I124" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -7064,7 +7064,7 @@
         <v>126</v>
       </c>
       <c r="E125" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F125" t="s">
         <v>503</v>
@@ -7076,7 +7076,7 @@
         <v>1024</v>
       </c>
       <c r="I125" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -7090,7 +7090,7 @@
         <v>127</v>
       </c>
       <c r="E126" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F126" t="s">
         <v>504</v>
@@ -7102,7 +7102,7 @@
         <v>1024</v>
       </c>
       <c r="I126" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -7116,7 +7116,7 @@
         <v>128</v>
       </c>
       <c r="E127" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F127" t="s">
         <v>505</v>
@@ -7128,7 +7128,7 @@
         <v>1025</v>
       </c>
       <c r="I127" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -7142,7 +7142,7 @@
         <v>129</v>
       </c>
       <c r="E128" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F128" t="s">
         <v>506</v>
@@ -7154,7 +7154,7 @@
         <v>1025</v>
       </c>
       <c r="I128" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -7168,7 +7168,7 @@
         <v>130</v>
       </c>
       <c r="E129" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F129" t="s">
         <v>507</v>
@@ -7180,7 +7180,7 @@
         <v>1026</v>
       </c>
       <c r="I129" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -7194,7 +7194,7 @@
         <v>131</v>
       </c>
       <c r="E130" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F130" t="s">
         <v>508</v>
@@ -7206,7 +7206,7 @@
         <v>1027</v>
       </c>
       <c r="I130" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -7220,7 +7220,7 @@
         <v>132</v>
       </c>
       <c r="E131" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F131" t="s">
         <v>509</v>
@@ -7232,7 +7232,7 @@
         <v>1027</v>
       </c>
       <c r="I131" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -7246,7 +7246,7 @@
         <v>133</v>
       </c>
       <c r="E132" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F132" t="s">
         <v>510</v>
@@ -7258,7 +7258,7 @@
         <v>1027</v>
       </c>
       <c r="I132" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -7272,7 +7272,7 @@
         <v>134</v>
       </c>
       <c r="E133" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F133" t="s">
         <v>511</v>
@@ -7284,7 +7284,7 @@
         <v>1028</v>
       </c>
       <c r="I133" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -7298,7 +7298,7 @@
         <v>135</v>
       </c>
       <c r="E134" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F134" t="s">
         <v>512</v>
@@ -7310,7 +7310,7 @@
         <v>1028</v>
       </c>
       <c r="I134" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -7324,7 +7324,7 @@
         <v>136</v>
       </c>
       <c r="E135" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F135" t="s">
         <v>513</v>
@@ -7336,7 +7336,7 @@
         <v>1028</v>
       </c>
       <c r="I135" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -7350,7 +7350,7 @@
         <v>137</v>
       </c>
       <c r="E136" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F136" t="s">
         <v>514</v>
@@ -7362,7 +7362,7 @@
         <v>1029</v>
       </c>
       <c r="I136" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -7376,7 +7376,7 @@
         <v>138</v>
       </c>
       <c r="E137" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F137" t="s">
         <v>515</v>
@@ -7388,7 +7388,7 @@
         <v>1029</v>
       </c>
       <c r="I137" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -7402,7 +7402,7 @@
         <v>139</v>
       </c>
       <c r="E138" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F138" t="s">
         <v>516</v>
@@ -7414,7 +7414,7 @@
         <v>1030</v>
       </c>
       <c r="I138" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -7428,7 +7428,7 @@
         <v>140</v>
       </c>
       <c r="E139" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F139" t="s">
         <v>517</v>
@@ -7440,7 +7440,7 @@
         <v>1031</v>
       </c>
       <c r="I139" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -7454,7 +7454,7 @@
         <v>141</v>
       </c>
       <c r="E140" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F140" t="s">
         <v>518</v>
@@ -7466,7 +7466,7 @@
         <v>1031</v>
       </c>
       <c r="I140" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -7480,7 +7480,7 @@
         <v>142</v>
       </c>
       <c r="E141" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F141" t="s">
         <v>519</v>
@@ -7489,10 +7489,10 @@
         <v>852</v>
       </c>
       <c r="H141" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="I141" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -7506,7 +7506,7 @@
         <v>143</v>
       </c>
       <c r="E142" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F142" t="s">
         <v>520</v>
@@ -7515,10 +7515,10 @@
         <v>861</v>
       </c>
       <c r="H142" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="I142" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -7532,7 +7532,7 @@
         <v>144</v>
       </c>
       <c r="E143" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F143" t="s">
         <v>521</v>
@@ -7541,10 +7541,10 @@
         <v>762</v>
       </c>
       <c r="H143" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="I143" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -7558,7 +7558,7 @@
         <v>145</v>
       </c>
       <c r="E144" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F144" t="s">
         <v>522</v>
@@ -7567,10 +7567,10 @@
         <v>770</v>
       </c>
       <c r="H144" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="I144" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
@@ -7584,7 +7584,7 @@
         <v>146</v>
       </c>
       <c r="E145" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F145" t="s">
         <v>523</v>
@@ -7596,7 +7596,7 @@
         <v>1032</v>
       </c>
       <c r="I145" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -7610,7 +7610,7 @@
         <v>147</v>
       </c>
       <c r="E146" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F146" t="s">
         <v>524</v>
@@ -7622,7 +7622,7 @@
         <v>1032</v>
       </c>
       <c r="I146" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
@@ -7636,7 +7636,7 @@
         <v>148</v>
       </c>
       <c r="E147" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F147" t="s">
         <v>525</v>
@@ -7648,7 +7648,7 @@
         <v>1032</v>
       </c>
       <c r="I147" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
@@ -7662,7 +7662,7 @@
         <v>149</v>
       </c>
       <c r="E148" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F148" t="s">
         <v>526</v>
@@ -7671,10 +7671,10 @@
         <v>864</v>
       </c>
       <c r="H148" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I148" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
@@ -7688,7 +7688,7 @@
         <v>150</v>
       </c>
       <c r="E149" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F149" t="s">
         <v>527</v>
@@ -7697,10 +7697,10 @@
         <v>763</v>
       </c>
       <c r="H149" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I149" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
@@ -7714,7 +7714,7 @@
         <v>151</v>
       </c>
       <c r="E150" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F150" t="s">
         <v>528</v>
@@ -7726,10 +7726,10 @@
         <v>1033</v>
       </c>
       <c r="I150" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="J150" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
@@ -7743,7 +7743,7 @@
         <v>152</v>
       </c>
       <c r="E151" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F151" t="s">
         <v>529</v>
@@ -7752,10 +7752,10 @@
         <v>791</v>
       </c>
       <c r="H151" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I151" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
@@ -7769,7 +7769,7 @@
         <v>153</v>
       </c>
       <c r="E152" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F152" t="s">
         <v>530</v>
@@ -7778,10 +7778,10 @@
         <v>866</v>
       </c>
       <c r="H152" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I152" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
@@ -7795,7 +7795,7 @@
         <v>154</v>
       </c>
       <c r="E153" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F153" t="s">
         <v>531</v>
@@ -7804,10 +7804,10 @@
         <v>770</v>
       </c>
       <c r="H153" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I153" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
@@ -7821,7 +7821,7 @@
         <v>155</v>
       </c>
       <c r="E154" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F154" t="s">
         <v>532</v>
@@ -7830,10 +7830,10 @@
         <v>867</v>
       </c>
       <c r="H154" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I154" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
@@ -7847,7 +7847,7 @@
         <v>156</v>
       </c>
       <c r="E155" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F155" t="s">
         <v>533</v>
@@ -7856,10 +7856,10 @@
         <v>868</v>
       </c>
       <c r="H155" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="I155" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
@@ -7873,7 +7873,7 @@
         <v>157</v>
       </c>
       <c r="E156" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F156" t="s">
         <v>534</v>
@@ -7882,10 +7882,10 @@
         <v>869</v>
       </c>
       <c r="H156" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="I156" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
@@ -7899,7 +7899,7 @@
         <v>158</v>
       </c>
       <c r="E157" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F157" t="s">
         <v>535</v>
@@ -7908,10 +7908,10 @@
         <v>870</v>
       </c>
       <c r="H157" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I157" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
@@ -7925,7 +7925,7 @@
         <v>159</v>
       </c>
       <c r="E158" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F158" t="s">
         <v>536</v>
@@ -7934,10 +7934,10 @@
         <v>770</v>
       </c>
       <c r="H158" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I158" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
@@ -7951,7 +7951,7 @@
         <v>160</v>
       </c>
       <c r="E159" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F159" t="s">
         <v>537</v>
@@ -7963,7 +7963,7 @@
         <v>1035</v>
       </c>
       <c r="I159" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
@@ -7977,7 +7977,7 @@
         <v>161</v>
       </c>
       <c r="E160" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F160" t="s">
         <v>538</v>
@@ -7986,10 +7986,10 @@
         <v>872</v>
       </c>
       <c r="H160" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="I160" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
@@ -8003,7 +8003,7 @@
         <v>162</v>
       </c>
       <c r="E161" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F161" t="s">
         <v>539</v>
@@ -8015,7 +8015,7 @@
         <v>1036</v>
       </c>
       <c r="I161" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
@@ -8029,7 +8029,7 @@
         <v>163</v>
       </c>
       <c r="E162" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F162" t="s">
         <v>540</v>
@@ -8041,7 +8041,7 @@
         <v>1037</v>
       </c>
       <c r="I162" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.25">
@@ -8055,7 +8055,7 @@
         <v>164</v>
       </c>
       <c r="E163" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F163" t="s">
         <v>534</v>
@@ -8064,28 +8064,28 @@
         <v>873</v>
       </c>
       <c r="H163" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="I163" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="K163" t="s">
         <v>1039</v>
       </c>
       <c r="L163" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="M163" t="s">
         <v>1038</v>
       </c>
       <c r="N163" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="O163" t="s">
         <v>1037</v>
       </c>
       <c r="P163" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.25">
@@ -8099,7 +8099,7 @@
         <v>165</v>
       </c>
       <c r="E164" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F164" t="s">
         <v>541</v>
@@ -8111,7 +8111,7 @@
         <v>1036</v>
       </c>
       <c r="I164" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.25">
@@ -8125,7 +8125,7 @@
         <v>166</v>
       </c>
       <c r="E165" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F165" t="s">
         <v>542</v>
@@ -8137,7 +8137,7 @@
         <v>1038</v>
       </c>
       <c r="I165" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.25">
@@ -8151,7 +8151,7 @@
         <v>167</v>
       </c>
       <c r="E166" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F166" t="s">
         <v>543</v>
@@ -8163,7 +8163,7 @@
         <v>1037</v>
       </c>
       <c r="I166" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.25">
@@ -8177,7 +8177,7 @@
         <v>168</v>
       </c>
       <c r="E167" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F167" t="s">
         <v>544</v>
@@ -8189,7 +8189,7 @@
         <v>1036</v>
       </c>
       <c r="I167" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.25">
@@ -8203,7 +8203,7 @@
         <v>169</v>
       </c>
       <c r="E168" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F168" t="s">
         <v>545</v>
@@ -8215,7 +8215,7 @@
         <v>1039</v>
       </c>
       <c r="I168" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.25">
@@ -8229,7 +8229,7 @@
         <v>170</v>
       </c>
       <c r="E169" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F169" t="s">
         <v>546</v>
@@ -8241,7 +8241,7 @@
         <v>1038</v>
       </c>
       <c r="I169" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.25">
@@ -8255,7 +8255,7 @@
         <v>171</v>
       </c>
       <c r="E170" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F170" t="s">
         <v>547</v>
@@ -8264,10 +8264,10 @@
         <v>880</v>
       </c>
       <c r="H170" t="s">
-        <v>1040</v>
+        <v>1130</v>
       </c>
       <c r="I170" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.25">
@@ -8281,7 +8281,7 @@
         <v>172</v>
       </c>
       <c r="E171" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F171" t="s">
         <v>548</v>
@@ -8293,7 +8293,7 @@
         <v>1039</v>
       </c>
       <c r="I171" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.25">
@@ -8307,7 +8307,7 @@
         <v>173</v>
       </c>
       <c r="E172" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F172" t="s">
         <v>549</v>
@@ -8319,7 +8319,7 @@
         <v>1039</v>
       </c>
       <c r="I172" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.25">
@@ -8333,7 +8333,7 @@
         <v>174</v>
       </c>
       <c r="E173" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F173" t="s">
         <v>550</v>
@@ -8342,10 +8342,10 @@
         <v>883</v>
       </c>
       <c r="H173" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="I173" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.25">
@@ -8359,7 +8359,7 @@
         <v>175</v>
       </c>
       <c r="E174" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F174" t="s">
         <v>551</v>
@@ -8368,10 +8368,10 @@
         <v>884</v>
       </c>
       <c r="H174" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="I174" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.25">
@@ -8385,7 +8385,7 @@
         <v>176</v>
       </c>
       <c r="E175" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F175" t="s">
         <v>552</v>
@@ -8394,10 +8394,10 @@
         <v>885</v>
       </c>
       <c r="H175" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="I175" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.25">
@@ -8411,7 +8411,7 @@
         <v>177</v>
       </c>
       <c r="E176" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F176" t="s">
         <v>553</v>
@@ -8420,10 +8420,10 @@
         <v>762</v>
       </c>
       <c r="H176" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="I176" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
@@ -8437,7 +8437,7 @@
         <v>178</v>
       </c>
       <c r="E177" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F177" t="s">
         <v>554</v>
@@ -8446,10 +8446,10 @@
         <v>886</v>
       </c>
       <c r="H177" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="I177" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
@@ -8463,7 +8463,7 @@
         <v>179</v>
       </c>
       <c r="E178" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F178" t="s">
         <v>555</v>
@@ -8472,10 +8472,10 @@
         <v>887</v>
       </c>
       <c r="H178" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I178" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
@@ -8489,7 +8489,7 @@
         <v>180</v>
       </c>
       <c r="E179" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F179" t="s">
         <v>556</v>
@@ -8498,10 +8498,10 @@
         <v>888</v>
       </c>
       <c r="H179" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I179" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
@@ -8515,7 +8515,7 @@
         <v>181</v>
       </c>
       <c r="E180" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F180" t="s">
         <v>557</v>
@@ -8524,10 +8524,10 @@
         <v>889</v>
       </c>
       <c r="H180" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I180" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
@@ -8541,7 +8541,7 @@
         <v>182</v>
       </c>
       <c r="E181" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F181" t="s">
         <v>558</v>
@@ -8550,10 +8550,10 @@
         <v>890</v>
       </c>
       <c r="H181" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I181" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
@@ -8567,7 +8567,7 @@
         <v>183</v>
       </c>
       <c r="E182" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F182" t="s">
         <v>559</v>
@@ -8576,10 +8576,10 @@
         <v>891</v>
       </c>
       <c r="H182" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I182" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
@@ -8593,7 +8593,7 @@
         <v>184</v>
       </c>
       <c r="E183" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F183" t="s">
         <v>560</v>
@@ -8602,13 +8602,13 @@
         <v>892</v>
       </c>
       <c r="H183" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I183" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="J183" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
@@ -8622,7 +8622,7 @@
         <v>185</v>
       </c>
       <c r="E184" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F184" t="s">
         <v>561</v>
@@ -8631,13 +8631,13 @@
         <v>893</v>
       </c>
       <c r="H184" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I184" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="J184" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -8651,7 +8651,7 @@
         <v>186</v>
       </c>
       <c r="E185" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F185" t="s">
         <v>562</v>
@@ -8660,13 +8660,13 @@
         <v>894</v>
       </c>
       <c r="H185" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I185" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="J185" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
@@ -8680,7 +8680,7 @@
         <v>187</v>
       </c>
       <c r="E186" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F186" t="s">
         <v>563</v>
@@ -8689,13 +8689,13 @@
         <v>895</v>
       </c>
       <c r="H186" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I186" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="J186" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
@@ -8709,7 +8709,7 @@
         <v>188</v>
       </c>
       <c r="E187" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F187" t="s">
         <v>564</v>
@@ -8718,13 +8718,13 @@
         <v>896</v>
       </c>
       <c r="H187" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I187" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="J187" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
@@ -8738,7 +8738,7 @@
         <v>189</v>
       </c>
       <c r="E188" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F188" t="s">
         <v>565</v>
@@ -8747,13 +8747,13 @@
         <v>820</v>
       </c>
       <c r="H188" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I188" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="J188" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
@@ -8767,7 +8767,7 @@
         <v>190</v>
       </c>
       <c r="E189" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F189" t="s">
         <v>566</v>
@@ -8776,10 +8776,10 @@
         <v>897</v>
       </c>
       <c r="H189" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="I189" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
@@ -8793,7 +8793,7 @@
         <v>191</v>
       </c>
       <c r="E190" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F190" t="s">
         <v>567</v>
@@ -8802,10 +8802,10 @@
         <v>898</v>
       </c>
       <c r="H190" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="I190" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
@@ -8819,7 +8819,7 @@
         <v>192</v>
       </c>
       <c r="E191" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F191" t="s">
         <v>568</v>
@@ -8828,10 +8828,10 @@
         <v>899</v>
       </c>
       <c r="H191" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="I191" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
@@ -8845,7 +8845,7 @@
         <v>193</v>
       </c>
       <c r="E192" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F192" t="s">
         <v>569</v>
@@ -8854,10 +8854,10 @@
         <v>900</v>
       </c>
       <c r="H192" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="I192" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
@@ -8871,7 +8871,7 @@
         <v>194</v>
       </c>
       <c r="E193" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F193" t="s">
         <v>570</v>
@@ -8880,10 +8880,10 @@
         <v>763</v>
       </c>
       <c r="H193" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="I193" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
@@ -8897,7 +8897,7 @@
         <v>195</v>
       </c>
       <c r="E194" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F194" t="s">
         <v>571</v>
@@ -8906,10 +8906,10 @@
         <v>901</v>
       </c>
       <c r="H194" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="I194" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
@@ -8923,7 +8923,7 @@
         <v>196</v>
       </c>
       <c r="E195" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F195" t="s">
         <v>572</v>
@@ -8932,10 +8932,10 @@
         <v>902</v>
       </c>
       <c r="H195" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="I195" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
@@ -8949,7 +8949,7 @@
         <v>197</v>
       </c>
       <c r="E196" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F196" t="s">
         <v>573</v>
@@ -8958,10 +8958,10 @@
         <v>762</v>
       </c>
       <c r="H196" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="I196" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
@@ -8975,7 +8975,7 @@
         <v>198</v>
       </c>
       <c r="E197" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F197" t="s">
         <v>574</v>
@@ -8984,10 +8984,10 @@
         <v>770</v>
       </c>
       <c r="H197" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="I197" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
@@ -9001,7 +9001,7 @@
         <v>199</v>
       </c>
       <c r="E198" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F198" t="s">
         <v>575</v>
@@ -9010,10 +9010,10 @@
         <v>762</v>
       </c>
       <c r="H198" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="I198" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
@@ -9027,7 +9027,7 @@
         <v>200</v>
       </c>
       <c r="E199" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F199" t="s">
         <v>576</v>
@@ -9036,10 +9036,10 @@
         <v>903</v>
       </c>
       <c r="H199" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="I199" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
@@ -9053,7 +9053,7 @@
         <v>201</v>
       </c>
       <c r="E200" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F200" t="s">
         <v>577</v>
@@ -9062,10 +9062,10 @@
         <v>904</v>
       </c>
       <c r="H200" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="I200" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
@@ -9079,7 +9079,7 @@
         <v>202</v>
       </c>
       <c r="E201" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F201" t="s">
         <v>578</v>
@@ -9088,10 +9088,10 @@
         <v>770</v>
       </c>
       <c r="H201" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="I201" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
@@ -9105,7 +9105,7 @@
         <v>203</v>
       </c>
       <c r="E202" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F202" t="s">
         <v>579</v>
@@ -9114,10 +9114,10 @@
         <v>905</v>
       </c>
       <c r="H202" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="I202" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
@@ -9131,7 +9131,7 @@
         <v>204</v>
       </c>
       <c r="E203" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F203" t="s">
         <v>580</v>
@@ -9140,10 +9140,10 @@
         <v>758</v>
       </c>
       <c r="H203" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="I203" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
@@ -9157,7 +9157,7 @@
         <v>205</v>
       </c>
       <c r="E204" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F204" t="s">
         <v>581</v>
@@ -9166,16 +9166,16 @@
         <v>906</v>
       </c>
       <c r="H204" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="I204" t="s">
+        <v>1104</v>
+      </c>
+      <c r="K204" t="s">
+        <v>1049</v>
+      </c>
+      <c r="L204" t="s">
         <v>1105</v>
-      </c>
-      <c r="K204" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L204" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
@@ -9189,7 +9189,7 @@
         <v>206</v>
       </c>
       <c r="E205" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F205" t="s">
         <v>582</v>
@@ -9198,10 +9198,10 @@
         <v>907</v>
       </c>
       <c r="H205" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="I205" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
@@ -9215,7 +9215,7 @@
         <v>207</v>
       </c>
       <c r="E206" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F206" t="s">
         <v>583</v>
@@ -9224,10 +9224,10 @@
         <v>908</v>
       </c>
       <c r="H206" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="I206" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
@@ -9241,7 +9241,7 @@
         <v>208</v>
       </c>
       <c r="E207" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F207" t="s">
         <v>584</v>
@@ -9250,10 +9250,10 @@
         <v>762</v>
       </c>
       <c r="H207" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I207" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
@@ -9267,7 +9267,7 @@
         <v>209</v>
       </c>
       <c r="E208" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F208" t="s">
         <v>585</v>
@@ -9276,10 +9276,10 @@
         <v>909</v>
       </c>
       <c r="H208" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="I208" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
@@ -9293,7 +9293,7 @@
         <v>210</v>
       </c>
       <c r="E209" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F209" t="s">
         <v>586</v>
@@ -9302,10 +9302,10 @@
         <v>910</v>
       </c>
       <c r="H209" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I209" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
@@ -9319,7 +9319,7 @@
         <v>211</v>
       </c>
       <c r="E210" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F210" t="s">
         <v>587</v>
@@ -9328,10 +9328,10 @@
         <v>911</v>
       </c>
       <c r="H210" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="I210" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -9345,7 +9345,7 @@
         <v>212</v>
       </c>
       <c r="E211" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F211" t="s">
         <v>588</v>
@@ -9354,10 +9354,10 @@
         <v>762</v>
       </c>
       <c r="H211" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="I211" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -9371,7 +9371,7 @@
         <v>213</v>
       </c>
       <c r="E212" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F212" t="s">
         <v>589</v>
@@ -9380,10 +9380,10 @@
         <v>912</v>
       </c>
       <c r="H212" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="I212" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
@@ -9397,7 +9397,7 @@
         <v>214</v>
       </c>
       <c r="E213" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F213" t="s">
         <v>590</v>
@@ -9406,10 +9406,10 @@
         <v>913</v>
       </c>
       <c r="H213" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I213" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -9423,7 +9423,7 @@
         <v>215</v>
       </c>
       <c r="E214" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F214" t="s">
         <v>591</v>
@@ -9432,10 +9432,10 @@
         <v>914</v>
       </c>
       <c r="H214" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I214" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
@@ -9449,7 +9449,7 @@
         <v>216</v>
       </c>
       <c r="E215" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F215" t="s">
         <v>592</v>
@@ -9458,10 +9458,10 @@
         <v>915</v>
       </c>
       <c r="H215" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="I215" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -9475,7 +9475,7 @@
         <v>217</v>
       </c>
       <c r="E216" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F216" t="s">
         <v>593</v>
@@ -9484,10 +9484,10 @@
         <v>851</v>
       </c>
       <c r="H216" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I216" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -9501,7 +9501,7 @@
         <v>218</v>
       </c>
       <c r="E217" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F217" t="s">
         <v>594</v>
@@ -9510,10 +9510,10 @@
         <v>784</v>
       </c>
       <c r="H217" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I217" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -9527,7 +9527,7 @@
         <v>219</v>
       </c>
       <c r="E218" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F218" t="s">
         <v>595</v>
@@ -9536,10 +9536,10 @@
         <v>916</v>
       </c>
       <c r="H218" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I218" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -9553,7 +9553,7 @@
         <v>220</v>
       </c>
       <c r="E219" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F219" t="s">
         <v>596</v>
@@ -9565,7 +9565,7 @@
         <v>992</v>
       </c>
       <c r="I219" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -9579,7 +9579,7 @@
         <v>221</v>
       </c>
       <c r="E220" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F220" t="s">
         <v>597</v>
@@ -9591,7 +9591,7 @@
         <v>992</v>
       </c>
       <c r="I220" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -9605,7 +9605,7 @@
         <v>222</v>
       </c>
       <c r="E221" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F221" t="s">
         <v>598</v>
@@ -9614,10 +9614,10 @@
         <v>762</v>
       </c>
       <c r="H221" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I221" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -9631,7 +9631,7 @@
         <v>223</v>
       </c>
       <c r="E222" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F222" t="s">
         <v>599</v>
@@ -9640,10 +9640,10 @@
         <v>917</v>
       </c>
       <c r="H222" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I222" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -9657,7 +9657,7 @@
         <v>224</v>
       </c>
       <c r="E223" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F223" t="s">
         <v>600</v>
@@ -9666,10 +9666,10 @@
         <v>763</v>
       </c>
       <c r="H223" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="I223" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
@@ -9683,7 +9683,7 @@
         <v>225</v>
       </c>
       <c r="E224" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F224" t="s">
         <v>601</v>
@@ -9692,10 +9692,10 @@
         <v>918</v>
       </c>
       <c r="H224" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I224" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
@@ -9709,7 +9709,7 @@
         <v>226</v>
       </c>
       <c r="E225" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F225" t="s">
         <v>602</v>
@@ -9718,10 +9718,10 @@
         <v>919</v>
       </c>
       <c r="H225" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I225" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
@@ -9735,7 +9735,7 @@
         <v>227</v>
       </c>
       <c r="E226" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F226" t="s">
         <v>603</v>
@@ -9744,10 +9744,10 @@
         <v>920</v>
       </c>
       <c r="H226" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I226" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
@@ -9761,7 +9761,7 @@
         <v>228</v>
       </c>
       <c r="E227" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F227" t="s">
         <v>604</v>
@@ -9770,10 +9770,10 @@
         <v>764</v>
       </c>
       <c r="H227" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="I227" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
@@ -9787,7 +9787,7 @@
         <v>229</v>
       </c>
       <c r="E228" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F228" t="s">
         <v>605</v>
@@ -9796,10 +9796,10 @@
         <v>762</v>
       </c>
       <c r="H228" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I228" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
@@ -9813,7 +9813,7 @@
         <v>230</v>
       </c>
       <c r="E229" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F229" t="s">
         <v>606</v>
@@ -9825,7 +9825,7 @@
         <v>1004</v>
       </c>
       <c r="I229" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
@@ -9839,7 +9839,7 @@
         <v>231</v>
       </c>
       <c r="E230" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F230" t="s">
         <v>607</v>
@@ -9851,7 +9851,7 @@
         <v>999</v>
       </c>
       <c r="I230" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
@@ -9865,7 +9865,7 @@
         <v>232</v>
       </c>
       <c r="E231" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F231" t="s">
         <v>608</v>
@@ -9877,7 +9877,7 @@
         <v>999</v>
       </c>
       <c r="I231" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
@@ -9891,7 +9891,7 @@
         <v>233</v>
       </c>
       <c r="E232" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F232" t="s">
         <v>609</v>
@@ -9900,10 +9900,10 @@
         <v>923</v>
       </c>
       <c r="H232" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I232" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
@@ -9917,7 +9917,7 @@
         <v>234</v>
       </c>
       <c r="E233" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F233" t="s">
         <v>610</v>
@@ -9926,10 +9926,10 @@
         <v>763</v>
       </c>
       <c r="H233" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I233" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
@@ -9943,7 +9943,7 @@
         <v>235</v>
       </c>
       <c r="E234" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F234" t="s">
         <v>611</v>
@@ -9952,10 +9952,10 @@
         <v>786</v>
       </c>
       <c r="H234" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I234" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
@@ -9969,7 +9969,7 @@
         <v>236</v>
       </c>
       <c r="E235" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F235" t="s">
         <v>612</v>
@@ -9978,10 +9978,10 @@
         <v>787</v>
       </c>
       <c r="H235" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I235" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
@@ -9995,7 +9995,7 @@
         <v>237</v>
       </c>
       <c r="E236" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F236" t="s">
         <v>613</v>
@@ -10004,10 +10004,10 @@
         <v>775</v>
       </c>
       <c r="H236" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I236" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
@@ -10021,7 +10021,7 @@
         <v>238</v>
       </c>
       <c r="E237" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F237" t="s">
         <v>614</v>
@@ -10030,13 +10030,13 @@
         <v>924</v>
       </c>
       <c r="H237" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I237" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="J237" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
@@ -10050,7 +10050,7 @@
         <v>239</v>
       </c>
       <c r="E238" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F238" t="s">
         <v>615</v>
@@ -10059,13 +10059,13 @@
         <v>925</v>
       </c>
       <c r="H238" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I238" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="J238" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
@@ -10079,7 +10079,7 @@
         <v>240</v>
       </c>
       <c r="E239" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F239" t="s">
         <v>616</v>
@@ -10088,13 +10088,13 @@
         <v>868</v>
       </c>
       <c r="H239" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I239" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="J239" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
@@ -10108,7 +10108,7 @@
         <v>241</v>
       </c>
       <c r="E240" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F240" t="s">
         <v>617</v>
@@ -10117,10 +10117,10 @@
         <v>762</v>
       </c>
       <c r="H240" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="I240" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
@@ -10134,7 +10134,7 @@
         <v>242</v>
       </c>
       <c r="E241" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F241" t="s">
         <v>618</v>
@@ -10143,10 +10143,10 @@
         <v>926</v>
       </c>
       <c r="H241" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I241" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
@@ -10160,7 +10160,7 @@
         <v>243</v>
       </c>
       <c r="E242" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F242" t="s">
         <v>619</v>
@@ -10169,10 +10169,10 @@
         <v>927</v>
       </c>
       <c r="H242" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I242" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
@@ -10186,7 +10186,7 @@
         <v>244</v>
       </c>
       <c r="E243" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F243" t="s">
         <v>620</v>
@@ -10195,10 +10195,10 @@
         <v>928</v>
       </c>
       <c r="H243" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I243" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
@@ -10212,7 +10212,7 @@
         <v>245</v>
       </c>
       <c r="E244" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F244" t="s">
         <v>621</v>
@@ -10221,10 +10221,10 @@
         <v>762</v>
       </c>
       <c r="H244" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I244" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
@@ -10238,7 +10238,7 @@
         <v>246</v>
       </c>
       <c r="E245" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F245" t="s">
         <v>622</v>
@@ -10247,10 +10247,10 @@
         <v>762</v>
       </c>
       <c r="H245" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="I245" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -10264,7 +10264,7 @@
         <v>247</v>
       </c>
       <c r="E246" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F246" t="s">
         <v>623</v>
@@ -10273,10 +10273,10 @@
         <v>774</v>
       </c>
       <c r="H246" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I246" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
@@ -10290,7 +10290,7 @@
         <v>248</v>
       </c>
       <c r="E247" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F247" t="s">
         <v>624</v>
@@ -10299,10 +10299,10 @@
         <v>929</v>
       </c>
       <c r="H247" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I247" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
@@ -10316,7 +10316,7 @@
         <v>249</v>
       </c>
       <c r="E248" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F248" t="s">
         <v>625</v>
@@ -10325,10 +10325,10 @@
         <v>930</v>
       </c>
       <c r="H248" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I248" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
@@ -10342,7 +10342,7 @@
         <v>250</v>
       </c>
       <c r="E249" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F249" t="s">
         <v>626</v>
@@ -10351,10 +10351,10 @@
         <v>931</v>
       </c>
       <c r="H249" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I249" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
@@ -10368,7 +10368,7 @@
         <v>251</v>
       </c>
       <c r="E250" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F250" t="s">
         <v>627</v>
@@ -10377,10 +10377,10 @@
         <v>770</v>
       </c>
       <c r="H250" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I250" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
@@ -10394,7 +10394,7 @@
         <v>252</v>
       </c>
       <c r="E251" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F251" t="s">
         <v>628</v>
@@ -10403,10 +10403,10 @@
         <v>932</v>
       </c>
       <c r="H251" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I251" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -10420,7 +10420,7 @@
         <v>253</v>
       </c>
       <c r="E252" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F252" t="s">
         <v>629</v>
@@ -10429,10 +10429,10 @@
         <v>809</v>
       </c>
       <c r="H252" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I252" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -10446,7 +10446,7 @@
         <v>254</v>
       </c>
       <c r="E253" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F253" t="s">
         <v>630</v>
@@ -10455,10 +10455,10 @@
         <v>933</v>
       </c>
       <c r="H253" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I253" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
@@ -10475,7 +10475,7 @@
         <v>255</v>
       </c>
       <c r="E254" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F254" t="s">
         <v>631</v>
@@ -10484,10 +10484,10 @@
         <v>905</v>
       </c>
       <c r="H254" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I254" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
@@ -10501,7 +10501,7 @@
         <v>256</v>
       </c>
       <c r="E255" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F255" t="s">
         <v>632</v>
@@ -10510,10 +10510,10 @@
         <v>934</v>
       </c>
       <c r="H255" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I255" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
@@ -10527,7 +10527,7 @@
         <v>257</v>
       </c>
       <c r="E256" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F256" t="s">
         <v>633</v>
@@ -10536,10 +10536,10 @@
         <v>935</v>
       </c>
       <c r="H256" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I256" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
@@ -10553,7 +10553,7 @@
         <v>258</v>
       </c>
       <c r="E257" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F257" t="s">
         <v>634</v>
@@ -10562,10 +10562,10 @@
         <v>936</v>
       </c>
       <c r="H257" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I257" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
@@ -10579,7 +10579,7 @@
         <v>259</v>
       </c>
       <c r="E258" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F258" t="s">
         <v>635</v>
@@ -10588,10 +10588,10 @@
         <v>937</v>
       </c>
       <c r="H258" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I258" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
@@ -10605,7 +10605,7 @@
         <v>260</v>
       </c>
       <c r="E259" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F259" t="s">
         <v>636</v>
@@ -10614,10 +10614,10 @@
         <v>776</v>
       </c>
       <c r="H259" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="I259" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -10631,7 +10631,7 @@
         <v>261</v>
       </c>
       <c r="E260" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F260" t="s">
         <v>637</v>
@@ -10640,10 +10640,10 @@
         <v>938</v>
       </c>
       <c r="H260" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="I260" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
@@ -10657,7 +10657,7 @@
         <v>262</v>
       </c>
       <c r="E261" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F261" t="s">
         <v>638</v>
@@ -10666,10 +10666,10 @@
         <v>762</v>
       </c>
       <c r="H261" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="I261" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
@@ -10683,7 +10683,7 @@
         <v>263</v>
       </c>
       <c r="E262" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F262" t="s">
         <v>639</v>
@@ -10692,10 +10692,10 @@
         <v>939</v>
       </c>
       <c r="H262" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I262" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -10709,7 +10709,7 @@
         <v>264</v>
       </c>
       <c r="E263" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F263" t="s">
         <v>640</v>
@@ -10718,10 +10718,10 @@
         <v>758</v>
       </c>
       <c r="H263" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="I263" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -10735,7 +10735,7 @@
         <v>265</v>
       </c>
       <c r="E264" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F264" t="s">
         <v>641</v>
@@ -10744,10 +10744,10 @@
         <v>940</v>
       </c>
       <c r="H264" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="I264" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -10761,7 +10761,7 @@
         <v>266</v>
       </c>
       <c r="E265" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F265" t="s">
         <v>642</v>
@@ -10770,10 +10770,10 @@
         <v>762</v>
       </c>
       <c r="H265" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="I265" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -10787,7 +10787,7 @@
         <v>267</v>
       </c>
       <c r="E266" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F266" t="s">
         <v>643</v>
@@ -10796,10 +10796,10 @@
         <v>770</v>
       </c>
       <c r="H266" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="I266" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
@@ -10813,7 +10813,7 @@
         <v>268</v>
       </c>
       <c r="E267" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F267" t="s">
         <v>644</v>
@@ -10822,10 +10822,10 @@
         <v>941</v>
       </c>
       <c r="H267" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I267" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
@@ -10839,7 +10839,7 @@
         <v>269</v>
       </c>
       <c r="E268" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F268" t="s">
         <v>645</v>
@@ -10848,10 +10848,10 @@
         <v>915</v>
       </c>
       <c r="H268" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I268" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
@@ -10865,7 +10865,7 @@
         <v>270</v>
       </c>
       <c r="E269" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F269" t="s">
         <v>646</v>
@@ -10874,10 +10874,10 @@
         <v>773</v>
       </c>
       <c r="H269" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I269" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
@@ -10891,7 +10891,7 @@
         <v>271</v>
       </c>
       <c r="E270" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F270" t="s">
         <v>647</v>
@@ -10900,10 +10900,10 @@
         <v>760</v>
       </c>
       <c r="H270" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="I270" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
@@ -10917,7 +10917,7 @@
         <v>272</v>
       </c>
       <c r="E271" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F271" t="s">
         <v>648</v>
@@ -10926,10 +10926,10 @@
         <v>942</v>
       </c>
       <c r="H271" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I271" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
@@ -10943,7 +10943,7 @@
         <v>273</v>
       </c>
       <c r="E272" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F272" t="s">
         <v>649</v>
@@ -10952,10 +10952,10 @@
         <v>943</v>
       </c>
       <c r="H272" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I272" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -10969,7 +10969,7 @@
         <v>274</v>
       </c>
       <c r="E273" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F273" t="s">
         <v>650</v>
@@ -10978,10 +10978,10 @@
         <v>944</v>
       </c>
       <c r="H273" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I273" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
@@ -10995,7 +10995,7 @@
         <v>275</v>
       </c>
       <c r="E274" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F274" t="s">
         <v>651</v>
@@ -11004,10 +11004,10 @@
         <v>763</v>
       </c>
       <c r="H274" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I274" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
@@ -11021,7 +11021,7 @@
         <v>276</v>
       </c>
       <c r="E275" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F275" t="s">
         <v>652</v>
@@ -11030,10 +11030,10 @@
         <v>945</v>
       </c>
       <c r="H275" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="I275" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
@@ -11047,7 +11047,7 @@
         <v>277</v>
       </c>
       <c r="E276" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F276" t="s">
         <v>653</v>
@@ -11059,7 +11059,7 @@
         <v>1034</v>
       </c>
       <c r="I276" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
@@ -11073,7 +11073,7 @@
         <v>278</v>
       </c>
       <c r="E277" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F277" t="s">
         <v>654</v>
@@ -11082,10 +11082,10 @@
         <v>946</v>
       </c>
       <c r="H277" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I277" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
@@ -11099,7 +11099,7 @@
         <v>279</v>
       </c>
       <c r="E278" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F278" t="s">
         <v>655</v>
@@ -11108,10 +11108,10 @@
         <v>770</v>
       </c>
       <c r="H278" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="I278" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
@@ -11125,7 +11125,7 @@
         <v>280</v>
       </c>
       <c r="E279" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F279" t="s">
         <v>656</v>
@@ -11134,10 +11134,10 @@
         <v>762</v>
       </c>
       <c r="H279" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="I279" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
@@ -11151,7 +11151,7 @@
         <v>281</v>
       </c>
       <c r="E280" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F280" t="s">
         <v>657</v>
@@ -11160,10 +11160,10 @@
         <v>947</v>
       </c>
       <c r="H280" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="I280" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
@@ -11177,7 +11177,7 @@
         <v>282</v>
       </c>
       <c r="E281" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F281" t="s">
         <v>658</v>
@@ -11186,10 +11186,10 @@
         <v>948</v>
       </c>
       <c r="H281" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="I281" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
@@ -11203,7 +11203,7 @@
         <v>283</v>
       </c>
       <c r="E282" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F282" t="s">
         <v>659</v>
@@ -11212,10 +11212,10 @@
         <v>949</v>
       </c>
       <c r="H282" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I282" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
@@ -11229,7 +11229,7 @@
         <v>284</v>
       </c>
       <c r="E283" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F283" t="s">
         <v>660</v>
@@ -11238,10 +11238,10 @@
         <v>763</v>
       </c>
       <c r="H283" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="I283" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
@@ -11255,7 +11255,7 @@
         <v>285</v>
       </c>
       <c r="E284" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F284" t="s">
         <v>661</v>
@@ -11264,10 +11264,10 @@
         <v>950</v>
       </c>
       <c r="H284" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I284" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
@@ -11281,7 +11281,7 @@
         <v>286</v>
       </c>
       <c r="E285" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F285" t="s">
         <v>662</v>
@@ -11290,10 +11290,10 @@
         <v>784</v>
       </c>
       <c r="H285" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I285" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
@@ -11307,7 +11307,7 @@
         <v>287</v>
       </c>
       <c r="E286" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F286" t="s">
         <v>663</v>
@@ -11316,10 +11316,10 @@
         <v>932</v>
       </c>
       <c r="H286" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I286" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
@@ -11333,7 +11333,7 @@
         <v>288</v>
       </c>
       <c r="E287" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F287" t="s">
         <v>664</v>
@@ -11342,10 +11342,10 @@
         <v>788</v>
       </c>
       <c r="H287" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="I287" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
@@ -11359,7 +11359,7 @@
         <v>289</v>
       </c>
       <c r="E288" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F288" t="s">
         <v>665</v>
@@ -11368,10 +11368,10 @@
         <v>951</v>
       </c>
       <c r="H288" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="I288" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
@@ -11385,7 +11385,7 @@
         <v>290</v>
       </c>
       <c r="E289" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F289" t="s">
         <v>666</v>
@@ -11394,10 +11394,10 @@
         <v>912</v>
       </c>
       <c r="H289" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I289" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
@@ -11411,7 +11411,7 @@
         <v>291</v>
       </c>
       <c r="E290" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F290" t="s">
         <v>667</v>
@@ -11420,10 +11420,10 @@
         <v>952</v>
       </c>
       <c r="H290" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I290" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
@@ -11437,7 +11437,7 @@
         <v>292</v>
       </c>
       <c r="E291" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F291" t="s">
         <v>668</v>
@@ -11446,10 +11446,10 @@
         <v>914</v>
       </c>
       <c r="H291" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I291" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
@@ -11463,7 +11463,7 @@
         <v>293</v>
       </c>
       <c r="E292" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F292" t="s">
         <v>669</v>
@@ -11472,10 +11472,10 @@
         <v>770</v>
       </c>
       <c r="H292" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="I292" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
@@ -11489,7 +11489,7 @@
         <v>294</v>
       </c>
       <c r="E293" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F293" t="s">
         <v>670</v>
@@ -11498,10 +11498,10 @@
         <v>762</v>
       </c>
       <c r="H293" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I293" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
@@ -11515,7 +11515,7 @@
         <v>295</v>
       </c>
       <c r="E294" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F294" t="s">
         <v>671</v>
@@ -11524,10 +11524,10 @@
         <v>770</v>
       </c>
       <c r="H294" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I294" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
@@ -11541,7 +11541,7 @@
         <v>296</v>
       </c>
       <c r="E295" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F295" t="s">
         <v>672</v>
@@ -11550,10 +11550,10 @@
         <v>953</v>
       </c>
       <c r="H295" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I295" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
@@ -11567,7 +11567,7 @@
         <v>297</v>
       </c>
       <c r="E296" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F296" t="s">
         <v>673</v>
@@ -11576,10 +11576,10 @@
         <v>762</v>
       </c>
       <c r="H296" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="I296" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
@@ -11593,7 +11593,7 @@
         <v>298</v>
       </c>
       <c r="E297" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F297" t="s">
         <v>674</v>
@@ -11602,10 +11602,10 @@
         <v>762</v>
       </c>
       <c r="H297" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="I297" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
@@ -11619,7 +11619,7 @@
         <v>299</v>
       </c>
       <c r="E298" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F298" t="s">
         <v>675</v>
@@ -11628,10 +11628,10 @@
         <v>954</v>
       </c>
       <c r="H298" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="I298" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
@@ -11645,7 +11645,7 @@
         <v>300</v>
       </c>
       <c r="E299" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F299" t="s">
         <v>676</v>
@@ -11654,10 +11654,10 @@
         <v>955</v>
       </c>
       <c r="H299" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="I299" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
@@ -11671,7 +11671,7 @@
         <v>301</v>
       </c>
       <c r="E300" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F300" t="s">
         <v>677</v>
@@ -11680,10 +11680,10 @@
         <v>913</v>
       </c>
       <c r="H300" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="I300" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
@@ -11697,7 +11697,7 @@
         <v>302</v>
       </c>
       <c r="E301" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F301" t="s">
         <v>678</v>
@@ -11706,10 +11706,10 @@
         <v>956</v>
       </c>
       <c r="H301" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="I301" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
@@ -11723,7 +11723,7 @@
         <v>303</v>
       </c>
       <c r="E302" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F302" t="s">
         <v>679</v>
@@ -11732,10 +11732,10 @@
         <v>762</v>
       </c>
       <c r="H302" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="I302" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
@@ -11749,7 +11749,7 @@
         <v>304</v>
       </c>
       <c r="E303" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F303" t="s">
         <v>680</v>
@@ -11758,10 +11758,10 @@
         <v>957</v>
       </c>
       <c r="H303" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="I303" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
@@ -11775,7 +11775,7 @@
         <v>305</v>
       </c>
       <c r="E304" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F304" t="s">
         <v>681</v>
@@ -11784,10 +11784,10 @@
         <v>762</v>
       </c>
       <c r="H304" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="I304" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
@@ -11801,7 +11801,7 @@
         <v>306</v>
       </c>
       <c r="E305" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F305" t="s">
         <v>682</v>
@@ -11810,10 +11810,10 @@
         <v>762</v>
       </c>
       <c r="H305" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="I305" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.25">
@@ -11827,7 +11827,7 @@
         <v>307</v>
       </c>
       <c r="E306" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F306" t="s">
         <v>683</v>
@@ -11836,10 +11836,10 @@
         <v>958</v>
       </c>
       <c r="H306" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I306" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
@@ -11853,7 +11853,7 @@
         <v>308</v>
       </c>
       <c r="E307" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F307" t="s">
         <v>684</v>
@@ -11862,10 +11862,10 @@
         <v>762</v>
       </c>
       <c r="H307" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="I307" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
@@ -11879,7 +11879,7 @@
         <v>309</v>
       </c>
       <c r="E308" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F308" t="s">
         <v>685</v>
@@ -11888,10 +11888,10 @@
         <v>762</v>
       </c>
       <c r="H308" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="I308" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.25">
@@ -11905,7 +11905,7 @@
         <v>310</v>
       </c>
       <c r="E309" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F309" t="s">
         <v>686</v>
@@ -11914,10 +11914,10 @@
         <v>762</v>
       </c>
       <c r="H309" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="I309" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
@@ -11934,7 +11934,7 @@
         <v>311</v>
       </c>
       <c r="E310" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F310" t="s">
         <v>687</v>
@@ -11943,10 +11943,10 @@
         <v>959</v>
       </c>
       <c r="H310" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="I310" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
@@ -11963,7 +11963,7 @@
         <v>312</v>
       </c>
       <c r="E311" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F311" t="s">
         <v>688</v>
@@ -11972,10 +11972,10 @@
         <v>960</v>
       </c>
       <c r="H311" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="I311" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
@@ -11992,7 +11992,7 @@
         <v>313</v>
       </c>
       <c r="E312" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F312" t="s">
         <v>689</v>
@@ -12001,10 +12001,10 @@
         <v>800</v>
       </c>
       <c r="H312" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="I312" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
@@ -12018,7 +12018,7 @@
         <v>314</v>
       </c>
       <c r="E313" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F313" t="s">
         <v>690</v>
@@ -12027,10 +12027,10 @@
         <v>961</v>
       </c>
       <c r="H313" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I313" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
@@ -12044,7 +12044,7 @@
         <v>315</v>
       </c>
       <c r="E314" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F314" t="s">
         <v>691</v>
@@ -12053,10 +12053,10 @@
         <v>762</v>
       </c>
       <c r="H314" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I314" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.25">
@@ -12070,7 +12070,7 @@
         <v>316</v>
       </c>
       <c r="E315" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F315" t="s">
         <v>692</v>
@@ -12079,10 +12079,10 @@
         <v>962</v>
       </c>
       <c r="H315" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I315" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
@@ -12096,7 +12096,7 @@
         <v>317</v>
       </c>
       <c r="E316" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F316" t="s">
         <v>693</v>
@@ -12105,10 +12105,10 @@
         <v>820</v>
       </c>
       <c r="H316" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I316" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
@@ -12122,7 +12122,7 @@
         <v>318</v>
       </c>
       <c r="E317" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F317" t="s">
         <v>694</v>
@@ -12131,10 +12131,10 @@
         <v>762</v>
       </c>
       <c r="H317" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I317" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
@@ -12148,7 +12148,7 @@
         <v>319</v>
       </c>
       <c r="E318" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F318" t="s">
         <v>695</v>
@@ -12157,10 +12157,10 @@
         <v>762</v>
       </c>
       <c r="H318" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I318" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
@@ -12174,7 +12174,7 @@
         <v>320</v>
       </c>
       <c r="E319" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F319" t="s">
         <v>696</v>
@@ -12183,13 +12183,13 @@
         <v>768</v>
       </c>
       <c r="H319" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="I319" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="J319" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
@@ -12203,7 +12203,7 @@
         <v>321</v>
       </c>
       <c r="E320" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F320" t="s">
         <v>697</v>
@@ -12212,13 +12212,13 @@
         <v>963</v>
       </c>
       <c r="H320" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="I320" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="J320" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.25">
@@ -12232,7 +12232,7 @@
         <v>322</v>
       </c>
       <c r="E321" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F321" t="s">
         <v>698</v>
@@ -12241,13 +12241,13 @@
         <v>964</v>
       </c>
       <c r="H321" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="I321" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="J321" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.25">
@@ -12261,7 +12261,7 @@
         <v>323</v>
       </c>
       <c r="E322" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F322" t="s">
         <v>699</v>
@@ -12270,13 +12270,13 @@
         <v>820</v>
       </c>
       <c r="H322" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="I322" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="J322" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
@@ -12290,7 +12290,7 @@
         <v>324</v>
       </c>
       <c r="E323" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F323" t="s">
         <v>700</v>
@@ -12299,13 +12299,13 @@
         <v>820</v>
       </c>
       <c r="H323" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="I323" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="J323" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
@@ -12319,7 +12319,7 @@
         <v>325</v>
       </c>
       <c r="E324" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F324" t="s">
         <v>701</v>
@@ -12328,13 +12328,13 @@
         <v>965</v>
       </c>
       <c r="H324" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="I324" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="J324" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
@@ -12348,7 +12348,7 @@
         <v>326</v>
       </c>
       <c r="E325" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F325" t="s">
         <v>702</v>
@@ -12357,13 +12357,13 @@
         <v>966</v>
       </c>
       <c r="H325" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="I325" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="J325" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
@@ -12377,7 +12377,7 @@
         <v>327</v>
       </c>
       <c r="E326" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F326" t="s">
         <v>703</v>
@@ -12386,13 +12386,13 @@
         <v>967</v>
       </c>
       <c r="H326" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="I326" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="J326" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
@@ -12406,7 +12406,7 @@
         <v>328</v>
       </c>
       <c r="E327" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F327" t="s">
         <v>704</v>
@@ -12415,10 +12415,10 @@
         <v>968</v>
       </c>
       <c r="H327" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="I327" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.25">
@@ -12432,7 +12432,7 @@
         <v>329</v>
       </c>
       <c r="E328" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F328" t="s">
         <v>705</v>
@@ -12441,10 +12441,10 @@
         <v>969</v>
       </c>
       <c r="H328" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="I328" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.25">
@@ -12458,7 +12458,7 @@
         <v>330</v>
       </c>
       <c r="E329" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F329" t="s">
         <v>706</v>
@@ -12467,10 +12467,10 @@
         <v>970</v>
       </c>
       <c r="H329" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="I329" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.25">
@@ -12484,7 +12484,7 @@
         <v>331</v>
       </c>
       <c r="E330" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F330" t="s">
         <v>707</v>
@@ -12493,10 +12493,10 @@
         <v>971</v>
       </c>
       <c r="H330" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="I330" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.25">
@@ -12510,7 +12510,7 @@
         <v>332</v>
       </c>
       <c r="E331" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F331" t="s">
         <v>708</v>
@@ -12519,10 +12519,10 @@
         <v>972</v>
       </c>
       <c r="H331" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="I331" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
@@ -12536,7 +12536,7 @@
         <v>333</v>
       </c>
       <c r="E332" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F332" t="s">
         <v>709</v>
@@ -12545,10 +12545,10 @@
         <v>820</v>
       </c>
       <c r="H332" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="I332" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
@@ -12562,7 +12562,7 @@
         <v>334</v>
       </c>
       <c r="E333" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F333" t="s">
         <v>710</v>
@@ -12571,10 +12571,10 @@
         <v>973</v>
       </c>
       <c r="H333" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="I333" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
@@ -12588,7 +12588,7 @@
         <v>335</v>
       </c>
       <c r="E334" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F334" t="s">
         <v>711</v>
@@ -12597,10 +12597,10 @@
         <v>762</v>
       </c>
       <c r="H334" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="I334" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
@@ -12614,7 +12614,7 @@
         <v>336</v>
       </c>
       <c r="E335" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F335" t="s">
         <v>712</v>
@@ -12623,10 +12623,10 @@
         <v>762</v>
       </c>
       <c r="H335" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="I335" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.25">
@@ -12640,7 +12640,7 @@
         <v>337</v>
       </c>
       <c r="E336" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F336" t="s">
         <v>713</v>
@@ -12649,10 +12649,10 @@
         <v>770</v>
       </c>
       <c r="H336" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="I336" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.25">
@@ -12669,7 +12669,7 @@
         <v>338</v>
       </c>
       <c r="E337" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F337" t="s">
         <v>714</v>
@@ -12678,10 +12678,10 @@
         <v>974</v>
       </c>
       <c r="H337" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="I337" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.25">
@@ -12698,7 +12698,7 @@
         <v>339</v>
       </c>
       <c r="E338" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F338" t="s">
         <v>715</v>
@@ -12707,10 +12707,10 @@
         <v>770</v>
       </c>
       <c r="H338" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="I338" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.25">
@@ -12727,7 +12727,7 @@
         <v>340</v>
       </c>
       <c r="E339" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F339" t="s">
         <v>716</v>
@@ -12736,10 +12736,10 @@
         <v>820</v>
       </c>
       <c r="H339" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="I339" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.25">
@@ -12756,7 +12756,7 @@
         <v>341</v>
       </c>
       <c r="E340" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F340" t="s">
         <v>717</v>
@@ -12765,10 +12765,10 @@
         <v>975</v>
       </c>
       <c r="H340" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="I340" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.25">
@@ -12785,7 +12785,7 @@
         <v>342</v>
       </c>
       <c r="E341" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F341" t="s">
         <v>718</v>
@@ -12794,10 +12794,10 @@
         <v>762</v>
       </c>
       <c r="H341" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="I341" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.25">
@@ -12814,7 +12814,7 @@
         <v>343</v>
       </c>
       <c r="E342" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F342" t="s">
         <v>719</v>
@@ -12823,10 +12823,10 @@
         <v>976</v>
       </c>
       <c r="H342" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="I342" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.25">
@@ -12843,7 +12843,7 @@
         <v>344</v>
       </c>
       <c r="E343" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F343" t="s">
         <v>720</v>
@@ -12852,10 +12852,10 @@
         <v>770</v>
       </c>
       <c r="H343" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="I343" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.25">
@@ -12869,7 +12869,7 @@
         <v>345</v>
       </c>
       <c r="E344" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F344" t="s">
         <v>721</v>
@@ -12878,10 +12878,10 @@
         <v>977</v>
       </c>
       <c r="H344" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I344" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.25">
@@ -12895,7 +12895,7 @@
         <v>346</v>
       </c>
       <c r="E345" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F345" t="s">
         <v>722</v>
@@ -12904,10 +12904,10 @@
         <v>762</v>
       </c>
       <c r="H345" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="I345" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.25">
@@ -12921,7 +12921,7 @@
         <v>347</v>
       </c>
       <c r="E346" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F346" t="s">
         <v>723</v>
@@ -12930,10 +12930,10 @@
         <v>763</v>
       </c>
       <c r="H346" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="I346" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.25">
@@ -12947,7 +12947,7 @@
         <v>348</v>
       </c>
       <c r="E347" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F347" t="s">
         <v>724</v>
@@ -12956,10 +12956,10 @@
         <v>762</v>
       </c>
       <c r="H347" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="I347" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.25">
@@ -12973,7 +12973,7 @@
         <v>349</v>
       </c>
       <c r="E348" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F348" t="s">
         <v>725</v>
@@ -12982,10 +12982,10 @@
         <v>764</v>
       </c>
       <c r="H348" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="I348" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.25">
@@ -12999,7 +12999,7 @@
         <v>350</v>
       </c>
       <c r="E349" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F349" t="s">
         <v>726</v>
@@ -13008,10 +13008,10 @@
         <v>763</v>
       </c>
       <c r="H349" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="I349" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.25">
@@ -13025,7 +13025,7 @@
         <v>351</v>
       </c>
       <c r="E350" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F350" t="s">
         <v>727</v>
@@ -13034,10 +13034,10 @@
         <v>762</v>
       </c>
       <c r="H350" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="I350" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.25">
@@ -13051,7 +13051,7 @@
         <v>352</v>
       </c>
       <c r="E351" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F351" t="s">
         <v>728</v>
@@ -13060,10 +13060,10 @@
         <v>764</v>
       </c>
       <c r="H351" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="I351" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.25">
@@ -13077,7 +13077,7 @@
         <v>353</v>
       </c>
       <c r="E352" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F352" t="s">
         <v>729</v>
@@ -13086,16 +13086,16 @@
         <v>912</v>
       </c>
       <c r="H352" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="I352" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="K352" t="s">
         <v>1018</v>
       </c>
       <c r="L352" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.25">
@@ -13109,7 +13109,7 @@
         <v>354</v>
       </c>
       <c r="E353" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F353" t="s">
         <v>730</v>
@@ -13118,16 +13118,16 @@
         <v>978</v>
       </c>
       <c r="H353" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="I353" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="K353" t="s">
         <v>1018</v>
       </c>
       <c r="L353" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.25">
@@ -13141,7 +13141,7 @@
         <v>355</v>
       </c>
       <c r="E354" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F354" t="s">
         <v>731</v>
@@ -13150,16 +13150,16 @@
         <v>979</v>
       </c>
       <c r="H354" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="I354" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="K354" t="s">
         <v>1018</v>
       </c>
       <c r="L354" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.25">
@@ -13173,7 +13173,7 @@
         <v>356</v>
       </c>
       <c r="E355" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F355" t="s">
         <v>732</v>
@@ -13182,10 +13182,10 @@
         <v>980</v>
       </c>
       <c r="H355" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="I355" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.25">
@@ -13199,7 +13199,7 @@
         <v>357</v>
       </c>
       <c r="E356" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F356" t="s">
         <v>733</v>
@@ -13208,10 +13208,10 @@
         <v>981</v>
       </c>
       <c r="H356" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="I356" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.25">
@@ -13225,7 +13225,7 @@
         <v>358</v>
       </c>
       <c r="E357" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F357" t="s">
         <v>734</v>
@@ -13234,10 +13234,10 @@
         <v>982</v>
       </c>
       <c r="H357" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="I357" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.25">
@@ -13251,7 +13251,7 @@
         <v>359</v>
       </c>
       <c r="E358" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F358" t="s">
         <v>735</v>
@@ -13260,10 +13260,10 @@
         <v>983</v>
       </c>
       <c r="H358" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="I358" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.25">
@@ -13277,7 +13277,7 @@
         <v>360</v>
       </c>
       <c r="E359" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F359" t="s">
         <v>736</v>
@@ -13286,10 +13286,10 @@
         <v>984</v>
       </c>
       <c r="H359" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="I359" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.25">
@@ -13303,7 +13303,7 @@
         <v>361</v>
       </c>
       <c r="E360" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F360" t="s">
         <v>737</v>
@@ -13312,10 +13312,10 @@
         <v>762</v>
       </c>
       <c r="H360" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="I360" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.25">
@@ -13329,7 +13329,7 @@
         <v>362</v>
       </c>
       <c r="E361" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F361" t="s">
         <v>738</v>
@@ -13338,10 +13338,10 @@
         <v>770</v>
       </c>
       <c r="H361" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="I361" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.25">
@@ -13355,7 +13355,7 @@
         <v>363</v>
       </c>
       <c r="E362" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F362" t="s">
         <v>739</v>
@@ -13364,10 +13364,10 @@
         <v>985</v>
       </c>
       <c r="H362" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="I362" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.25">
@@ -13381,7 +13381,7 @@
         <v>364</v>
       </c>
       <c r="E363" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F363" t="s">
         <v>740</v>
@@ -13390,10 +13390,10 @@
         <v>770</v>
       </c>
       <c r="H363" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="I363" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.25">
@@ -13407,7 +13407,7 @@
         <v>365</v>
       </c>
       <c r="E364" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F364" t="s">
         <v>741</v>
@@ -13419,7 +13419,7 @@
         <v>1018</v>
       </c>
       <c r="I364" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.25">
@@ -13433,7 +13433,7 @@
         <v>366</v>
       </c>
       <c r="E365" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F365" t="s">
         <v>742</v>
@@ -13445,7 +13445,7 @@
         <v>1018</v>
       </c>
       <c r="I365" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.25">
@@ -13459,7 +13459,7 @@
         <v>367</v>
       </c>
       <c r="E366" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F366" t="s">
         <v>743</v>
@@ -13471,7 +13471,7 @@
         <v>1018</v>
       </c>
       <c r="I366" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.25">
@@ -13485,7 +13485,7 @@
         <v>368</v>
       </c>
       <c r="E367" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F367" t="s">
         <v>744</v>
@@ -13494,10 +13494,10 @@
         <v>986</v>
       </c>
       <c r="H367" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="I367" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.25">
@@ -13511,7 +13511,7 @@
         <v>369</v>
       </c>
       <c r="E368" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F368" t="s">
         <v>745</v>
@@ -13520,10 +13520,10 @@
         <v>987</v>
       </c>
       <c r="H368" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="I368" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.25">
@@ -13537,7 +13537,7 @@
         <v>370</v>
       </c>
       <c r="E369" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F369" t="s">
         <v>746</v>
@@ -13546,10 +13546,10 @@
         <v>885</v>
       </c>
       <c r="H369" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="I369" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.25">
@@ -13563,7 +13563,7 @@
         <v>371</v>
       </c>
       <c r="E370" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F370" t="s">
         <v>747</v>
@@ -13572,16 +13572,16 @@
         <v>988</v>
       </c>
       <c r="H370" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="I370" t="s">
+        <v>1104</v>
+      </c>
+      <c r="K370" t="s">
+        <v>1085</v>
+      </c>
+      <c r="L370" t="s">
         <v>1105</v>
-      </c>
-      <c r="K370" t="s">
-        <v>1086</v>
-      </c>
-      <c r="L370" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.25">
@@ -13595,7 +13595,7 @@
         <v>372</v>
       </c>
       <c r="E371" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F371" t="s">
         <v>748</v>
@@ -13604,16 +13604,16 @@
         <v>989</v>
       </c>
       <c r="H371" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="I371" t="s">
+        <v>1104</v>
+      </c>
+      <c r="K371" t="s">
+        <v>1085</v>
+      </c>
+      <c r="L371" t="s">
         <v>1105</v>
-      </c>
-      <c r="K371" t="s">
-        <v>1086</v>
-      </c>
-      <c r="L371" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.25">
@@ -13627,7 +13627,7 @@
         <v>373</v>
       </c>
       <c r="E372" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F372" t="s">
         <v>749</v>
@@ -13636,10 +13636,10 @@
         <v>852</v>
       </c>
       <c r="H372" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I372" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.25">
@@ -13653,7 +13653,7 @@
         <v>374</v>
       </c>
       <c r="E373" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F373" t="s">
         <v>750</v>
@@ -13662,10 +13662,10 @@
         <v>990</v>
       </c>
       <c r="H373" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="I373" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.25">
@@ -13679,7 +13679,7 @@
         <v>375</v>
       </c>
       <c r="E374" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F374" t="s">
         <v>751</v>
@@ -13688,10 +13688,10 @@
         <v>770</v>
       </c>
       <c r="H374" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="I374" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.25">
@@ -13705,7 +13705,7 @@
         <v>376</v>
       </c>
       <c r="E375" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F375" t="s">
         <v>752</v>
@@ -13714,10 +13714,10 @@
         <v>762</v>
       </c>
       <c r="H375" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="I375" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.25">
@@ -13731,7 +13731,7 @@
         <v>377</v>
       </c>
       <c r="E376" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F376" t="s">
         <v>753</v>
@@ -13740,10 +13740,10 @@
         <v>762</v>
       </c>
       <c r="H376" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="I376" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.25">
@@ -13757,7 +13757,7 @@
         <v>378</v>
       </c>
       <c r="E377" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F377" t="s">
         <v>754</v>
@@ -13766,10 +13766,10 @@
         <v>991</v>
       </c>
       <c r="H377" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="I377" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
   </sheetData>

--- a/data-migration/xlsx_1900-/1903_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1903_Sommer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6D87B5-CD41-401F-89BF-D22038947262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F30CFF-161E-40F3-A1F3-67D2B8BF1BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="684" windowWidth="11676" windowHeight="13716" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2702" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="1131">
   <si>
     <t>Sommer</t>
   </si>
@@ -3769,19 +3769,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="H162" sqref="H162"/>
+    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="31.5703125" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" customWidth="1"/>
+    <col min="5" max="5" width="31.5546875" customWidth="1"/>
+    <col min="6" max="6" width="35.5546875" customWidth="1"/>
+    <col min="7" max="7" width="25.5546875" customWidth="1"/>
+    <col min="8" max="8" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1903</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1903</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1903</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1903</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1903</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1903</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1903</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1903</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1903</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1903</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1903</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1903</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1903</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1903</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1903</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1903</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1903</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1903</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1903</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1903</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1903</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1903</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1903</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1903</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1903</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1903</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1903</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1903</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1903</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1903</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1903</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1903</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1903</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1903</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1903</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1903</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1903</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1903</v>
       </c>
@@ -4780,8 +4780,11 @@
       <c r="I38" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1903</v>
       </c>
@@ -4807,7 +4810,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1903</v>
       </c>
@@ -4833,7 +4836,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1903</v>
       </c>
@@ -4859,7 +4862,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1903</v>
       </c>
@@ -4885,7 +4888,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1903</v>
       </c>
@@ -4911,7 +4914,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1903</v>
       </c>
@@ -4937,7 +4940,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1903</v>
       </c>
@@ -4963,7 +4966,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1903</v>
       </c>
@@ -4989,7 +4992,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1903</v>
       </c>
@@ -5015,7 +5018,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1903</v>
       </c>
@@ -5041,7 +5044,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1903</v>
       </c>
@@ -5067,7 +5070,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1903</v>
       </c>
@@ -5093,7 +5096,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1903</v>
       </c>
@@ -5119,7 +5122,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1903</v>
       </c>
@@ -5145,7 +5148,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1903</v>
       </c>
@@ -5171,7 +5174,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1903</v>
       </c>
@@ -5197,7 +5200,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1903</v>
       </c>
@@ -5223,7 +5226,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1903</v>
       </c>
@@ -5249,7 +5252,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1903</v>
       </c>
@@ -5275,7 +5278,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1903</v>
       </c>
@@ -5301,7 +5304,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1903</v>
       </c>
@@ -5330,7 +5333,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1903</v>
       </c>
@@ -5359,7 +5362,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1903</v>
       </c>
@@ -5385,7 +5388,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1903</v>
       </c>
@@ -5411,7 +5414,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1903</v>
       </c>
@@ -5437,7 +5440,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1903</v>
       </c>
@@ -5463,7 +5466,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1903</v>
       </c>
@@ -5489,7 +5492,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1903</v>
       </c>
@@ -5515,7 +5518,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1903</v>
       </c>
@@ -5541,7 +5544,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1903</v>
       </c>
@@ -5570,7 +5573,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1903</v>
       </c>
@@ -5596,7 +5599,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1903</v>
       </c>
@@ -5622,7 +5625,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1903</v>
       </c>
@@ -5651,7 +5654,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1903</v>
       </c>
@@ -5677,7 +5680,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1903</v>
       </c>
@@ -5709,7 +5712,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1903</v>
       </c>
@@ -5735,7 +5738,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1903</v>
       </c>
@@ -5767,7 +5770,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1903</v>
       </c>
@@ -5805,7 +5808,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1903</v>
       </c>
@@ -5831,7 +5834,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1903</v>
       </c>
@@ -5857,7 +5860,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1903</v>
       </c>
@@ -5883,7 +5886,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1903</v>
       </c>
@@ -5909,7 +5912,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1903</v>
       </c>
@@ -5935,7 +5938,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1903</v>
       </c>
@@ -5961,7 +5964,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1903</v>
       </c>
@@ -5987,7 +5990,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1903</v>
       </c>
@@ -6013,7 +6016,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1903</v>
       </c>
@@ -6039,7 +6042,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1903</v>
       </c>
@@ -6065,7 +6068,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1903</v>
       </c>
@@ -6091,7 +6094,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1903</v>
       </c>
@@ -6117,7 +6120,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1903</v>
       </c>
@@ -6143,7 +6146,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1903</v>
       </c>
@@ -6169,7 +6172,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1903</v>
       </c>
@@ -6195,7 +6198,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1903</v>
       </c>
@@ -6221,7 +6224,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1903</v>
       </c>
@@ -6247,7 +6250,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1903</v>
       </c>
@@ -6273,7 +6276,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1903</v>
       </c>
@@ -6299,7 +6302,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1903</v>
       </c>
@@ -6325,7 +6328,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1903</v>
       </c>
@@ -6351,7 +6354,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1903</v>
       </c>
@@ -6377,7 +6380,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1903</v>
       </c>
@@ -6403,7 +6406,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1903</v>
       </c>
@@ -6429,7 +6432,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1903</v>
       </c>
@@ -6455,7 +6458,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1903</v>
       </c>
@@ -6481,7 +6484,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1903</v>
       </c>
@@ -6507,7 +6510,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1903</v>
       </c>
@@ -6533,7 +6536,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1903</v>
       </c>
@@ -6559,7 +6562,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1903</v>
       </c>
@@ -6585,7 +6588,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1903</v>
       </c>
@@ -6611,7 +6614,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1903</v>
       </c>
@@ -6637,7 +6640,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1903</v>
       </c>
@@ -6663,7 +6666,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1903</v>
       </c>
@@ -6689,7 +6692,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1903</v>
       </c>
@@ -6715,7 +6718,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1903</v>
       </c>
@@ -6741,7 +6744,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1903</v>
       </c>
@@ -6767,7 +6770,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1903</v>
       </c>
@@ -6793,7 +6796,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1903</v>
       </c>
@@ -6819,7 +6822,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1903</v>
       </c>
@@ -6845,7 +6848,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1903</v>
       </c>
@@ -6871,7 +6874,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1903</v>
       </c>
@@ -6897,7 +6900,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1903</v>
       </c>
@@ -6923,7 +6926,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1903</v>
       </c>
@@ -6949,7 +6952,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1903</v>
       </c>
@@ -6975,7 +6978,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1903</v>
       </c>
@@ -7001,7 +7004,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1903</v>
       </c>
@@ -7027,7 +7030,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1903</v>
       </c>
@@ -7053,7 +7056,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1903</v>
       </c>
@@ -7079,7 +7082,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1903</v>
       </c>
@@ -7105,7 +7108,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1903</v>
       </c>
@@ -7131,7 +7134,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1903</v>
       </c>
@@ -7157,7 +7160,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1903</v>
       </c>
@@ -7183,7 +7186,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1903</v>
       </c>
@@ -7209,7 +7212,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1903</v>
       </c>
@@ -7235,7 +7238,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1903</v>
       </c>
@@ -7261,7 +7264,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1903</v>
       </c>
@@ -7287,7 +7290,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1903</v>
       </c>
@@ -7313,7 +7316,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1903</v>
       </c>
@@ -7339,7 +7342,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1903</v>
       </c>
@@ -7365,7 +7368,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1903</v>
       </c>
@@ -7391,7 +7394,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1903</v>
       </c>
@@ -7417,7 +7420,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1903</v>
       </c>
@@ -7443,7 +7446,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1903</v>
       </c>
@@ -7469,7 +7472,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1903</v>
       </c>
@@ -7495,7 +7498,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1903</v>
       </c>
@@ -7521,7 +7524,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1903</v>
       </c>
@@ -7547,7 +7550,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1903</v>
       </c>
@@ -7573,7 +7576,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1903</v>
       </c>
@@ -7599,7 +7602,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1903</v>
       </c>
@@ -7625,7 +7628,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1903</v>
       </c>
@@ -7651,7 +7654,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1903</v>
       </c>
@@ -7677,7 +7680,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1903</v>
       </c>
@@ -7703,7 +7706,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1903</v>
       </c>
@@ -7732,7 +7735,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1903</v>
       </c>
@@ -7758,7 +7761,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1903</v>
       </c>
@@ -7784,7 +7787,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1903</v>
       </c>
@@ -7810,7 +7813,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1903</v>
       </c>
@@ -7836,7 +7839,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1903</v>
       </c>
@@ -7862,7 +7865,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1903</v>
       </c>
@@ -7888,7 +7891,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1903</v>
       </c>
@@ -7914,7 +7917,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1903</v>
       </c>
@@ -7940,7 +7943,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1903</v>
       </c>
@@ -7966,7 +7969,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1903</v>
       </c>
@@ -7992,7 +7995,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1903</v>
       </c>
@@ -8018,7 +8021,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1903</v>
       </c>
@@ -8044,7 +8047,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1903</v>
       </c>
@@ -8088,7 +8091,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1903</v>
       </c>
@@ -8114,7 +8117,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1903</v>
       </c>
@@ -8140,7 +8143,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1903</v>
       </c>
@@ -8166,7 +8169,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1903</v>
       </c>
@@ -8192,7 +8195,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1903</v>
       </c>
@@ -8218,7 +8221,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1903</v>
       </c>
@@ -8244,7 +8247,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1903</v>
       </c>
@@ -8270,7 +8273,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1903</v>
       </c>
@@ -8296,7 +8299,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1903</v>
       </c>
@@ -8322,7 +8325,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1903</v>
       </c>
@@ -8348,7 +8351,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1903</v>
       </c>
@@ -8374,7 +8377,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1903</v>
       </c>
@@ -8400,7 +8403,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1903</v>
       </c>
@@ -8426,7 +8429,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1903</v>
       </c>
@@ -8452,7 +8455,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1903</v>
       </c>
@@ -8478,7 +8481,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1903</v>
       </c>
@@ -8504,7 +8507,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1903</v>
       </c>
@@ -8530,7 +8533,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1903</v>
       </c>
@@ -8556,7 +8559,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1903</v>
       </c>
@@ -8582,7 +8585,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1903</v>
       </c>
@@ -8611,7 +8614,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1903</v>
       </c>
@@ -8640,7 +8643,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1903</v>
       </c>
@@ -8669,7 +8672,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1903</v>
       </c>
@@ -8698,7 +8701,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1903</v>
       </c>
@@ -8727,7 +8730,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1903</v>
       </c>
@@ -8756,7 +8759,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1903</v>
       </c>
@@ -8782,7 +8785,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1903</v>
       </c>
@@ -8808,7 +8811,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1903</v>
       </c>
@@ -8834,7 +8837,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1903</v>
       </c>
@@ -8860,7 +8863,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1903</v>
       </c>
@@ -8886,7 +8889,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1903</v>
       </c>
@@ -8912,7 +8915,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1903</v>
       </c>
@@ -8938,7 +8941,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1903</v>
       </c>
@@ -8964,7 +8967,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1903</v>
       </c>
@@ -8990,7 +8993,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1903</v>
       </c>
@@ -9016,7 +9019,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1903</v>
       </c>
@@ -9042,7 +9045,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1903</v>
       </c>
@@ -9068,7 +9071,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1903</v>
       </c>
@@ -9094,7 +9097,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1903</v>
       </c>
@@ -9120,7 +9123,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1903</v>
       </c>
@@ -9146,7 +9149,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1903</v>
       </c>
@@ -9178,7 +9181,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1903</v>
       </c>
@@ -9204,7 +9207,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1903</v>
       </c>
@@ -9230,7 +9233,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1903</v>
       </c>
@@ -9256,7 +9259,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1903</v>
       </c>
@@ -9282,7 +9285,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1903</v>
       </c>
@@ -9308,7 +9311,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1903</v>
       </c>
@@ -9334,7 +9337,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1903</v>
       </c>
@@ -9360,7 +9363,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1903</v>
       </c>
@@ -9386,7 +9389,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1903</v>
       </c>
@@ -9412,7 +9415,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1903</v>
       </c>
@@ -9438,7 +9441,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1903</v>
       </c>
@@ -9464,7 +9467,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1903</v>
       </c>
@@ -9490,7 +9493,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1903</v>
       </c>
@@ -9516,7 +9519,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1903</v>
       </c>
@@ -9542,7 +9545,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>1903</v>
       </c>
@@ -9568,7 +9571,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1903</v>
       </c>
@@ -9594,7 +9597,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1903</v>
       </c>
@@ -9620,7 +9623,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1903</v>
       </c>
@@ -9646,7 +9649,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1903</v>
       </c>
@@ -9672,7 +9675,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1903</v>
       </c>
@@ -9698,7 +9701,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1903</v>
       </c>
@@ -9724,7 +9727,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1903</v>
       </c>
@@ -9750,7 +9753,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1903</v>
       </c>
@@ -9776,7 +9779,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1903</v>
       </c>
@@ -9802,7 +9805,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1903</v>
       </c>
@@ -9828,7 +9831,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1903</v>
       </c>
@@ -9854,7 +9857,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1903</v>
       </c>
@@ -9880,7 +9883,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1903</v>
       </c>
@@ -9906,7 +9909,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1903</v>
       </c>
@@ -9932,7 +9935,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1903</v>
       </c>
@@ -9958,7 +9961,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1903</v>
       </c>
@@ -9984,7 +9987,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1903</v>
       </c>
@@ -10010,7 +10013,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1903</v>
       </c>
@@ -10039,7 +10042,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1903</v>
       </c>
@@ -10068,7 +10071,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1903</v>
       </c>
@@ -10097,7 +10100,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1903</v>
       </c>
@@ -10123,7 +10126,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1903</v>
       </c>
@@ -10149,7 +10152,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1903</v>
       </c>
@@ -10175,7 +10178,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1903</v>
       </c>
@@ -10201,7 +10204,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1903</v>
       </c>
@@ -10227,7 +10230,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1903</v>
       </c>
@@ -10253,7 +10256,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1903</v>
       </c>
@@ -10279,7 +10282,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1903</v>
       </c>
@@ -10305,7 +10308,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1903</v>
       </c>
@@ -10331,7 +10334,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1903</v>
       </c>
@@ -10357,7 +10360,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1903</v>
       </c>
@@ -10383,7 +10386,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1903</v>
       </c>
@@ -10409,7 +10412,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1903</v>
       </c>
@@ -10435,7 +10438,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1903</v>
       </c>
@@ -10461,7 +10464,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1903</v>
       </c>
@@ -10490,7 +10493,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1903</v>
       </c>
@@ -10516,7 +10519,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1903</v>
       </c>
@@ -10542,7 +10545,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1903</v>
       </c>
@@ -10568,7 +10571,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1903</v>
       </c>
@@ -10594,7 +10597,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1903</v>
       </c>
@@ -10620,7 +10623,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1903</v>
       </c>
@@ -10646,7 +10649,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1903</v>
       </c>
@@ -10672,7 +10675,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1903</v>
       </c>
@@ -10698,7 +10701,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1903</v>
       </c>
@@ -10724,7 +10727,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1903</v>
       </c>
@@ -10750,7 +10753,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1903</v>
       </c>
@@ -10776,7 +10779,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1903</v>
       </c>
@@ -10802,7 +10805,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1903</v>
       </c>
@@ -10828,7 +10831,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1903</v>
       </c>
@@ -10854,7 +10857,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1903</v>
       </c>
@@ -10880,7 +10883,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1903</v>
       </c>
@@ -10906,7 +10909,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1903</v>
       </c>
@@ -10932,7 +10935,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1903</v>
       </c>
@@ -10958,7 +10961,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1903</v>
       </c>
@@ -10984,7 +10987,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1903</v>
       </c>
@@ -11010,7 +11013,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>1903</v>
       </c>
@@ -11036,7 +11039,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1903</v>
       </c>
@@ -11059,10 +11062,10 @@
         <v>1034</v>
       </c>
       <c r="I276" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1903</v>
       </c>
@@ -11088,7 +11091,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1903</v>
       </c>
@@ -11114,7 +11117,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1903</v>
       </c>
@@ -11140,7 +11143,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1903</v>
       </c>
@@ -11166,7 +11169,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1903</v>
       </c>
@@ -11192,7 +11195,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1903</v>
       </c>
@@ -11218,7 +11221,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1903</v>
       </c>
@@ -11244,7 +11247,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1903</v>
       </c>
@@ -11270,7 +11273,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1903</v>
       </c>
@@ -11296,7 +11299,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1903</v>
       </c>
@@ -11322,7 +11325,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1903</v>
       </c>
@@ -11348,7 +11351,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1903</v>
       </c>
@@ -11374,7 +11377,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1903</v>
       </c>
@@ -11400,7 +11403,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1903</v>
       </c>
@@ -11426,7 +11429,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1903</v>
       </c>
@@ -11452,7 +11455,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1903</v>
       </c>
@@ -11478,7 +11481,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1903</v>
       </c>
@@ -11504,7 +11507,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1903</v>
       </c>
@@ -11530,7 +11533,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1903</v>
       </c>
@@ -11556,7 +11559,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1903</v>
       </c>
@@ -11582,7 +11585,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>1903</v>
       </c>
@@ -11608,7 +11611,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1903</v>
       </c>
@@ -11634,7 +11637,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1903</v>
       </c>
@@ -11660,7 +11663,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1903</v>
       </c>
@@ -11686,7 +11689,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1903</v>
       </c>
@@ -11712,7 +11715,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1903</v>
       </c>
@@ -11738,7 +11741,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1903</v>
       </c>
@@ -11764,7 +11767,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1903</v>
       </c>
@@ -11790,7 +11793,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1903</v>
       </c>
@@ -11816,7 +11819,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1903</v>
       </c>
@@ -11842,7 +11845,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1903</v>
       </c>
@@ -11868,7 +11871,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1903</v>
       </c>
@@ -11894,7 +11897,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>1903</v>
       </c>
@@ -11920,7 +11923,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1903</v>
       </c>
@@ -11949,7 +11952,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1903</v>
       </c>
@@ -11978,7 +11981,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1903</v>
       </c>
@@ -12007,7 +12010,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>1903</v>
       </c>
@@ -12033,7 +12036,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1903</v>
       </c>
@@ -12059,7 +12062,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>1903</v>
       </c>
@@ -12085,7 +12088,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>1903</v>
       </c>
@@ -12111,7 +12114,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>1903</v>
       </c>
@@ -12137,7 +12140,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>1903</v>
       </c>
@@ -12163,7 +12166,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>1903</v>
       </c>
@@ -12192,7 +12195,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1903</v>
       </c>
@@ -12221,7 +12224,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>1903</v>
       </c>
@@ -12250,7 +12253,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>1903</v>
       </c>
@@ -12279,7 +12282,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>1903</v>
       </c>
@@ -12308,7 +12311,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>1903</v>
       </c>
@@ -12337,7 +12340,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1903</v>
       </c>
@@ -12366,7 +12369,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>1903</v>
       </c>
@@ -12395,7 +12398,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>1903</v>
       </c>
@@ -12421,7 +12424,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>1903</v>
       </c>
@@ -12447,7 +12450,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>1903</v>
       </c>
@@ -12473,7 +12476,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>1903</v>
       </c>
@@ -12499,7 +12502,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>1903</v>
       </c>
@@ -12525,7 +12528,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>1903</v>
       </c>
@@ -12551,7 +12554,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>1903</v>
       </c>
@@ -12577,7 +12580,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>1903</v>
       </c>
@@ -12603,7 +12606,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>1903</v>
       </c>
@@ -12629,7 +12632,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>1903</v>
       </c>
@@ -12655,7 +12658,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>1903</v>
       </c>
@@ -12684,7 +12687,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>1903</v>
       </c>
@@ -12713,7 +12716,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>1903</v>
       </c>
@@ -12742,7 +12745,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>1903</v>
       </c>
@@ -12771,7 +12774,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>1903</v>
       </c>
@@ -12800,7 +12803,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>1903</v>
       </c>
@@ -12829,7 +12832,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>1903</v>
       </c>
@@ -12858,7 +12861,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>1903</v>
       </c>
@@ -12884,7 +12887,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>1903</v>
       </c>
@@ -12910,7 +12913,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>1903</v>
       </c>
@@ -12936,7 +12939,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>1903</v>
       </c>
@@ -12962,7 +12965,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>1903</v>
       </c>
@@ -12988,7 +12991,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>1903</v>
       </c>
@@ -13014,7 +13017,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>1903</v>
       </c>
@@ -13040,7 +13043,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>1903</v>
       </c>
@@ -13066,7 +13069,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>1903</v>
       </c>
@@ -13098,7 +13101,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>1903</v>
       </c>
@@ -13130,7 +13133,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>1903</v>
       </c>
@@ -13162,7 +13165,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>1903</v>
       </c>
@@ -13188,7 +13191,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>1903</v>
       </c>
@@ -13214,7 +13217,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>1903</v>
       </c>
@@ -13240,7 +13243,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>1903</v>
       </c>
@@ -13266,7 +13269,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>1903</v>
       </c>
@@ -13292,7 +13295,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>1903</v>
       </c>
@@ -13318,7 +13321,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>1903</v>
       </c>
@@ -13344,7 +13347,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>1903</v>
       </c>
@@ -13370,7 +13373,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>1903</v>
       </c>
@@ -13396,7 +13399,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>1903</v>
       </c>
@@ -13422,7 +13425,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>1903</v>
       </c>
@@ -13448,7 +13451,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>1903</v>
       </c>
@@ -13474,7 +13477,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>1903</v>
       </c>
@@ -13500,7 +13503,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>1903</v>
       </c>
@@ -13526,7 +13529,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>1903</v>
       </c>
@@ -13552,7 +13555,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>1903</v>
       </c>
@@ -13584,7 +13587,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>1903</v>
       </c>
@@ -13616,7 +13619,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>1903</v>
       </c>
@@ -13642,7 +13645,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>1903</v>
       </c>
@@ -13668,7 +13671,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>1903</v>
       </c>
@@ -13694,7 +13697,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>1903</v>
       </c>
@@ -13720,7 +13723,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>1903</v>
       </c>
@@ -13746,7 +13749,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>1903</v>
       </c>

--- a/data-migration/xlsx_1900-/1903_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1903_Sommer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TEMP_REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F30CFF-161E-40F3-A1F3-67D2B8BF1BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454A4A3F-D2FC-45AF-849F-43D2AC24BEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="684" windowWidth="11676" windowHeight="13716" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3023,9 +3023,6 @@
     <t>kesselring_h</t>
   </si>
   <si>
-    <t>kappeler_a</t>
-  </si>
-  <si>
     <t>furrer_k</t>
   </si>
   <si>
@@ -3047,9 +3044,6 @@
     <t>schneider_a</t>
   </si>
   <si>
-    <t>hitzig_t</t>
-  </si>
-  <si>
     <t>cohn_g</t>
   </si>
   <si>
@@ -3116,9 +3110,6 @@
     <t>heuss_e</t>
   </si>
   <si>
-    <t>kroenlein_u</t>
-  </si>
-  <si>
     <t>schlatter_k</t>
   </si>
   <si>
@@ -3206,9 +3197,6 @@
     <t>rittershaus_a</t>
   </si>
   <si>
-    <t>frey_k</t>
-  </si>
-  <si>
     <t>vetter_t</t>
   </si>
   <si>
@@ -3227,9 +3215,6 @@
     <t>donati_l</t>
   </si>
   <si>
-    <t>betz_lp</t>
-  </si>
-  <si>
     <t>heierli_j</t>
   </si>
   <si>
@@ -3305,21 +3290,9 @@
     <t>lang_a</t>
   </si>
   <si>
-    <t>standfuss_m</t>
-  </si>
-  <si>
     <t>martin_r</t>
   </si>
   <si>
-    <t>vonschulthessrechberg_g</t>
-  </si>
-  <si>
-    <t>vonmonakow_c</t>
-  </si>
-  <si>
-    <t>silberschmidt _w</t>
-  </si>
-  <si>
     <t>cloetta_m</t>
   </si>
   <si>
@@ -3344,9 +3317,6 @@
     <t>suchannek_h</t>
   </si>
   <si>
-    <t>meyerrueegg_h</t>
-  </si>
-  <si>
     <t>O</t>
   </si>
   <si>
@@ -3383,9 +3353,6 @@
     <t>Medizinische Fakultät</t>
   </si>
   <si>
-    <t>wyss_o</t>
-  </si>
-  <si>
     <t>Veterinärmedizinische Fakultät</t>
   </si>
   <si>
@@ -3426,6 +3393,39 @@
   </si>
   <si>
     <t>gysi_a</t>
+  </si>
+  <si>
+    <t>frey_a</t>
+  </si>
+  <si>
+    <t>betz_l</t>
+  </si>
+  <si>
+    <t>kappeler_ga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meyer-rueegg_h </t>
+  </si>
+  <si>
+    <t>hitzig_hf</t>
+  </si>
+  <si>
+    <t>kroenlein_ru</t>
+  </si>
+  <si>
+    <t>monakow_c</t>
+  </si>
+  <si>
+    <t>schulthess_rg</t>
+  </si>
+  <si>
+    <t>wyss-kienast_o</t>
+  </si>
+  <si>
+    <t>standfuss_mr</t>
+  </si>
+  <si>
+    <t>silberschmidt_w</t>
   </si>
 </sst>
 </file>
@@ -3465,7 +3465,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3769,11 +3769,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="B78" workbookViewId="0">
+      <selection activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="31.5546875" customWidth="1"/>
     <col min="6" max="6" width="35.5546875" customWidth="1"/>
@@ -3792,7 +3792,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="F1" t="s">
         <v>379</v>
@@ -3804,7 +3804,7 @@
         <v>992</v>
       </c>
       <c r="I1" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -3818,7 +3818,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="F2" t="s">
         <v>380</v>
@@ -3830,7 +3830,7 @@
         <v>992</v>
       </c>
       <c r="I2" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3844,7 +3844,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="F3" t="s">
         <v>381</v>
@@ -3856,7 +3856,7 @@
         <v>993</v>
       </c>
       <c r="I3" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3870,7 +3870,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="F4" t="s">
         <v>382</v>
@@ -3882,7 +3882,7 @@
         <v>994</v>
       </c>
       <c r="I4" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3896,7 +3896,7 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="F5" t="s">
         <v>383</v>
@@ -3908,10 +3908,10 @@
         <v>995</v>
       </c>
       <c r="I5" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="J5" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3925,7 +3925,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="F6" t="s">
         <v>384</v>
@@ -3937,7 +3937,7 @@
         <v>993</v>
       </c>
       <c r="I6" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -3951,7 +3951,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="F7" t="s">
         <v>385</v>
@@ -3960,10 +3960,10 @@
         <v>758</v>
       </c>
       <c r="H7" t="s">
-        <v>996</v>
+        <v>1122</v>
       </c>
       <c r="I7" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3977,7 +3977,7 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="F8" t="s">
         <v>386</v>
@@ -3989,7 +3989,7 @@
         <v>993</v>
       </c>
       <c r="I8" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4003,7 +4003,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="F9" t="s">
         <v>387</v>
@@ -4015,7 +4015,7 @@
         <v>994</v>
       </c>
       <c r="I9" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4029,7 +4029,7 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="F10" t="s">
         <v>388</v>
@@ -4041,7 +4041,7 @@
         <v>994</v>
       </c>
       <c r="I10" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4055,7 +4055,7 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="F11" t="s">
         <v>389</v>
@@ -4064,10 +4064,10 @@
         <v>764</v>
       </c>
       <c r="H11" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="I11" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4081,7 +4081,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="F12" t="s">
         <v>390</v>
@@ -4090,10 +4090,10 @@
         <v>763</v>
       </c>
       <c r="H12" t="s">
-        <v>996</v>
+        <v>1122</v>
       </c>
       <c r="I12" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -4107,7 +4107,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="F13" t="s">
         <v>391</v>
@@ -4119,10 +4119,10 @@
         <v>995</v>
       </c>
       <c r="I13" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="J13" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -4136,7 +4136,7 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="F14" t="s">
         <v>392</v>
@@ -4145,10 +4145,10 @@
         <v>765</v>
       </c>
       <c r="H14" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I14" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -4162,7 +4162,7 @@
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="F15" t="s">
         <v>393</v>
@@ -4171,10 +4171,10 @@
         <v>762</v>
       </c>
       <c r="H15" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I15" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -4188,7 +4188,7 @@
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="F16" t="s">
         <v>394</v>
@@ -4197,10 +4197,10 @@
         <v>766</v>
       </c>
       <c r="H16" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I16" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -4214,7 +4214,7 @@
         <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="F17" t="s">
         <v>395</v>
@@ -4223,10 +4223,10 @@
         <v>767</v>
       </c>
       <c r="H17" t="s">
-        <v>1092</v>
+        <v>1127</v>
       </c>
       <c r="I17" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -4240,7 +4240,7 @@
         <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="F18" t="s">
         <v>396</v>
@@ -4249,10 +4249,10 @@
         <v>768</v>
       </c>
       <c r="H18" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I18" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -4266,7 +4266,7 @@
         <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="F19" t="s">
         <v>397</v>
@@ -4275,10 +4275,10 @@
         <v>769</v>
       </c>
       <c r="H19" t="s">
-        <v>1092</v>
+        <v>1127</v>
       </c>
       <c r="I19" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -4292,7 +4292,7 @@
         <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="F20" t="s">
         <v>398</v>
@@ -4301,10 +4301,10 @@
         <v>762</v>
       </c>
       <c r="H20" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I20" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -4318,7 +4318,7 @@
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="F21" t="s">
         <v>399</v>
@@ -4327,10 +4327,10 @@
         <v>770</v>
       </c>
       <c r="H21" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I21" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -4344,7 +4344,7 @@
         <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="F22" t="s">
         <v>400</v>
@@ -4353,10 +4353,10 @@
         <v>770</v>
       </c>
       <c r="H22" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I22" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -4370,7 +4370,7 @@
         <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="F23" t="s">
         <v>401</v>
@@ -4382,10 +4382,10 @@
         <v>995</v>
       </c>
       <c r="I23" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="J23" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -4399,7 +4399,7 @@
         <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="F24" t="s">
         <v>402</v>
@@ -4408,10 +4408,10 @@
         <v>764</v>
       </c>
       <c r="H24" t="s">
-        <v>1124</v>
+        <v>1113</v>
       </c>
       <c r="I24" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -4425,7 +4425,7 @@
         <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="F25" t="s">
         <v>403</v>
@@ -4434,10 +4434,10 @@
         <v>763</v>
       </c>
       <c r="H25" t="s">
-        <v>1124</v>
+        <v>1113</v>
       </c>
       <c r="I25" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -4451,7 +4451,7 @@
         <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="F26" t="s">
         <v>404</v>
@@ -4460,10 +4460,10 @@
         <v>772</v>
       </c>
       <c r="H26" t="s">
-        <v>1124</v>
+        <v>1113</v>
       </c>
       <c r="I26" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -4477,7 +4477,7 @@
         <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="F27" t="s">
         <v>405</v>
@@ -4486,10 +4486,10 @@
         <v>763</v>
       </c>
       <c r="H27" t="s">
-        <v>1124</v>
+        <v>1113</v>
       </c>
       <c r="I27" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -4503,7 +4503,7 @@
         <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="F28" t="s">
         <v>406</v>
@@ -4515,7 +4515,7 @@
         <v>992</v>
       </c>
       <c r="I28" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -4529,7 +4529,7 @@
         <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="F29" t="s">
         <v>407</v>
@@ -4541,10 +4541,10 @@
         <v>995</v>
       </c>
       <c r="I29" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="J29" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -4558,7 +4558,7 @@
         <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="F30" t="s">
         <v>408</v>
@@ -4567,10 +4567,10 @@
         <v>775</v>
       </c>
       <c r="H30" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I30" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -4584,7 +4584,7 @@
         <v>32</v>
       </c>
       <c r="E31" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="F31" t="s">
         <v>409</v>
@@ -4593,10 +4593,10 @@
         <v>776</v>
       </c>
       <c r="H31" t="s">
-        <v>1092</v>
+        <v>1127</v>
       </c>
       <c r="I31" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -4610,7 +4610,7 @@
         <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="F32" t="s">
         <v>410</v>
@@ -4619,10 +4619,10 @@
         <v>777</v>
       </c>
       <c r="H32" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I32" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -4636,7 +4636,7 @@
         <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="F33" t="s">
         <v>411</v>
@@ -4645,10 +4645,10 @@
         <v>778</v>
       </c>
       <c r="H33" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="I33" t="s">
-        <v>1129</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -4662,7 +4662,7 @@
         <v>35</v>
       </c>
       <c r="E34" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="F34" t="s">
         <v>412</v>
@@ -4671,10 +4671,10 @@
         <v>779</v>
       </c>
       <c r="H34" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="I34" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -4688,7 +4688,7 @@
         <v>36</v>
       </c>
       <c r="E35" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="F35" t="s">
         <v>413</v>
@@ -4697,10 +4697,10 @@
         <v>780</v>
       </c>
       <c r="H35" t="s">
-        <v>1004</v>
+        <v>1124</v>
       </c>
       <c r="I35" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -4714,7 +4714,7 @@
         <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="F36" t="s">
         <v>414</v>
@@ -4723,10 +4723,10 @@
         <v>781</v>
       </c>
       <c r="H36" t="s">
-        <v>1004</v>
+        <v>1124</v>
       </c>
       <c r="I36" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -4740,7 +4740,7 @@
         <v>38</v>
       </c>
       <c r="E37" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="F37" t="s">
         <v>415</v>
@@ -4749,10 +4749,10 @@
         <v>782</v>
       </c>
       <c r="H37" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="I37" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -4766,7 +4766,7 @@
         <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="F38" t="s">
         <v>416</v>
@@ -4775,13 +4775,13 @@
         <v>783</v>
       </c>
       <c r="H38" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="I38" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="J38" t="s">
-        <v>1109</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -4795,7 +4795,7 @@
         <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="F39" t="s">
         <v>417</v>
@@ -4804,10 +4804,10 @@
         <v>784</v>
       </c>
       <c r="H39" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I39" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -4821,7 +4821,7 @@
         <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="F40" t="s">
         <v>418</v>
@@ -4830,10 +4830,10 @@
         <v>785</v>
       </c>
       <c r="H40" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I40" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -4847,7 +4847,7 @@
         <v>42</v>
       </c>
       <c r="E41" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="F41" t="s">
         <v>419</v>
@@ -4856,10 +4856,10 @@
         <v>786</v>
       </c>
       <c r="H41" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="I41" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -4873,7 +4873,7 @@
         <v>43</v>
       </c>
       <c r="E42" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="F42" t="s">
         <v>420</v>
@@ -4882,10 +4882,10 @@
         <v>787</v>
       </c>
       <c r="H42" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="I42" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -4899,7 +4899,7 @@
         <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="F43" t="s">
         <v>421</v>
@@ -4908,10 +4908,10 @@
         <v>788</v>
       </c>
       <c r="H43" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="I43" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -4925,7 +4925,7 @@
         <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="F44" t="s">
         <v>422</v>
@@ -4934,10 +4934,10 @@
         <v>789</v>
       </c>
       <c r="H44" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="I44" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -4951,7 +4951,7 @@
         <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="F45" t="s">
         <v>423</v>
@@ -4960,10 +4960,10 @@
         <v>790</v>
       </c>
       <c r="H45" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="I45" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -4977,7 +4977,7 @@
         <v>47</v>
       </c>
       <c r="E46" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="F46" t="s">
         <v>424</v>
@@ -4986,10 +4986,10 @@
         <v>791</v>
       </c>
       <c r="H46" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="I46" t="s">
-        <v>1104</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -5003,7 +5003,7 @@
         <v>48</v>
       </c>
       <c r="E47" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="F47" t="s">
         <v>425</v>
@@ -5012,10 +5012,10 @@
         <v>792</v>
       </c>
       <c r="H47" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="I47" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -5029,7 +5029,7 @@
         <v>49</v>
       </c>
       <c r="E48" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="F48" t="s">
         <v>426</v>
@@ -5038,10 +5038,10 @@
         <v>793</v>
       </c>
       <c r="H48" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="I48" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -5055,7 +5055,7 @@
         <v>50</v>
       </c>
       <c r="E49" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="F49" t="s">
         <v>427</v>
@@ -5064,10 +5064,10 @@
         <v>794</v>
       </c>
       <c r="H49" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="I49" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -5081,7 +5081,7 @@
         <v>51</v>
       </c>
       <c r="E50" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="F50" t="s">
         <v>428</v>
@@ -5090,10 +5090,10 @@
         <v>795</v>
       </c>
       <c r="H50" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="I50" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -5107,7 +5107,7 @@
         <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="F51" t="s">
         <v>429</v>
@@ -5116,10 +5116,10 @@
         <v>796</v>
       </c>
       <c r="H51" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="I51" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -5133,7 +5133,7 @@
         <v>53</v>
       </c>
       <c r="E52" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="F52" t="s">
         <v>430</v>
@@ -5142,10 +5142,10 @@
         <v>797</v>
       </c>
       <c r="H52" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="I52" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -5159,7 +5159,7 @@
         <v>54</v>
       </c>
       <c r="E53" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="F53" t="s">
         <v>431</v>
@@ -5168,10 +5168,10 @@
         <v>798</v>
       </c>
       <c r="H53" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="I53" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -5185,7 +5185,7 @@
         <v>55</v>
       </c>
       <c r="E54" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="F54" t="s">
         <v>432</v>
@@ -5194,10 +5194,10 @@
         <v>799</v>
       </c>
       <c r="H54" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="I54" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -5211,7 +5211,7 @@
         <v>56</v>
       </c>
       <c r="E55" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="F55" t="s">
         <v>433</v>
@@ -5220,10 +5220,10 @@
         <v>800</v>
       </c>
       <c r="H55" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="I55" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -5237,7 +5237,7 @@
         <v>57</v>
       </c>
       <c r="E56" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="F56" t="s">
         <v>434</v>
@@ -5246,10 +5246,10 @@
         <v>801</v>
       </c>
       <c r="H56" t="s">
-        <v>1108</v>
+        <v>1098</v>
       </c>
       <c r="I56" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -5263,7 +5263,7 @@
         <v>58</v>
       </c>
       <c r="E57" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="F57" t="s">
         <v>435</v>
@@ -5272,10 +5272,10 @@
         <v>802</v>
       </c>
       <c r="H57" t="s">
-        <v>1108</v>
+        <v>1098</v>
       </c>
       <c r="I57" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -5289,7 +5289,7 @@
         <v>59</v>
       </c>
       <c r="E58" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="F58" t="s">
         <v>436</v>
@@ -5298,10 +5298,10 @@
         <v>803</v>
       </c>
       <c r="H58" t="s">
-        <v>1108</v>
+        <v>1098</v>
       </c>
       <c r="I58" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -5315,7 +5315,7 @@
         <v>60</v>
       </c>
       <c r="E59" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="F59" t="s">
         <v>437</v>
@@ -5324,13 +5324,13 @@
         <v>804</v>
       </c>
       <c r="H59" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="I59" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="J59" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -5344,7 +5344,7 @@
         <v>61</v>
       </c>
       <c r="E60" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="F60" t="s">
         <v>438</v>
@@ -5353,13 +5353,13 @@
         <v>805</v>
       </c>
       <c r="H60" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="I60" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="J60" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -5373,7 +5373,7 @@
         <v>62</v>
       </c>
       <c r="E61" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="F61" t="s">
         <v>439</v>
@@ -5382,10 +5382,10 @@
         <v>806</v>
       </c>
       <c r="H61" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="I61" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -5399,7 +5399,7 @@
         <v>63</v>
       </c>
       <c r="E62" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="F62" t="s">
         <v>440</v>
@@ -5408,10 +5408,10 @@
         <v>807</v>
       </c>
       <c r="H62" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="I62" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -5425,7 +5425,7 @@
         <v>64</v>
       </c>
       <c r="E63" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="F63" t="s">
         <v>441</v>
@@ -5434,10 +5434,10 @@
         <v>808</v>
       </c>
       <c r="H63" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="I63" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -5451,7 +5451,7 @@
         <v>65</v>
       </c>
       <c r="E64" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="F64" t="s">
         <v>442</v>
@@ -5460,10 +5460,10 @@
         <v>809</v>
       </c>
       <c r="H64" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="I64" t="s">
-        <v>1129</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
@@ -5477,7 +5477,7 @@
         <v>66</v>
       </c>
       <c r="E65" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="F65" t="s">
         <v>443</v>
@@ -5486,10 +5486,10 @@
         <v>810</v>
       </c>
       <c r="H65" t="s">
-        <v>1004</v>
+        <v>1124</v>
       </c>
       <c r="I65" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
@@ -5503,7 +5503,7 @@
         <v>67</v>
       </c>
       <c r="E66" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="F66" t="s">
         <v>444</v>
@@ -5512,10 +5512,10 @@
         <v>811</v>
       </c>
       <c r="H66" t="s">
-        <v>1004</v>
+        <v>1124</v>
       </c>
       <c r="I66" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
@@ -5529,7 +5529,7 @@
         <v>68</v>
       </c>
       <c r="E67" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="F67" t="s">
         <v>445</v>
@@ -5538,10 +5538,10 @@
         <v>762</v>
       </c>
       <c r="H67" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="I67" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
@@ -5555,7 +5555,7 @@
         <v>69</v>
       </c>
       <c r="E68" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="F68" t="s">
         <v>446</v>
@@ -5564,13 +5564,13 @@
         <v>812</v>
       </c>
       <c r="H68" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="I68" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="J68" t="s">
-        <v>1109</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
@@ -5584,7 +5584,7 @@
         <v>70</v>
       </c>
       <c r="E69" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="F69" t="s">
         <v>447</v>
@@ -5593,10 +5593,10 @@
         <v>813</v>
       </c>
       <c r="H69" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="I69" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
@@ -5610,7 +5610,7 @@
         <v>71</v>
       </c>
       <c r="E70" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="F70" t="s">
         <v>448</v>
@@ -5619,10 +5619,10 @@
         <v>814</v>
       </c>
       <c r="H70" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="I70" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
@@ -5636,7 +5636,7 @@
         <v>72</v>
       </c>
       <c r="E71" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="F71" t="s">
         <v>449</v>
@@ -5645,13 +5645,13 @@
         <v>815</v>
       </c>
       <c r="H71" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="I71" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="J71" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
@@ -5665,7 +5665,7 @@
         <v>73</v>
       </c>
       <c r="E72" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F72" t="s">
         <v>450</v>
@@ -5674,10 +5674,10 @@
         <v>816</v>
       </c>
       <c r="H72" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="I72" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
@@ -5691,7 +5691,7 @@
         <v>74</v>
       </c>
       <c r="E73" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F73" t="s">
         <v>451</v>
@@ -5700,16 +5700,16 @@
         <v>817</v>
       </c>
       <c r="H73" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="I73" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="K73" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="L73" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
@@ -5723,7 +5723,7 @@
         <v>75</v>
       </c>
       <c r="E74" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F74" t="s">
         <v>452</v>
@@ -5732,10 +5732,10 @@
         <v>818</v>
       </c>
       <c r="H74" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="I74" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
@@ -5749,7 +5749,7 @@
         <v>76</v>
       </c>
       <c r="E75" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F75" t="s">
         <v>453</v>
@@ -5758,16 +5758,16 @@
         <v>819</v>
       </c>
       <c r="H75" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="I75" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="K75" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="L75" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
@@ -5781,7 +5781,7 @@
         <v>77</v>
       </c>
       <c r="E76" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F76" t="s">
         <v>454</v>
@@ -5790,22 +5790,22 @@
         <v>820</v>
       </c>
       <c r="H76" t="s">
+        <v>1011</v>
+      </c>
+      <c r="I76" t="s">
+        <v>1094</v>
+      </c>
+      <c r="K76" t="s">
+        <v>1012</v>
+      </c>
+      <c r="L76" t="s">
+        <v>1097</v>
+      </c>
+      <c r="M76" t="s">
         <v>1013</v>
       </c>
-      <c r="I76" t="s">
-        <v>1104</v>
-      </c>
-      <c r="K76" t="s">
-        <v>1014</v>
-      </c>
-      <c r="L76" t="s">
-        <v>1107</v>
-      </c>
-      <c r="M76" t="s">
-        <v>1015</v>
-      </c>
       <c r="N76" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
@@ -5819,7 +5819,7 @@
         <v>78</v>
       </c>
       <c r="E77" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F77" t="s">
         <v>455</v>
@@ -5828,10 +5828,10 @@
         <v>821</v>
       </c>
       <c r="H77" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="I77" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
@@ -5845,7 +5845,7 @@
         <v>79</v>
       </c>
       <c r="E78" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F78" t="s">
         <v>456</v>
@@ -5854,10 +5854,10 @@
         <v>822</v>
       </c>
       <c r="H78" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="I78" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
@@ -5871,7 +5871,7 @@
         <v>80</v>
       </c>
       <c r="E79" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F79" t="s">
         <v>457</v>
@@ -5880,10 +5880,10 @@
         <v>823</v>
       </c>
       <c r="H79" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="I79" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
@@ -5897,7 +5897,7 @@
         <v>81</v>
       </c>
       <c r="E80" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F80" t="s">
         <v>458</v>
@@ -5906,10 +5906,10 @@
         <v>770</v>
       </c>
       <c r="H80" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="I80" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -5923,7 +5923,7 @@
         <v>82</v>
       </c>
       <c r="E81" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F81" t="s">
         <v>459</v>
@@ -5932,10 +5932,10 @@
         <v>824</v>
       </c>
       <c r="H81" t="s">
-        <v>1093</v>
+        <v>1126</v>
       </c>
       <c r="I81" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -5949,7 +5949,7 @@
         <v>83</v>
       </c>
       <c r="E82" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F82" t="s">
         <v>460</v>
@@ -5958,10 +5958,10 @@
         <v>825</v>
       </c>
       <c r="H82" t="s">
-        <v>1093</v>
+        <v>1126</v>
       </c>
       <c r="I82" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -5975,7 +5975,7 @@
         <v>84</v>
       </c>
       <c r="E83" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F83" t="s">
         <v>461</v>
@@ -5984,10 +5984,10 @@
         <v>826</v>
       </c>
       <c r="H83" t="s">
-        <v>1093</v>
+        <v>1126</v>
       </c>
       <c r="I83" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -6001,7 +6001,7 @@
         <v>85</v>
       </c>
       <c r="E84" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F84" t="s">
         <v>462</v>
@@ -6010,10 +6010,10 @@
         <v>783</v>
       </c>
       <c r="H84" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="I84" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
@@ -6027,7 +6027,7 @@
         <v>86</v>
       </c>
       <c r="E85" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F85" t="s">
         <v>463</v>
@@ -6036,10 +6036,10 @@
         <v>827</v>
       </c>
       <c r="H85" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="I85" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
@@ -6053,7 +6053,7 @@
         <v>87</v>
       </c>
       <c r="E86" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F86" t="s">
         <v>464</v>
@@ -6062,10 +6062,10 @@
         <v>828</v>
       </c>
       <c r="H86" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="I86" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
@@ -6079,7 +6079,7 @@
         <v>88</v>
       </c>
       <c r="E87" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F87" t="s">
         <v>465</v>
@@ -6088,10 +6088,10 @@
         <v>829</v>
       </c>
       <c r="H87" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="I87" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
@@ -6105,7 +6105,7 @@
         <v>89</v>
       </c>
       <c r="E88" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F88" t="s">
         <v>466</v>
@@ -6114,10 +6114,10 @@
         <v>762</v>
       </c>
       <c r="H88" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="I88" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
@@ -6131,7 +6131,7 @@
         <v>90</v>
       </c>
       <c r="E89" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F89" t="s">
         <v>467</v>
@@ -6140,10 +6140,10 @@
         <v>830</v>
       </c>
       <c r="H89" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="I89" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
@@ -6157,7 +6157,7 @@
         <v>91</v>
       </c>
       <c r="E90" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F90" t="s">
         <v>468</v>
@@ -6166,10 +6166,10 @@
         <v>762</v>
       </c>
       <c r="H90" t="s">
-        <v>1122</v>
+        <v>1111</v>
       </c>
       <c r="I90" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -6183,7 +6183,7 @@
         <v>92</v>
       </c>
       <c r="E91" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F91" t="s">
         <v>469</v>
@@ -6192,10 +6192,10 @@
         <v>831</v>
       </c>
       <c r="H91" t="s">
-        <v>1116</v>
+        <v>1128</v>
       </c>
       <c r="I91" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -6209,7 +6209,7 @@
         <v>93</v>
       </c>
       <c r="E92" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F92" t="s">
         <v>470</v>
@@ -6218,10 +6218,10 @@
         <v>832</v>
       </c>
       <c r="H92" t="s">
-        <v>1116</v>
+        <v>1128</v>
       </c>
       <c r="I92" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -6235,7 +6235,7 @@
         <v>94</v>
       </c>
       <c r="E93" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F93" t="s">
         <v>471</v>
@@ -6244,10 +6244,10 @@
         <v>833</v>
       </c>
       <c r="H93" t="s">
-        <v>1116</v>
+        <v>1128</v>
       </c>
       <c r="I93" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
@@ -6261,7 +6261,7 @@
         <v>95</v>
       </c>
       <c r="E94" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F94" t="s">
         <v>472</v>
@@ -6270,10 +6270,10 @@
         <v>834</v>
       </c>
       <c r="H94" t="s">
-        <v>1094</v>
+        <v>1130</v>
       </c>
       <c r="I94" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
@@ -6287,7 +6287,7 @@
         <v>96</v>
       </c>
       <c r="E95" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F95" t="s">
         <v>473</v>
@@ -6296,10 +6296,10 @@
         <v>835</v>
       </c>
       <c r="H95" t="s">
-        <v>1094</v>
+        <v>1130</v>
       </c>
       <c r="I95" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -6313,7 +6313,7 @@
         <v>97</v>
       </c>
       <c r="E96" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F96" t="s">
         <v>474</v>
@@ -6322,10 +6322,10 @@
         <v>836</v>
       </c>
       <c r="H96" t="s">
-        <v>1094</v>
+        <v>1130</v>
       </c>
       <c r="I96" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
@@ -6339,7 +6339,7 @@
         <v>98</v>
       </c>
       <c r="E97" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F97" t="s">
         <v>475</v>
@@ -6348,10 +6348,10 @@
         <v>770</v>
       </c>
       <c r="H97" t="s">
-        <v>1094</v>
+        <v>1130</v>
       </c>
       <c r="I97" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
@@ -6365,7 +6365,7 @@
         <v>99</v>
       </c>
       <c r="E98" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F98" t="s">
         <v>476</v>
@@ -6374,10 +6374,10 @@
         <v>837</v>
       </c>
       <c r="H98" t="s">
-        <v>1110</v>
+        <v>1100</v>
       </c>
       <c r="I98" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
@@ -6391,7 +6391,7 @@
         <v>100</v>
       </c>
       <c r="E99" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F99" t="s">
         <v>477</v>
@@ -6400,10 +6400,10 @@
         <v>838</v>
       </c>
       <c r="H99" t="s">
-        <v>1110</v>
+        <v>1100</v>
       </c>
       <c r="I99" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
@@ -6417,7 +6417,7 @@
         <v>101</v>
       </c>
       <c r="E100" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F100" t="s">
         <v>478</v>
@@ -6426,10 +6426,10 @@
         <v>839</v>
       </c>
       <c r="H100" t="s">
-        <v>1110</v>
+        <v>1100</v>
       </c>
       <c r="I100" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -6443,7 +6443,7 @@
         <v>102</v>
       </c>
       <c r="E101" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F101" t="s">
         <v>479</v>
@@ -6452,10 +6452,10 @@
         <v>840</v>
       </c>
       <c r="H101" t="s">
-        <v>1110</v>
+        <v>1100</v>
       </c>
       <c r="I101" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
@@ -6469,7 +6469,7 @@
         <v>103</v>
       </c>
       <c r="E102" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F102" t="s">
         <v>480</v>
@@ -6478,10 +6478,10 @@
         <v>820</v>
       </c>
       <c r="H102" t="s">
-        <v>1110</v>
+        <v>1100</v>
       </c>
       <c r="I102" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
@@ -6495,7 +6495,7 @@
         <v>104</v>
       </c>
       <c r="E103" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F103" t="s">
         <v>481</v>
@@ -6504,10 +6504,10 @@
         <v>841</v>
       </c>
       <c r="H103" t="s">
-        <v>1095</v>
+        <v>1086</v>
       </c>
       <c r="I103" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
@@ -6521,7 +6521,7 @@
         <v>105</v>
       </c>
       <c r="E104" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F104" t="s">
         <v>482</v>
@@ -6530,10 +6530,10 @@
         <v>762</v>
       </c>
       <c r="H104" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="I104" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
@@ -6547,7 +6547,7 @@
         <v>106</v>
       </c>
       <c r="E105" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F105" t="s">
         <v>483</v>
@@ -6556,10 +6556,10 @@
         <v>842</v>
       </c>
       <c r="H105" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="I105" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
@@ -6573,7 +6573,7 @@
         <v>107</v>
       </c>
       <c r="E106" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F106" t="s">
         <v>484</v>
@@ -6582,10 +6582,10 @@
         <v>843</v>
       </c>
       <c r="H106" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="I106" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
@@ -6599,7 +6599,7 @@
         <v>108</v>
       </c>
       <c r="E107" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F107" t="s">
         <v>485</v>
@@ -6608,10 +6608,10 @@
         <v>844</v>
       </c>
       <c r="H107" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="I107" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
@@ -6625,7 +6625,7 @@
         <v>109</v>
       </c>
       <c r="E108" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F108" t="s">
         <v>486</v>
@@ -6634,10 +6634,10 @@
         <v>811</v>
       </c>
       <c r="H108" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="I108" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
@@ -6651,7 +6651,7 @@
         <v>110</v>
       </c>
       <c r="E109" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F109" t="s">
         <v>487</v>
@@ -6660,10 +6660,10 @@
         <v>764</v>
       </c>
       <c r="H109" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="I109" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
@@ -6677,7 +6677,7 @@
         <v>111</v>
       </c>
       <c r="E110" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F110" t="s">
         <v>488</v>
@@ -6686,10 +6686,10 @@
         <v>762</v>
       </c>
       <c r="H110" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="I110" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
@@ -6703,7 +6703,7 @@
         <v>112</v>
       </c>
       <c r="E111" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F111" t="s">
         <v>489</v>
@@ -6712,10 +6712,10 @@
         <v>770</v>
       </c>
       <c r="H111" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="I111" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
@@ -6729,7 +6729,7 @@
         <v>113</v>
       </c>
       <c r="E112" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F112" t="s">
         <v>490</v>
@@ -6738,10 +6738,10 @@
         <v>845</v>
       </c>
       <c r="H112" t="s">
-        <v>1116</v>
+        <v>1128</v>
       </c>
       <c r="I112" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
@@ -6755,7 +6755,7 @@
         <v>114</v>
       </c>
       <c r="E113" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F113" t="s">
         <v>491</v>
@@ -6764,10 +6764,10 @@
         <v>762</v>
       </c>
       <c r="H113" t="s">
-        <v>1096</v>
+        <v>1087</v>
       </c>
       <c r="I113" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
@@ -6781,7 +6781,7 @@
         <v>115</v>
       </c>
       <c r="E114" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F114" t="s">
         <v>492</v>
@@ -6790,10 +6790,10 @@
         <v>770</v>
       </c>
       <c r="H114" t="s">
-        <v>1096</v>
+        <v>1087</v>
       </c>
       <c r="I114" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
@@ -6807,7 +6807,7 @@
         <v>116</v>
       </c>
       <c r="E115" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F115" t="s">
         <v>493</v>
@@ -6816,10 +6816,10 @@
         <v>770</v>
       </c>
       <c r="H115" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="I115" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
@@ -6833,7 +6833,7 @@
         <v>117</v>
       </c>
       <c r="E116" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F116" t="s">
         <v>494</v>
@@ -6842,10 +6842,10 @@
         <v>846</v>
       </c>
       <c r="H116" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="I116" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
@@ -6859,7 +6859,7 @@
         <v>118</v>
       </c>
       <c r="E117" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F117" t="s">
         <v>495</v>
@@ -6868,10 +6868,10 @@
         <v>847</v>
       </c>
       <c r="H117" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="I117" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
@@ -6885,7 +6885,7 @@
         <v>119</v>
       </c>
       <c r="E118" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F118" t="s">
         <v>496</v>
@@ -6894,10 +6894,10 @@
         <v>762</v>
       </c>
       <c r="H118" t="s">
-        <v>1097</v>
+        <v>1088</v>
       </c>
       <c r="I118" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
@@ -6911,7 +6911,7 @@
         <v>120</v>
       </c>
       <c r="E119" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F119" t="s">
         <v>497</v>
@@ -6920,10 +6920,10 @@
         <v>848</v>
       </c>
       <c r="H119" t="s">
-        <v>1093</v>
+        <v>1126</v>
       </c>
       <c r="I119" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -6937,7 +6937,7 @@
         <v>121</v>
       </c>
       <c r="E120" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F120" t="s">
         <v>498</v>
@@ -6946,10 +6946,10 @@
         <v>849</v>
       </c>
       <c r="H120" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="I120" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
@@ -6963,7 +6963,7 @@
         <v>122</v>
       </c>
       <c r="E121" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F121" t="s">
         <v>499</v>
@@ -6972,10 +6972,10 @@
         <v>850</v>
       </c>
       <c r="H121" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="I121" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -6989,7 +6989,7 @@
         <v>123</v>
       </c>
       <c r="E122" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F122" t="s">
         <v>500</v>
@@ -6998,10 +6998,10 @@
         <v>851</v>
       </c>
       <c r="H122" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="I122" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -7015,7 +7015,7 @@
         <v>124</v>
       </c>
       <c r="E123" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F123" t="s">
         <v>501</v>
@@ -7024,10 +7024,10 @@
         <v>852</v>
       </c>
       <c r="H123" t="s">
-        <v>1111</v>
+        <v>1101</v>
       </c>
       <c r="I123" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
@@ -7041,7 +7041,7 @@
         <v>125</v>
       </c>
       <c r="E124" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F124" t="s">
         <v>502</v>
@@ -7050,10 +7050,10 @@
         <v>852</v>
       </c>
       <c r="H124" t="s">
-        <v>1111</v>
+        <v>1101</v>
       </c>
       <c r="I124" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
@@ -7067,7 +7067,7 @@
         <v>126</v>
       </c>
       <c r="E125" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F125" t="s">
         <v>503</v>
@@ -7076,10 +7076,10 @@
         <v>770</v>
       </c>
       <c r="H125" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="I125" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
@@ -7093,7 +7093,7 @@
         <v>127</v>
       </c>
       <c r="E126" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F126" t="s">
         <v>504</v>
@@ -7102,10 +7102,10 @@
         <v>770</v>
       </c>
       <c r="H126" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="I126" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -7119,7 +7119,7 @@
         <v>128</v>
       </c>
       <c r="E127" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F127" t="s">
         <v>505</v>
@@ -7128,10 +7128,10 @@
         <v>770</v>
       </c>
       <c r="H127" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="I127" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
@@ -7145,7 +7145,7 @@
         <v>129</v>
       </c>
       <c r="E128" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F128" t="s">
         <v>506</v>
@@ -7154,10 +7154,10 @@
         <v>770</v>
       </c>
       <c r="H128" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="I128" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -7171,7 +7171,7 @@
         <v>130</v>
       </c>
       <c r="E129" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F129" t="s">
         <v>507</v>
@@ -7180,10 +7180,10 @@
         <v>762</v>
       </c>
       <c r="H129" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I129" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -7197,7 +7197,7 @@
         <v>131</v>
       </c>
       <c r="E130" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F130" t="s">
         <v>508</v>
@@ -7206,10 +7206,10 @@
         <v>853</v>
       </c>
       <c r="H130" t="s">
-        <v>1027</v>
+        <v>1125</v>
       </c>
       <c r="I130" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -7223,7 +7223,7 @@
         <v>132</v>
       </c>
       <c r="E131" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F131" t="s">
         <v>509</v>
@@ -7232,10 +7232,10 @@
         <v>854</v>
       </c>
       <c r="H131" t="s">
-        <v>1027</v>
+        <v>1125</v>
       </c>
       <c r="I131" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -7249,7 +7249,7 @@
         <v>133</v>
       </c>
       <c r="E132" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F132" t="s">
         <v>510</v>
@@ -7258,10 +7258,10 @@
         <v>855</v>
       </c>
       <c r="H132" t="s">
-        <v>1027</v>
+        <v>1125</v>
       </c>
       <c r="I132" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -7275,7 +7275,7 @@
         <v>134</v>
       </c>
       <c r="E133" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F133" t="s">
         <v>511</v>
@@ -7284,10 +7284,10 @@
         <v>856</v>
       </c>
       <c r="H133" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="I133" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -7301,7 +7301,7 @@
         <v>135</v>
       </c>
       <c r="E134" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F134" t="s">
         <v>512</v>
@@ -7310,10 +7310,10 @@
         <v>857</v>
       </c>
       <c r="H134" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="I134" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -7327,7 +7327,7 @@
         <v>136</v>
       </c>
       <c r="E135" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F135" t="s">
         <v>513</v>
@@ -7336,10 +7336,10 @@
         <v>858</v>
       </c>
       <c r="H135" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="I135" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -7353,7 +7353,7 @@
         <v>137</v>
       </c>
       <c r="E136" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F136" t="s">
         <v>514</v>
@@ -7362,10 +7362,10 @@
         <v>852</v>
       </c>
       <c r="H136" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="I136" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -7379,7 +7379,7 @@
         <v>138</v>
       </c>
       <c r="E137" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F137" t="s">
         <v>515</v>
@@ -7388,10 +7388,10 @@
         <v>763</v>
       </c>
       <c r="H137" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="I137" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -7405,7 +7405,7 @@
         <v>139</v>
       </c>
       <c r="E138" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F138" t="s">
         <v>516</v>
@@ -7414,10 +7414,10 @@
         <v>762</v>
       </c>
       <c r="H138" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="I138" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -7431,7 +7431,7 @@
         <v>140</v>
       </c>
       <c r="E139" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F139" t="s">
         <v>517</v>
@@ -7440,10 +7440,10 @@
         <v>859</v>
       </c>
       <c r="H139" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="I139" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -7457,7 +7457,7 @@
         <v>141</v>
       </c>
       <c r="E140" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F140" t="s">
         <v>518</v>
@@ -7466,10 +7466,10 @@
         <v>860</v>
       </c>
       <c r="H140" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="I140" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -7483,7 +7483,7 @@
         <v>142</v>
       </c>
       <c r="E141" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F141" t="s">
         <v>519</v>
@@ -7492,10 +7492,10 @@
         <v>852</v>
       </c>
       <c r="H141" t="s">
-        <v>1127</v>
+        <v>1116</v>
       </c>
       <c r="I141" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -7509,7 +7509,7 @@
         <v>143</v>
       </c>
       <c r="E142" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F142" t="s">
         <v>520</v>
@@ -7518,10 +7518,10 @@
         <v>861</v>
       </c>
       <c r="H142" t="s">
-        <v>1127</v>
+        <v>1116</v>
       </c>
       <c r="I142" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -7535,7 +7535,7 @@
         <v>144</v>
       </c>
       <c r="E143" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F143" t="s">
         <v>521</v>
@@ -7544,10 +7544,10 @@
         <v>762</v>
       </c>
       <c r="H143" t="s">
-        <v>1121</v>
+        <v>1110</v>
       </c>
       <c r="I143" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -7561,7 +7561,7 @@
         <v>145</v>
       </c>
       <c r="E144" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F144" t="s">
         <v>522</v>
@@ -7570,10 +7570,10 @@
         <v>770</v>
       </c>
       <c r="H144" t="s">
-        <v>1121</v>
+        <v>1110</v>
       </c>
       <c r="I144" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
@@ -7587,7 +7587,7 @@
         <v>146</v>
       </c>
       <c r="E145" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F145" t="s">
         <v>523</v>
@@ -7596,10 +7596,10 @@
         <v>862</v>
       </c>
       <c r="H145" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="I145" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
@@ -7613,7 +7613,7 @@
         <v>147</v>
       </c>
       <c r="E146" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F146" t="s">
         <v>524</v>
@@ -7622,10 +7622,10 @@
         <v>863</v>
       </c>
       <c r="H146" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="I146" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
@@ -7639,7 +7639,7 @@
         <v>148</v>
       </c>
       <c r="E147" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F147" t="s">
         <v>525</v>
@@ -7648,10 +7648,10 @@
         <v>760</v>
       </c>
       <c r="H147" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="I147" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
@@ -7665,7 +7665,7 @@
         <v>149</v>
       </c>
       <c r="E148" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F148" t="s">
         <v>526</v>
@@ -7674,10 +7674,10 @@
         <v>864</v>
       </c>
       <c r="H148" t="s">
-        <v>1103</v>
+        <v>1123</v>
       </c>
       <c r="I148" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
@@ -7691,7 +7691,7 @@
         <v>150</v>
       </c>
       <c r="E149" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F149" t="s">
         <v>527</v>
@@ -7700,10 +7700,10 @@
         <v>763</v>
       </c>
       <c r="H149" t="s">
-        <v>1103</v>
+        <v>1123</v>
       </c>
       <c r="I149" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
@@ -7717,7 +7717,7 @@
         <v>151</v>
       </c>
       <c r="E150" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F150" t="s">
         <v>528</v>
@@ -7726,13 +7726,13 @@
         <v>865</v>
       </c>
       <c r="H150" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="I150" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="J150" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
@@ -7746,7 +7746,7 @@
         <v>152</v>
       </c>
       <c r="E151" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F151" t="s">
         <v>529</v>
@@ -7755,10 +7755,10 @@
         <v>791</v>
       </c>
       <c r="H151" t="s">
-        <v>1095</v>
+        <v>1086</v>
       </c>
       <c r="I151" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
@@ -7772,7 +7772,7 @@
         <v>153</v>
       </c>
       <c r="E152" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F152" t="s">
         <v>530</v>
@@ -7781,10 +7781,10 @@
         <v>866</v>
       </c>
       <c r="H152" t="s">
-        <v>1098</v>
+        <v>1089</v>
       </c>
       <c r="I152" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
@@ -7798,7 +7798,7 @@
         <v>154</v>
       </c>
       <c r="E153" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F153" t="s">
         <v>531</v>
@@ -7807,10 +7807,10 @@
         <v>770</v>
       </c>
       <c r="H153" t="s">
-        <v>1098</v>
+        <v>1089</v>
       </c>
       <c r="I153" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
@@ -7824,7 +7824,7 @@
         <v>155</v>
       </c>
       <c r="E154" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F154" t="s">
         <v>532</v>
@@ -7833,10 +7833,10 @@
         <v>867</v>
       </c>
       <c r="H154" t="s">
-        <v>1098</v>
+        <v>1089</v>
       </c>
       <c r="I154" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
@@ -7850,7 +7850,7 @@
         <v>156</v>
       </c>
       <c r="E155" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F155" t="s">
         <v>533</v>
@@ -7859,10 +7859,10 @@
         <v>868</v>
       </c>
       <c r="H155" t="s">
-        <v>1112</v>
+        <v>1102</v>
       </c>
       <c r="I155" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
@@ -7876,7 +7876,7 @@
         <v>157</v>
       </c>
       <c r="E156" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F156" t="s">
         <v>534</v>
@@ -7885,10 +7885,10 @@
         <v>869</v>
       </c>
       <c r="H156" t="s">
-        <v>1112</v>
+        <v>1102</v>
       </c>
       <c r="I156" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
@@ -7902,7 +7902,7 @@
         <v>158</v>
       </c>
       <c r="E157" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F157" t="s">
         <v>535</v>
@@ -7911,10 +7911,10 @@
         <v>870</v>
       </c>
       <c r="H157" t="s">
-        <v>1102</v>
+        <v>1093</v>
       </c>
       <c r="I157" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
@@ -7928,7 +7928,7 @@
         <v>159</v>
       </c>
       <c r="E158" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F158" t="s">
         <v>536</v>
@@ -7937,10 +7937,10 @@
         <v>770</v>
       </c>
       <c r="H158" t="s">
-        <v>1102</v>
+        <v>1093</v>
       </c>
       <c r="I158" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
@@ -7954,7 +7954,7 @@
         <v>160</v>
       </c>
       <c r="E159" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F159" t="s">
         <v>537</v>
@@ -7963,10 +7963,10 @@
         <v>871</v>
       </c>
       <c r="H159" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="I159" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
@@ -7980,7 +7980,7 @@
         <v>161</v>
       </c>
       <c r="E160" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F160" t="s">
         <v>538</v>
@@ -7989,10 +7989,10 @@
         <v>872</v>
       </c>
       <c r="H160" t="s">
-        <v>1112</v>
+        <v>1102</v>
       </c>
       <c r="I160" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.3">
@@ -8006,7 +8006,7 @@
         <v>162</v>
       </c>
       <c r="E161" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F161" t="s">
         <v>539</v>
@@ -8015,10 +8015,10 @@
         <v>791</v>
       </c>
       <c r="H161" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="I161" t="s">
-        <v>1123</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.3">
@@ -8032,7 +8032,7 @@
         <v>163</v>
       </c>
       <c r="E162" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F162" t="s">
         <v>540</v>
@@ -8041,10 +8041,10 @@
         <v>807</v>
       </c>
       <c r="H162" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="I162" t="s">
-        <v>1123</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.3">
@@ -8058,7 +8058,7 @@
         <v>164</v>
       </c>
       <c r="E163" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F163" t="s">
         <v>534</v>
@@ -8067,28 +8067,28 @@
         <v>873</v>
       </c>
       <c r="H163" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I163" t="s">
         <v>1112</v>
       </c>
-      <c r="I163" t="s">
-        <v>1123</v>
-      </c>
       <c r="K163" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="L163" t="s">
-        <v>1123</v>
+        <v>1112</v>
       </c>
       <c r="M163" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="N163" t="s">
-        <v>1123</v>
+        <v>1112</v>
       </c>
       <c r="O163" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="P163" t="s">
-        <v>1123</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.3">
@@ -8102,7 +8102,7 @@
         <v>165</v>
       </c>
       <c r="E164" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F164" t="s">
         <v>541</v>
@@ -8111,10 +8111,10 @@
         <v>874</v>
       </c>
       <c r="H164" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="I164" t="s">
-        <v>1123</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.3">
@@ -8128,7 +8128,7 @@
         <v>166</v>
       </c>
       <c r="E165" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F165" t="s">
         <v>542</v>
@@ -8137,10 +8137,10 @@
         <v>875</v>
       </c>
       <c r="H165" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="I165" t="s">
-        <v>1123</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.3">
@@ -8154,7 +8154,7 @@
         <v>167</v>
       </c>
       <c r="E166" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F166" t="s">
         <v>543</v>
@@ -8163,10 +8163,10 @@
         <v>876</v>
       </c>
       <c r="H166" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="I166" t="s">
-        <v>1123</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.3">
@@ -8180,7 +8180,7 @@
         <v>168</v>
       </c>
       <c r="E167" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F167" t="s">
         <v>544</v>
@@ -8189,10 +8189,10 @@
         <v>877</v>
       </c>
       <c r="H167" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="I167" t="s">
-        <v>1123</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.3">
@@ -8206,7 +8206,7 @@
         <v>169</v>
       </c>
       <c r="E168" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F168" t="s">
         <v>545</v>
@@ -8215,10 +8215,10 @@
         <v>878</v>
       </c>
       <c r="H168" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="I168" t="s">
-        <v>1123</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.3">
@@ -8232,7 +8232,7 @@
         <v>170</v>
       </c>
       <c r="E169" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F169" t="s">
         <v>546</v>
@@ -8241,10 +8241,10 @@
         <v>879</v>
       </c>
       <c r="H169" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="I169" t="s">
-        <v>1123</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.3">
@@ -8258,7 +8258,7 @@
         <v>171</v>
       </c>
       <c r="E170" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F170" t="s">
         <v>547</v>
@@ -8267,10 +8267,10 @@
         <v>880</v>
       </c>
       <c r="H170" t="s">
-        <v>1130</v>
+        <v>1119</v>
       </c>
       <c r="I170" t="s">
-        <v>1123</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.3">
@@ -8284,7 +8284,7 @@
         <v>172</v>
       </c>
       <c r="E171" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F171" t="s">
         <v>548</v>
@@ -8293,10 +8293,10 @@
         <v>881</v>
       </c>
       <c r="H171" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="I171" t="s">
-        <v>1123</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.3">
@@ -8310,7 +8310,7 @@
         <v>173</v>
       </c>
       <c r="E172" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F172" t="s">
         <v>549</v>
@@ -8319,10 +8319,10 @@
         <v>882</v>
       </c>
       <c r="H172" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="I172" t="s">
-        <v>1123</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.3">
@@ -8336,7 +8336,7 @@
         <v>174</v>
       </c>
       <c r="E173" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="F173" t="s">
         <v>550</v>
@@ -8345,10 +8345,10 @@
         <v>883</v>
       </c>
       <c r="H173" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="I173" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.3">
@@ -8362,7 +8362,7 @@
         <v>175</v>
       </c>
       <c r="E174" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="F174" t="s">
         <v>551</v>
@@ -8371,10 +8371,10 @@
         <v>884</v>
       </c>
       <c r="H174" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="I174" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.3">
@@ -8388,7 +8388,7 @@
         <v>176</v>
       </c>
       <c r="E175" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="F175" t="s">
         <v>552</v>
@@ -8397,10 +8397,10 @@
         <v>885</v>
       </c>
       <c r="H175" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="I175" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.3">
@@ -8414,7 +8414,7 @@
         <v>177</v>
       </c>
       <c r="E176" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="F176" t="s">
         <v>553</v>
@@ -8423,10 +8423,10 @@
         <v>762</v>
       </c>
       <c r="H176" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="I176" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
@@ -8440,7 +8440,7 @@
         <v>178</v>
       </c>
       <c r="E177" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="F177" t="s">
         <v>554</v>
@@ -8449,10 +8449,10 @@
         <v>886</v>
       </c>
       <c r="H177" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="I177" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
@@ -8466,7 +8466,7 @@
         <v>179</v>
       </c>
       <c r="E178" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="F178" t="s">
         <v>555</v>
@@ -8475,10 +8475,10 @@
         <v>887</v>
       </c>
       <c r="H178" t="s">
-        <v>1099</v>
+        <v>1090</v>
       </c>
       <c r="I178" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
@@ -8492,7 +8492,7 @@
         <v>180</v>
       </c>
       <c r="E179" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="F179" t="s">
         <v>556</v>
@@ -8501,10 +8501,10 @@
         <v>888</v>
       </c>
       <c r="H179" t="s">
-        <v>1099</v>
+        <v>1090</v>
       </c>
       <c r="I179" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
@@ -8518,7 +8518,7 @@
         <v>181</v>
       </c>
       <c r="E180" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="F180" t="s">
         <v>557</v>
@@ -8527,10 +8527,10 @@
         <v>889</v>
       </c>
       <c r="H180" t="s">
-        <v>1099</v>
+        <v>1090</v>
       </c>
       <c r="I180" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
@@ -8544,7 +8544,7 @@
         <v>182</v>
       </c>
       <c r="E181" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="F181" t="s">
         <v>558</v>
@@ -8553,10 +8553,10 @@
         <v>890</v>
       </c>
       <c r="H181" t="s">
-        <v>1099</v>
+        <v>1090</v>
       </c>
       <c r="I181" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
@@ -8570,7 +8570,7 @@
         <v>183</v>
       </c>
       <c r="E182" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="F182" t="s">
         <v>559</v>
@@ -8579,10 +8579,10 @@
         <v>891</v>
       </c>
       <c r="H182" t="s">
-        <v>1099</v>
+        <v>1090</v>
       </c>
       <c r="I182" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
@@ -8596,7 +8596,7 @@
         <v>184</v>
       </c>
       <c r="E183" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="F183" t="s">
         <v>560</v>
@@ -8605,13 +8605,13 @@
         <v>892</v>
       </c>
       <c r="H183" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="I183" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="J183" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
@@ -8625,7 +8625,7 @@
         <v>185</v>
       </c>
       <c r="E184" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="F184" t="s">
         <v>561</v>
@@ -8634,13 +8634,13 @@
         <v>893</v>
       </c>
       <c r="H184" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="I184" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="J184" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
@@ -8654,7 +8654,7 @@
         <v>186</v>
       </c>
       <c r="E185" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="F185" t="s">
         <v>562</v>
@@ -8663,13 +8663,13 @@
         <v>894</v>
       </c>
       <c r="H185" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="I185" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="J185" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
@@ -8683,7 +8683,7 @@
         <v>187</v>
       </c>
       <c r="E186" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="F186" t="s">
         <v>563</v>
@@ -8692,13 +8692,13 @@
         <v>895</v>
       </c>
       <c r="H186" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="I186" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="J186" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
@@ -8712,7 +8712,7 @@
         <v>188</v>
       </c>
       <c r="E187" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="F187" t="s">
         <v>564</v>
@@ -8721,13 +8721,13 @@
         <v>896</v>
       </c>
       <c r="H187" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="I187" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="J187" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
@@ -8741,7 +8741,7 @@
         <v>189</v>
       </c>
       <c r="E188" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="F188" t="s">
         <v>565</v>
@@ -8750,13 +8750,13 @@
         <v>820</v>
       </c>
       <c r="H188" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="I188" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="J188" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
@@ -8770,7 +8770,7 @@
         <v>190</v>
       </c>
       <c r="E189" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="F189" t="s">
         <v>566</v>
@@ -8779,10 +8779,10 @@
         <v>897</v>
       </c>
       <c r="H189" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="I189" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
@@ -8796,7 +8796,7 @@
         <v>191</v>
       </c>
       <c r="E190" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="F190" t="s">
         <v>567</v>
@@ -8805,10 +8805,10 @@
         <v>898</v>
       </c>
       <c r="H190" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="I190" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
@@ -8822,7 +8822,7 @@
         <v>192</v>
       </c>
       <c r="E191" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="F191" t="s">
         <v>568</v>
@@ -8831,10 +8831,10 @@
         <v>899</v>
       </c>
       <c r="H191" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="I191" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
@@ -8848,7 +8848,7 @@
         <v>193</v>
       </c>
       <c r="E192" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="F192" t="s">
         <v>569</v>
@@ -8857,10 +8857,10 @@
         <v>900</v>
       </c>
       <c r="H192" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="I192" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
@@ -8874,7 +8874,7 @@
         <v>194</v>
       </c>
       <c r="E193" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="F193" t="s">
         <v>570</v>
@@ -8883,10 +8883,10 @@
         <v>763</v>
       </c>
       <c r="H193" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="I193" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
@@ -8900,7 +8900,7 @@
         <v>195</v>
       </c>
       <c r="E194" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="F194" t="s">
         <v>571</v>
@@ -8909,10 +8909,10 @@
         <v>901</v>
       </c>
       <c r="H194" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="I194" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
@@ -8926,7 +8926,7 @@
         <v>196</v>
       </c>
       <c r="E195" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="F195" t="s">
         <v>572</v>
@@ -8935,10 +8935,10 @@
         <v>902</v>
       </c>
       <c r="H195" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="I195" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
@@ -8952,7 +8952,7 @@
         <v>197</v>
       </c>
       <c r="E196" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="F196" t="s">
         <v>573</v>
@@ -8961,10 +8961,10 @@
         <v>762</v>
       </c>
       <c r="H196" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="I196" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.3">
@@ -8978,7 +8978,7 @@
         <v>198</v>
       </c>
       <c r="E197" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="F197" t="s">
         <v>574</v>
@@ -8987,10 +8987,10 @@
         <v>770</v>
       </c>
       <c r="H197" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="I197" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
@@ -9004,7 +9004,7 @@
         <v>199</v>
       </c>
       <c r="E198" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="F198" t="s">
         <v>575</v>
@@ -9013,10 +9013,10 @@
         <v>762</v>
       </c>
       <c r="H198" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="I198" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.3">
@@ -9030,7 +9030,7 @@
         <v>200</v>
       </c>
       <c r="E199" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F199" t="s">
         <v>576</v>
@@ -9039,10 +9039,10 @@
         <v>903</v>
       </c>
       <c r="H199" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="I199" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
@@ -9056,7 +9056,7 @@
         <v>201</v>
       </c>
       <c r="E200" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F200" t="s">
         <v>577</v>
@@ -9065,10 +9065,10 @@
         <v>904</v>
       </c>
       <c r="H200" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="I200" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
@@ -9082,7 +9082,7 @@
         <v>202</v>
       </c>
       <c r="E201" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F201" t="s">
         <v>578</v>
@@ -9091,10 +9091,10 @@
         <v>770</v>
       </c>
       <c r="H201" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="I201" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.3">
@@ -9108,7 +9108,7 @@
         <v>203</v>
       </c>
       <c r="E202" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F202" t="s">
         <v>579</v>
@@ -9117,10 +9117,10 @@
         <v>905</v>
       </c>
       <c r="H202" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="I202" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
@@ -9134,7 +9134,7 @@
         <v>204</v>
       </c>
       <c r="E203" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F203" t="s">
         <v>580</v>
@@ -9143,10 +9143,10 @@
         <v>758</v>
       </c>
       <c r="H203" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="I203" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.3">
@@ -9160,7 +9160,7 @@
         <v>205</v>
       </c>
       <c r="E204" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F204" t="s">
         <v>581</v>
@@ -9169,16 +9169,16 @@
         <v>906</v>
       </c>
       <c r="H204" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="I204" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="K204" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="L204" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.3">
@@ -9192,7 +9192,7 @@
         <v>206</v>
       </c>
       <c r="E205" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F205" t="s">
         <v>582</v>
@@ -9201,10 +9201,10 @@
         <v>907</v>
       </c>
       <c r="H205" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="I205" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.3">
@@ -9218,7 +9218,7 @@
         <v>207</v>
       </c>
       <c r="E206" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F206" t="s">
         <v>583</v>
@@ -9227,10 +9227,10 @@
         <v>908</v>
       </c>
       <c r="H206" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="I206" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.3">
@@ -9244,7 +9244,7 @@
         <v>208</v>
       </c>
       <c r="E207" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F207" t="s">
         <v>584</v>
@@ -9253,10 +9253,10 @@
         <v>762</v>
       </c>
       <c r="H207" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="I207" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.3">
@@ -9270,7 +9270,7 @@
         <v>209</v>
       </c>
       <c r="E208" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F208" t="s">
         <v>585</v>
@@ -9279,10 +9279,10 @@
         <v>909</v>
       </c>
       <c r="H208" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="I208" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
@@ -9296,7 +9296,7 @@
         <v>210</v>
       </c>
       <c r="E209" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F209" t="s">
         <v>586</v>
@@ -9305,10 +9305,10 @@
         <v>910</v>
       </c>
       <c r="H209" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="I209" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
@@ -9322,7 +9322,7 @@
         <v>211</v>
       </c>
       <c r="E210" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F210" t="s">
         <v>587</v>
@@ -9331,10 +9331,10 @@
         <v>911</v>
       </c>
       <c r="H210" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="I210" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
@@ -9348,7 +9348,7 @@
         <v>212</v>
       </c>
       <c r="E211" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F211" t="s">
         <v>588</v>
@@ -9357,10 +9357,10 @@
         <v>762</v>
       </c>
       <c r="H211" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="I211" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
@@ -9374,7 +9374,7 @@
         <v>213</v>
       </c>
       <c r="E212" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F212" t="s">
         <v>589</v>
@@ -9383,10 +9383,10 @@
         <v>912</v>
       </c>
       <c r="H212" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="I212" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
@@ -9400,7 +9400,7 @@
         <v>214</v>
       </c>
       <c r="E213" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F213" t="s">
         <v>590</v>
@@ -9409,10 +9409,10 @@
         <v>913</v>
       </c>
       <c r="H213" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="I213" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
@@ -9426,7 +9426,7 @@
         <v>215</v>
       </c>
       <c r="E214" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F214" t="s">
         <v>591</v>
@@ -9435,10 +9435,10 @@
         <v>914</v>
       </c>
       <c r="H214" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="I214" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
@@ -9452,7 +9452,7 @@
         <v>216</v>
       </c>
       <c r="E215" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F215" t="s">
         <v>592</v>
@@ -9461,10 +9461,10 @@
         <v>915</v>
       </c>
       <c r="H215" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="I215" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
@@ -9478,7 +9478,7 @@
         <v>217</v>
       </c>
       <c r="E216" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F216" t="s">
         <v>593</v>
@@ -9487,10 +9487,10 @@
         <v>851</v>
       </c>
       <c r="H216" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="I216" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
@@ -9504,7 +9504,7 @@
         <v>218</v>
       </c>
       <c r="E217" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F217" t="s">
         <v>594</v>
@@ -9513,10 +9513,10 @@
         <v>784</v>
       </c>
       <c r="H217" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="I217" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
@@ -9530,7 +9530,7 @@
         <v>219</v>
       </c>
       <c r="E218" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F218" t="s">
         <v>595</v>
@@ -9539,10 +9539,10 @@
         <v>916</v>
       </c>
       <c r="H218" t="s">
-        <v>1120</v>
+        <v>1109</v>
       </c>
       <c r="I218" t="s">
-        <v>1123</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
@@ -9556,7 +9556,7 @@
         <v>220</v>
       </c>
       <c r="E219" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F219" t="s">
         <v>596</v>
@@ -9568,7 +9568,7 @@
         <v>992</v>
       </c>
       <c r="I219" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
@@ -9582,7 +9582,7 @@
         <v>221</v>
       </c>
       <c r="E220" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F220" t="s">
         <v>597</v>
@@ -9594,7 +9594,7 @@
         <v>992</v>
       </c>
       <c r="I220" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
@@ -9608,7 +9608,7 @@
         <v>222</v>
       </c>
       <c r="E221" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F221" t="s">
         <v>598</v>
@@ -9617,10 +9617,10 @@
         <v>762</v>
       </c>
       <c r="H221" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="I221" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
@@ -9634,7 +9634,7 @@
         <v>223</v>
       </c>
       <c r="E222" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F222" t="s">
         <v>599</v>
@@ -9643,10 +9643,10 @@
         <v>917</v>
       </c>
       <c r="H222" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="I222" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
@@ -9660,7 +9660,7 @@
         <v>224</v>
       </c>
       <c r="E223" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F223" t="s">
         <v>600</v>
@@ -9669,10 +9669,10 @@
         <v>763</v>
       </c>
       <c r="H223" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="I223" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
@@ -9686,7 +9686,7 @@
         <v>225</v>
       </c>
       <c r="E224" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F224" t="s">
         <v>601</v>
@@ -9695,10 +9695,10 @@
         <v>918</v>
       </c>
       <c r="H224" t="s">
-        <v>1100</v>
+        <v>1091</v>
       </c>
       <c r="I224" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
@@ -9712,7 +9712,7 @@
         <v>226</v>
       </c>
       <c r="E225" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F225" t="s">
         <v>602</v>
@@ -9721,10 +9721,10 @@
         <v>919</v>
       </c>
       <c r="H225" t="s">
-        <v>1100</v>
+        <v>1091</v>
       </c>
       <c r="I225" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
@@ -9738,7 +9738,7 @@
         <v>227</v>
       </c>
       <c r="E226" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F226" t="s">
         <v>603</v>
@@ -9747,10 +9747,10 @@
         <v>920</v>
       </c>
       <c r="H226" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="I226" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
@@ -9764,7 +9764,7 @@
         <v>228</v>
       </c>
       <c r="E227" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F227" t="s">
         <v>604</v>
@@ -9773,10 +9773,10 @@
         <v>764</v>
       </c>
       <c r="H227" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="I227" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
@@ -9790,7 +9790,7 @@
         <v>229</v>
       </c>
       <c r="E228" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F228" t="s">
         <v>605</v>
@@ -9799,10 +9799,10 @@
         <v>762</v>
       </c>
       <c r="H228" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="I228" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
@@ -9816,7 +9816,7 @@
         <v>230</v>
       </c>
       <c r="E229" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F229" t="s">
         <v>606</v>
@@ -9825,10 +9825,10 @@
         <v>921</v>
       </c>
       <c r="H229" t="s">
-        <v>1004</v>
+        <v>1091</v>
       </c>
       <c r="I229" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
@@ -9842,7 +9842,7 @@
         <v>231</v>
       </c>
       <c r="E230" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F230" t="s">
         <v>607</v>
@@ -9851,10 +9851,10 @@
         <v>922</v>
       </c>
       <c r="H230" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="I230" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
@@ -9868,7 +9868,7 @@
         <v>232</v>
       </c>
       <c r="E231" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F231" t="s">
         <v>608</v>
@@ -9877,10 +9877,10 @@
         <v>762</v>
       </c>
       <c r="H231" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="I231" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
@@ -9894,7 +9894,7 @@
         <v>233</v>
       </c>
       <c r="E232" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F232" t="s">
         <v>609</v>
@@ -9903,10 +9903,10 @@
         <v>923</v>
       </c>
       <c r="H232" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="I232" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
@@ -9920,7 +9920,7 @@
         <v>234</v>
       </c>
       <c r="E233" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F233" t="s">
         <v>610</v>
@@ -9929,10 +9929,10 @@
         <v>763</v>
       </c>
       <c r="H233" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="I233" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
@@ -9946,7 +9946,7 @@
         <v>235</v>
       </c>
       <c r="E234" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F234" t="s">
         <v>611</v>
@@ -9955,10 +9955,10 @@
         <v>786</v>
       </c>
       <c r="H234" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="I234" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
@@ -9972,7 +9972,7 @@
         <v>236</v>
       </c>
       <c r="E235" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F235" t="s">
         <v>612</v>
@@ -9981,10 +9981,10 @@
         <v>787</v>
       </c>
       <c r="H235" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="I235" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
@@ -9998,7 +9998,7 @@
         <v>237</v>
       </c>
       <c r="E236" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F236" t="s">
         <v>613</v>
@@ -10007,10 +10007,10 @@
         <v>775</v>
       </c>
       <c r="H236" t="s">
-        <v>1100</v>
+        <v>1091</v>
       </c>
       <c r="I236" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
@@ -10024,7 +10024,7 @@
         <v>238</v>
       </c>
       <c r="E237" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F237" t="s">
         <v>614</v>
@@ -10033,13 +10033,13 @@
         <v>924</v>
       </c>
       <c r="H237" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="I237" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="J237" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
@@ -10053,7 +10053,7 @@
         <v>239</v>
       </c>
       <c r="E238" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F238" t="s">
         <v>615</v>
@@ -10062,13 +10062,13 @@
         <v>925</v>
       </c>
       <c r="H238" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="I238" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="J238" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
@@ -10082,7 +10082,7 @@
         <v>240</v>
       </c>
       <c r="E239" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F239" t="s">
         <v>616</v>
@@ -10091,13 +10091,13 @@
         <v>868</v>
       </c>
       <c r="H239" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="I239" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="J239" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
@@ -10111,7 +10111,7 @@
         <v>241</v>
       </c>
       <c r="E240" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F240" t="s">
         <v>617</v>
@@ -10120,10 +10120,10 @@
         <v>762</v>
       </c>
       <c r="H240" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="I240" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
@@ -10137,7 +10137,7 @@
         <v>242</v>
       </c>
       <c r="E241" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F241" t="s">
         <v>618</v>
@@ -10146,10 +10146,10 @@
         <v>926</v>
       </c>
       <c r="H241" t="s">
-        <v>1057</v>
+        <v>1120</v>
       </c>
       <c r="I241" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
@@ -10163,7 +10163,7 @@
         <v>243</v>
       </c>
       <c r="E242" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F242" t="s">
         <v>619</v>
@@ -10172,10 +10172,10 @@
         <v>927</v>
       </c>
       <c r="H242" t="s">
-        <v>1057</v>
+        <v>1120</v>
       </c>
       <c r="I242" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
@@ -10189,7 +10189,7 @@
         <v>244</v>
       </c>
       <c r="E243" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F243" t="s">
         <v>620</v>
@@ -10198,10 +10198,10 @@
         <v>928</v>
       </c>
       <c r="H243" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="I243" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
@@ -10215,7 +10215,7 @@
         <v>245</v>
       </c>
       <c r="E244" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F244" t="s">
         <v>621</v>
@@ -10224,10 +10224,10 @@
         <v>762</v>
       </c>
       <c r="H244" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="I244" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
@@ -10241,7 +10241,7 @@
         <v>246</v>
       </c>
       <c r="E245" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F245" t="s">
         <v>622</v>
@@ -10250,10 +10250,10 @@
         <v>762</v>
       </c>
       <c r="H245" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="I245" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
@@ -10267,7 +10267,7 @@
         <v>247</v>
       </c>
       <c r="E246" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F246" t="s">
         <v>623</v>
@@ -10276,10 +10276,10 @@
         <v>774</v>
       </c>
       <c r="H246" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="I246" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
@@ -10293,7 +10293,7 @@
         <v>248</v>
       </c>
       <c r="E247" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F247" t="s">
         <v>624</v>
@@ -10302,10 +10302,10 @@
         <v>929</v>
       </c>
       <c r="H247" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="I247" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
@@ -10319,7 +10319,7 @@
         <v>249</v>
       </c>
       <c r="E248" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F248" t="s">
         <v>625</v>
@@ -10328,10 +10328,10 @@
         <v>930</v>
       </c>
       <c r="H248" t="s">
-        <v>1057</v>
+        <v>1120</v>
       </c>
       <c r="I248" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
@@ -10345,7 +10345,7 @@
         <v>250</v>
       </c>
       <c r="E249" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F249" t="s">
         <v>626</v>
@@ -10354,10 +10354,10 @@
         <v>931</v>
       </c>
       <c r="H249" t="s">
-        <v>1057</v>
+        <v>1120</v>
       </c>
       <c r="I249" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
@@ -10371,7 +10371,7 @@
         <v>251</v>
       </c>
       <c r="E250" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F250" t="s">
         <v>627</v>
@@ -10380,10 +10380,10 @@
         <v>770</v>
       </c>
       <c r="H250" t="s">
-        <v>1057</v>
+        <v>1120</v>
       </c>
       <c r="I250" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
@@ -10397,7 +10397,7 @@
         <v>252</v>
       </c>
       <c r="E251" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F251" t="s">
         <v>628</v>
@@ -10406,10 +10406,10 @@
         <v>932</v>
       </c>
       <c r="H251" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="I251" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
@@ -10423,7 +10423,7 @@
         <v>253</v>
       </c>
       <c r="E252" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F252" t="s">
         <v>629</v>
@@ -10432,10 +10432,10 @@
         <v>809</v>
       </c>
       <c r="H252" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="I252" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
@@ -10449,7 +10449,7 @@
         <v>254</v>
       </c>
       <c r="E253" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F253" t="s">
         <v>630</v>
@@ -10458,10 +10458,10 @@
         <v>933</v>
       </c>
       <c r="H253" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="I253" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
@@ -10478,7 +10478,7 @@
         <v>255</v>
       </c>
       <c r="E254" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F254" t="s">
         <v>631</v>
@@ -10487,10 +10487,10 @@
         <v>905</v>
       </c>
       <c r="H254" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="I254" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
@@ -10504,7 +10504,7 @@
         <v>256</v>
       </c>
       <c r="E255" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F255" t="s">
         <v>632</v>
@@ -10513,10 +10513,10 @@
         <v>934</v>
       </c>
       <c r="H255" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="I255" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
@@ -10530,7 +10530,7 @@
         <v>257</v>
       </c>
       <c r="E256" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F256" t="s">
         <v>633</v>
@@ -10539,10 +10539,10 @@
         <v>935</v>
       </c>
       <c r="H256" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="I256" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -10556,7 +10556,7 @@
         <v>258</v>
       </c>
       <c r="E257" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F257" t="s">
         <v>634</v>
@@ -10565,10 +10565,10 @@
         <v>936</v>
       </c>
       <c r="H257" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="I257" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -10582,7 +10582,7 @@
         <v>259</v>
       </c>
       <c r="E258" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F258" t="s">
         <v>635</v>
@@ -10591,10 +10591,10 @@
         <v>937</v>
       </c>
       <c r="H258" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="I258" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -10608,7 +10608,7 @@
         <v>260</v>
       </c>
       <c r="E259" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F259" t="s">
         <v>636</v>
@@ -10617,10 +10617,10 @@
         <v>776</v>
       </c>
       <c r="H259" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="I259" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -10634,7 +10634,7 @@
         <v>261</v>
       </c>
       <c r="E260" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F260" t="s">
         <v>637</v>
@@ -10643,10 +10643,10 @@
         <v>938</v>
       </c>
       <c r="H260" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="I260" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -10660,7 +10660,7 @@
         <v>262</v>
       </c>
       <c r="E261" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F261" t="s">
         <v>638</v>
@@ -10669,10 +10669,10 @@
         <v>762</v>
       </c>
       <c r="H261" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="I261" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -10686,7 +10686,7 @@
         <v>263</v>
       </c>
       <c r="E262" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F262" t="s">
         <v>639</v>
@@ -10695,10 +10695,10 @@
         <v>939</v>
       </c>
       <c r="H262" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="I262" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -10712,7 +10712,7 @@
         <v>264</v>
       </c>
       <c r="E263" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F263" t="s">
         <v>640</v>
@@ -10721,10 +10721,10 @@
         <v>758</v>
       </c>
       <c r="H263" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="I263" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -10738,7 +10738,7 @@
         <v>265</v>
       </c>
       <c r="E264" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F264" t="s">
         <v>641</v>
@@ -10747,10 +10747,10 @@
         <v>940</v>
       </c>
       <c r="H264" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="I264" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -10764,7 +10764,7 @@
         <v>266</v>
       </c>
       <c r="E265" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F265" t="s">
         <v>642</v>
@@ -10773,10 +10773,10 @@
         <v>762</v>
       </c>
       <c r="H265" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="I265" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -10790,7 +10790,7 @@
         <v>267</v>
       </c>
       <c r="E266" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F266" t="s">
         <v>643</v>
@@ -10799,10 +10799,10 @@
         <v>770</v>
       </c>
       <c r="H266" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="I266" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -10816,7 +10816,7 @@
         <v>268</v>
       </c>
       <c r="E267" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F267" t="s">
         <v>644</v>
@@ -10825,10 +10825,10 @@
         <v>941</v>
       </c>
       <c r="H267" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="I267" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -10842,7 +10842,7 @@
         <v>269</v>
       </c>
       <c r="E268" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F268" t="s">
         <v>645</v>
@@ -10851,10 +10851,10 @@
         <v>915</v>
       </c>
       <c r="H268" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="I268" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -10868,7 +10868,7 @@
         <v>270</v>
       </c>
       <c r="E269" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F269" t="s">
         <v>646</v>
@@ -10877,10 +10877,10 @@
         <v>773</v>
       </c>
       <c r="H269" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="I269" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -10894,7 +10894,7 @@
         <v>271</v>
       </c>
       <c r="E270" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F270" t="s">
         <v>647</v>
@@ -10903,10 +10903,10 @@
         <v>760</v>
       </c>
       <c r="H270" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="I270" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -10920,7 +10920,7 @@
         <v>272</v>
       </c>
       <c r="E271" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F271" t="s">
         <v>648</v>
@@ -10929,10 +10929,10 @@
         <v>942</v>
       </c>
       <c r="H271" t="s">
-        <v>1064</v>
+        <v>1121</v>
       </c>
       <c r="I271" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -10946,7 +10946,7 @@
         <v>273</v>
       </c>
       <c r="E272" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F272" t="s">
         <v>649</v>
@@ -10955,10 +10955,10 @@
         <v>943</v>
       </c>
       <c r="H272" t="s">
-        <v>1064</v>
+        <v>1121</v>
       </c>
       <c r="I272" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
@@ -10972,7 +10972,7 @@
         <v>274</v>
       </c>
       <c r="E273" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F273" t="s">
         <v>650</v>
@@ -10981,10 +10981,10 @@
         <v>944</v>
       </c>
       <c r="H273" t="s">
-        <v>1064</v>
+        <v>1121</v>
       </c>
       <c r="I273" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
@@ -10998,7 +10998,7 @@
         <v>275</v>
       </c>
       <c r="E274" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F274" t="s">
         <v>651</v>
@@ -11007,10 +11007,10 @@
         <v>763</v>
       </c>
       <c r="H274" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="I274" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
@@ -11024,7 +11024,7 @@
         <v>276</v>
       </c>
       <c r="E275" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F275" t="s">
         <v>652</v>
@@ -11033,10 +11033,10 @@
         <v>945</v>
       </c>
       <c r="H275" t="s">
-        <v>1126</v>
+        <v>1115</v>
       </c>
       <c r="I275" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
@@ -11050,7 +11050,7 @@
         <v>277</v>
       </c>
       <c r="E276" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F276" t="s">
         <v>653</v>
@@ -11059,10 +11059,10 @@
         <v>763</v>
       </c>
       <c r="H276" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="I276" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
@@ -11076,7 +11076,7 @@
         <v>278</v>
       </c>
       <c r="E277" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F277" t="s">
         <v>654</v>
@@ -11085,10 +11085,10 @@
         <v>946</v>
       </c>
       <c r="H277" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="I277" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
@@ -11102,7 +11102,7 @@
         <v>279</v>
       </c>
       <c r="E278" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F278" t="s">
         <v>655</v>
@@ -11111,10 +11111,10 @@
         <v>770</v>
       </c>
       <c r="H278" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="I278" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
@@ -11128,7 +11128,7 @@
         <v>280</v>
       </c>
       <c r="E279" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F279" t="s">
         <v>656</v>
@@ -11137,10 +11137,10 @@
         <v>762</v>
       </c>
       <c r="H279" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="I279" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
@@ -11154,7 +11154,7 @@
         <v>281</v>
       </c>
       <c r="E280" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F280" t="s">
         <v>657</v>
@@ -11163,10 +11163,10 @@
         <v>947</v>
       </c>
       <c r="H280" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="I280" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
@@ -11180,7 +11180,7 @@
         <v>282</v>
       </c>
       <c r="E281" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F281" t="s">
         <v>658</v>
@@ -11189,10 +11189,10 @@
         <v>948</v>
       </c>
       <c r="H281" t="s">
-        <v>1126</v>
+        <v>1115</v>
       </c>
       <c r="I281" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
@@ -11206,7 +11206,7 @@
         <v>283</v>
       </c>
       <c r="E282" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F282" t="s">
         <v>659</v>
@@ -11215,10 +11215,10 @@
         <v>949</v>
       </c>
       <c r="H282" t="s">
-        <v>1101</v>
+        <v>1092</v>
       </c>
       <c r="I282" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
@@ -11232,7 +11232,7 @@
         <v>284</v>
       </c>
       <c r="E283" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F283" t="s">
         <v>660</v>
@@ -11241,10 +11241,10 @@
         <v>763</v>
       </c>
       <c r="H283" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="I283" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
@@ -11258,7 +11258,7 @@
         <v>285</v>
       </c>
       <c r="E284" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F284" t="s">
         <v>661</v>
@@ -11267,10 +11267,10 @@
         <v>950</v>
       </c>
       <c r="H284" t="s">
-        <v>1101</v>
+        <v>1092</v>
       </c>
       <c r="I284" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
@@ -11284,7 +11284,7 @@
         <v>286</v>
       </c>
       <c r="E285" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F285" t="s">
         <v>662</v>
@@ -11293,10 +11293,10 @@
         <v>784</v>
       </c>
       <c r="H285" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="I285" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
@@ -11310,7 +11310,7 @@
         <v>287</v>
       </c>
       <c r="E286" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F286" t="s">
         <v>663</v>
@@ -11319,10 +11319,10 @@
         <v>932</v>
       </c>
       <c r="H286" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="I286" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
@@ -11336,7 +11336,7 @@
         <v>288</v>
       </c>
       <c r="E287" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F287" t="s">
         <v>664</v>
@@ -11345,10 +11345,10 @@
         <v>788</v>
       </c>
       <c r="H287" t="s">
-        <v>1126</v>
+        <v>1115</v>
       </c>
       <c r="I287" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
@@ -11362,7 +11362,7 @@
         <v>289</v>
       </c>
       <c r="E288" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F288" t="s">
         <v>665</v>
@@ -11371,10 +11371,10 @@
         <v>951</v>
       </c>
       <c r="H288" t="s">
-        <v>1126</v>
+        <v>1115</v>
       </c>
       <c r="I288" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
@@ -11388,7 +11388,7 @@
         <v>290</v>
       </c>
       <c r="E289" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F289" t="s">
         <v>666</v>
@@ -11397,10 +11397,10 @@
         <v>912</v>
       </c>
       <c r="H289" t="s">
-        <v>1101</v>
+        <v>1092</v>
       </c>
       <c r="I289" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
@@ -11414,7 +11414,7 @@
         <v>291</v>
       </c>
       <c r="E290" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F290" t="s">
         <v>667</v>
@@ -11423,10 +11423,10 @@
         <v>952</v>
       </c>
       <c r="H290" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="I290" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
@@ -11440,7 +11440,7 @@
         <v>292</v>
       </c>
       <c r="E291" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F291" t="s">
         <v>668</v>
@@ -11449,10 +11449,10 @@
         <v>914</v>
       </c>
       <c r="H291" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="I291" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
@@ -11466,7 +11466,7 @@
         <v>293</v>
       </c>
       <c r="E292" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F292" t="s">
         <v>669</v>
@@ -11475,10 +11475,10 @@
         <v>770</v>
       </c>
       <c r="H292" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="I292" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
@@ -11492,7 +11492,7 @@
         <v>294</v>
       </c>
       <c r="E293" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F293" t="s">
         <v>670</v>
@@ -11501,10 +11501,10 @@
         <v>762</v>
       </c>
       <c r="H293" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="I293" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
@@ -11518,7 +11518,7 @@
         <v>295</v>
       </c>
       <c r="E294" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F294" t="s">
         <v>671</v>
@@ -11527,10 +11527,10 @@
         <v>770</v>
       </c>
       <c r="H294" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="I294" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
@@ -11544,7 +11544,7 @@
         <v>296</v>
       </c>
       <c r="E295" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F295" t="s">
         <v>672</v>
@@ -11553,10 +11553,10 @@
         <v>953</v>
       </c>
       <c r="H295" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="I295" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
@@ -11570,7 +11570,7 @@
         <v>297</v>
       </c>
       <c r="E296" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F296" t="s">
         <v>673</v>
@@ -11579,10 +11579,10 @@
         <v>762</v>
       </c>
       <c r="H296" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="I296" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
@@ -11596,7 +11596,7 @@
         <v>298</v>
       </c>
       <c r="E297" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F297" t="s">
         <v>674</v>
@@ -11605,10 +11605,10 @@
         <v>762</v>
       </c>
       <c r="H297" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="I297" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
@@ -11622,7 +11622,7 @@
         <v>299</v>
       </c>
       <c r="E298" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F298" t="s">
         <v>675</v>
@@ -11631,10 +11631,10 @@
         <v>954</v>
       </c>
       <c r="H298" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="I298" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
@@ -11648,7 +11648,7 @@
         <v>300</v>
       </c>
       <c r="E299" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F299" t="s">
         <v>676</v>
@@ -11657,10 +11657,10 @@
         <v>955</v>
       </c>
       <c r="H299" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="I299" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
@@ -11674,7 +11674,7 @@
         <v>301</v>
       </c>
       <c r="E300" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F300" t="s">
         <v>677</v>
@@ -11683,10 +11683,10 @@
         <v>913</v>
       </c>
       <c r="H300" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="I300" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
@@ -11700,7 +11700,7 @@
         <v>302</v>
       </c>
       <c r="E301" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F301" t="s">
         <v>678</v>
@@ -11709,10 +11709,10 @@
         <v>956</v>
       </c>
       <c r="H301" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="I301" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
@@ -11726,7 +11726,7 @@
         <v>303</v>
       </c>
       <c r="E302" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F302" t="s">
         <v>679</v>
@@ -11735,10 +11735,10 @@
         <v>762</v>
       </c>
       <c r="H302" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="I302" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
@@ -11752,7 +11752,7 @@
         <v>304</v>
       </c>
       <c r="E303" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F303" t="s">
         <v>680</v>
@@ -11761,10 +11761,10 @@
         <v>957</v>
       </c>
       <c r="H303" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="I303" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
@@ -11778,7 +11778,7 @@
         <v>305</v>
       </c>
       <c r="E304" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F304" t="s">
         <v>681</v>
@@ -11787,10 +11787,10 @@
         <v>762</v>
       </c>
       <c r="H304" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="I304" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.3">
@@ -11804,7 +11804,7 @@
         <v>306</v>
       </c>
       <c r="E305" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F305" t="s">
         <v>682</v>
@@ -11813,10 +11813,10 @@
         <v>762</v>
       </c>
       <c r="H305" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="I305" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.3">
@@ -11830,7 +11830,7 @@
         <v>307</v>
       </c>
       <c r="E306" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F306" t="s">
         <v>683</v>
@@ -11839,10 +11839,10 @@
         <v>958</v>
       </c>
       <c r="H306" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="I306" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.3">
@@ -11856,7 +11856,7 @@
         <v>308</v>
       </c>
       <c r="E307" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F307" t="s">
         <v>684</v>
@@ -11865,10 +11865,10 @@
         <v>762</v>
       </c>
       <c r="H307" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="I307" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.3">
@@ -11882,7 +11882,7 @@
         <v>309</v>
       </c>
       <c r="E308" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F308" t="s">
         <v>685</v>
@@ -11891,10 +11891,10 @@
         <v>762</v>
       </c>
       <c r="H308" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="I308" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.3">
@@ -11908,7 +11908,7 @@
         <v>310</v>
       </c>
       <c r="E309" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F309" t="s">
         <v>686</v>
@@ -11917,10 +11917,10 @@
         <v>762</v>
       </c>
       <c r="H309" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="I309" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.3">
@@ -11937,7 +11937,7 @@
         <v>311</v>
       </c>
       <c r="E310" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F310" t="s">
         <v>687</v>
@@ -11946,10 +11946,10 @@
         <v>959</v>
       </c>
       <c r="H310" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="I310" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.3">
@@ -11966,7 +11966,7 @@
         <v>312</v>
       </c>
       <c r="E311" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F311" t="s">
         <v>688</v>
@@ -11975,10 +11975,10 @@
         <v>960</v>
       </c>
       <c r="H311" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="I311" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.3">
@@ -11995,7 +11995,7 @@
         <v>313</v>
       </c>
       <c r="E312" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F312" t="s">
         <v>689</v>
@@ -12004,10 +12004,10 @@
         <v>800</v>
       </c>
       <c r="H312" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="I312" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.3">
@@ -12021,7 +12021,7 @@
         <v>314</v>
       </c>
       <c r="E313" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F313" t="s">
         <v>690</v>
@@ -12030,10 +12030,10 @@
         <v>961</v>
       </c>
       <c r="H313" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="I313" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.3">
@@ -12047,7 +12047,7 @@
         <v>315</v>
       </c>
       <c r="E314" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F314" t="s">
         <v>691</v>
@@ -12056,10 +12056,10 @@
         <v>762</v>
       </c>
       <c r="H314" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="I314" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.3">
@@ -12073,7 +12073,7 @@
         <v>316</v>
       </c>
       <c r="E315" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F315" t="s">
         <v>692</v>
@@ -12082,10 +12082,10 @@
         <v>962</v>
       </c>
       <c r="H315" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="I315" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.3">
@@ -12099,7 +12099,7 @@
         <v>317</v>
       </c>
       <c r="E316" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F316" t="s">
         <v>693</v>
@@ -12108,10 +12108,10 @@
         <v>820</v>
       </c>
       <c r="H316" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="I316" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.3">
@@ -12125,7 +12125,7 @@
         <v>318</v>
       </c>
       <c r="E317" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F317" t="s">
         <v>694</v>
@@ -12134,10 +12134,10 @@
         <v>762</v>
       </c>
       <c r="H317" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="I317" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.3">
@@ -12151,7 +12151,7 @@
         <v>319</v>
       </c>
       <c r="E318" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F318" t="s">
         <v>695</v>
@@ -12160,10 +12160,10 @@
         <v>762</v>
       </c>
       <c r="H318" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="I318" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.3">
@@ -12177,7 +12177,7 @@
         <v>320</v>
       </c>
       <c r="E319" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F319" t="s">
         <v>696</v>
@@ -12186,13 +12186,13 @@
         <v>768</v>
       </c>
       <c r="H319" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="I319" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="J319" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.3">
@@ -12206,7 +12206,7 @@
         <v>321</v>
       </c>
       <c r="E320" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F320" t="s">
         <v>697</v>
@@ -12215,13 +12215,13 @@
         <v>963</v>
       </c>
       <c r="H320" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="I320" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="J320" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.3">
@@ -12235,7 +12235,7 @@
         <v>322</v>
       </c>
       <c r="E321" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F321" t="s">
         <v>698</v>
@@ -12244,13 +12244,13 @@
         <v>964</v>
       </c>
       <c r="H321" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="I321" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="J321" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.3">
@@ -12264,7 +12264,7 @@
         <v>323</v>
       </c>
       <c r="E322" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F322" t="s">
         <v>699</v>
@@ -12273,13 +12273,13 @@
         <v>820</v>
       </c>
       <c r="H322" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="I322" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="J322" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.3">
@@ -12293,7 +12293,7 @@
         <v>324</v>
       </c>
       <c r="E323" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F323" t="s">
         <v>700</v>
@@ -12302,13 +12302,13 @@
         <v>820</v>
       </c>
       <c r="H323" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="I323" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="J323" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.3">
@@ -12322,7 +12322,7 @@
         <v>325</v>
       </c>
       <c r="E324" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F324" t="s">
         <v>701</v>
@@ -12331,13 +12331,13 @@
         <v>965</v>
       </c>
       <c r="H324" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="I324" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="J324" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.3">
@@ -12351,7 +12351,7 @@
         <v>326</v>
       </c>
       <c r="E325" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F325" t="s">
         <v>702</v>
@@ -12360,13 +12360,13 @@
         <v>966</v>
       </c>
       <c r="H325" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="I325" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="J325" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.3">
@@ -12380,7 +12380,7 @@
         <v>327</v>
       </c>
       <c r="E326" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F326" t="s">
         <v>703</v>
@@ -12389,13 +12389,13 @@
         <v>967</v>
       </c>
       <c r="H326" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="I326" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="J326" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.3">
@@ -12409,7 +12409,7 @@
         <v>328</v>
       </c>
       <c r="E327" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F327" t="s">
         <v>704</v>
@@ -12418,10 +12418,10 @@
         <v>968</v>
       </c>
       <c r="H327" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="I327" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.3">
@@ -12435,7 +12435,7 @@
         <v>329</v>
       </c>
       <c r="E328" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F328" t="s">
         <v>705</v>
@@ -12444,10 +12444,10 @@
         <v>969</v>
       </c>
       <c r="H328" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="I328" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.3">
@@ -12461,7 +12461,7 @@
         <v>330</v>
       </c>
       <c r="E329" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F329" t="s">
         <v>706</v>
@@ -12470,10 +12470,10 @@
         <v>970</v>
       </c>
       <c r="H329" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="I329" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.3">
@@ -12487,7 +12487,7 @@
         <v>331</v>
       </c>
       <c r="E330" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F330" t="s">
         <v>707</v>
@@ -12496,10 +12496,10 @@
         <v>971</v>
       </c>
       <c r="H330" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="I330" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.3">
@@ -12513,7 +12513,7 @@
         <v>332</v>
       </c>
       <c r="E331" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F331" t="s">
         <v>708</v>
@@ -12522,10 +12522,10 @@
         <v>972</v>
       </c>
       <c r="H331" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="I331" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.3">
@@ -12539,7 +12539,7 @@
         <v>333</v>
       </c>
       <c r="E332" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F332" t="s">
         <v>709</v>
@@ -12548,10 +12548,10 @@
         <v>820</v>
       </c>
       <c r="H332" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="I332" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.3">
@@ -12565,7 +12565,7 @@
         <v>334</v>
       </c>
       <c r="E333" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F333" t="s">
         <v>710</v>
@@ -12574,10 +12574,10 @@
         <v>973</v>
       </c>
       <c r="H333" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="I333" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.3">
@@ -12591,7 +12591,7 @@
         <v>335</v>
       </c>
       <c r="E334" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F334" t="s">
         <v>711</v>
@@ -12600,10 +12600,10 @@
         <v>762</v>
       </c>
       <c r="H334" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="I334" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.3">
@@ -12617,7 +12617,7 @@
         <v>336</v>
       </c>
       <c r="E335" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F335" t="s">
         <v>712</v>
@@ -12626,10 +12626,10 @@
         <v>762</v>
       </c>
       <c r="H335" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="I335" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.3">
@@ -12643,7 +12643,7 @@
         <v>337</v>
       </c>
       <c r="E336" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F336" t="s">
         <v>713</v>
@@ -12652,10 +12652,10 @@
         <v>770</v>
       </c>
       <c r="H336" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="I336" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.3">
@@ -12672,7 +12672,7 @@
         <v>338</v>
       </c>
       <c r="E337" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F337" t="s">
         <v>714</v>
@@ -12681,10 +12681,10 @@
         <v>974</v>
       </c>
       <c r="H337" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="I337" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.3">
@@ -12701,7 +12701,7 @@
         <v>339</v>
       </c>
       <c r="E338" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F338" t="s">
         <v>715</v>
@@ -12710,10 +12710,10 @@
         <v>770</v>
       </c>
       <c r="H338" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="I338" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.3">
@@ -12730,7 +12730,7 @@
         <v>340</v>
       </c>
       <c r="E339" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F339" t="s">
         <v>716</v>
@@ -12739,10 +12739,10 @@
         <v>820</v>
       </c>
       <c r="H339" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="I339" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.3">
@@ -12759,7 +12759,7 @@
         <v>341</v>
       </c>
       <c r="E340" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F340" t="s">
         <v>717</v>
@@ -12768,10 +12768,10 @@
         <v>975</v>
       </c>
       <c r="H340" t="s">
-        <v>1128</v>
+        <v>1117</v>
       </c>
       <c r="I340" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.3">
@@ -12788,7 +12788,7 @@
         <v>342</v>
       </c>
       <c r="E341" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F341" t="s">
         <v>718</v>
@@ -12797,10 +12797,10 @@
         <v>762</v>
       </c>
       <c r="H341" t="s">
-        <v>1128</v>
+        <v>1117</v>
       </c>
       <c r="I341" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.3">
@@ -12817,7 +12817,7 @@
         <v>343</v>
       </c>
       <c r="E342" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F342" t="s">
         <v>719</v>
@@ -12826,10 +12826,10 @@
         <v>976</v>
       </c>
       <c r="H342" t="s">
-        <v>1128</v>
+        <v>1117</v>
       </c>
       <c r="I342" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.3">
@@ -12846,7 +12846,7 @@
         <v>344</v>
       </c>
       <c r="E343" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F343" t="s">
         <v>720</v>
@@ -12855,10 +12855,10 @@
         <v>770</v>
       </c>
       <c r="H343" t="s">
-        <v>1128</v>
+        <v>1117</v>
       </c>
       <c r="I343" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.3">
@@ -12872,7 +12872,7 @@
         <v>345</v>
       </c>
       <c r="E344" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F344" t="s">
         <v>721</v>
@@ -12881,10 +12881,10 @@
         <v>977</v>
       </c>
       <c r="H344" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="I344" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.3">
@@ -12898,7 +12898,7 @@
         <v>346</v>
       </c>
       <c r="E345" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F345" t="s">
         <v>722</v>
@@ -12907,10 +12907,10 @@
         <v>762</v>
       </c>
       <c r="H345" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="I345" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.3">
@@ -12924,7 +12924,7 @@
         <v>347</v>
       </c>
       <c r="E346" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F346" t="s">
         <v>723</v>
@@ -12933,10 +12933,10 @@
         <v>763</v>
       </c>
       <c r="H346" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="I346" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.3">
@@ -12950,7 +12950,7 @@
         <v>348</v>
       </c>
       <c r="E347" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F347" t="s">
         <v>724</v>
@@ -12959,10 +12959,10 @@
         <v>762</v>
       </c>
       <c r="H347" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="I347" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.3">
@@ -12976,7 +12976,7 @@
         <v>349</v>
       </c>
       <c r="E348" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F348" t="s">
         <v>725</v>
@@ -12985,10 +12985,10 @@
         <v>764</v>
       </c>
       <c r="H348" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="I348" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.3">
@@ -13002,7 +13002,7 @@
         <v>350</v>
       </c>
       <c r="E349" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F349" t="s">
         <v>726</v>
@@ -13011,10 +13011,10 @@
         <v>763</v>
       </c>
       <c r="H349" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="I349" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.3">
@@ -13028,7 +13028,7 @@
         <v>351</v>
       </c>
       <c r="E350" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F350" t="s">
         <v>727</v>
@@ -13037,10 +13037,10 @@
         <v>762</v>
       </c>
       <c r="H350" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="I350" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.3">
@@ -13054,7 +13054,7 @@
         <v>352</v>
       </c>
       <c r="E351" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F351" t="s">
         <v>728</v>
@@ -13063,10 +13063,10 @@
         <v>764</v>
       </c>
       <c r="H351" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="I351" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.3">
@@ -13080,7 +13080,7 @@
         <v>353</v>
       </c>
       <c r="E352" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F352" t="s">
         <v>729</v>
@@ -13089,16 +13089,16 @@
         <v>912</v>
       </c>
       <c r="H352" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="I352" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="K352" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="L352" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.3">
@@ -13112,7 +13112,7 @@
         <v>354</v>
       </c>
       <c r="E353" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F353" t="s">
         <v>730</v>
@@ -13121,16 +13121,16 @@
         <v>978</v>
       </c>
       <c r="H353" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="I353" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="K353" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="L353" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.3">
@@ -13144,7 +13144,7 @@
         <v>355</v>
       </c>
       <c r="E354" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F354" t="s">
         <v>731</v>
@@ -13153,16 +13153,16 @@
         <v>979</v>
       </c>
       <c r="H354" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="I354" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="K354" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="L354" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.3">
@@ -13176,7 +13176,7 @@
         <v>356</v>
       </c>
       <c r="E355" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F355" t="s">
         <v>732</v>
@@ -13185,10 +13185,10 @@
         <v>980</v>
       </c>
       <c r="H355" t="s">
-        <v>1125</v>
+        <v>1114</v>
       </c>
       <c r="I355" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.3">
@@ -13202,7 +13202,7 @@
         <v>357</v>
       </c>
       <c r="E356" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F356" t="s">
         <v>733</v>
@@ -13211,10 +13211,10 @@
         <v>981</v>
       </c>
       <c r="H356" t="s">
-        <v>1125</v>
+        <v>1114</v>
       </c>
       <c r="I356" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.3">
@@ -13228,7 +13228,7 @@
         <v>358</v>
       </c>
       <c r="E357" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F357" t="s">
         <v>734</v>
@@ -13237,10 +13237,10 @@
         <v>982</v>
       </c>
       <c r="H357" t="s">
-        <v>1125</v>
+        <v>1114</v>
       </c>
       <c r="I357" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.3">
@@ -13254,7 +13254,7 @@
         <v>359</v>
       </c>
       <c r="E358" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F358" t="s">
         <v>735</v>
@@ -13263,10 +13263,10 @@
         <v>983</v>
       </c>
       <c r="H358" t="s">
-        <v>1125</v>
+        <v>1114</v>
       </c>
       <c r="I358" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.3">
@@ -13280,7 +13280,7 @@
         <v>360</v>
       </c>
       <c r="E359" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F359" t="s">
         <v>736</v>
@@ -13289,10 +13289,10 @@
         <v>984</v>
       </c>
       <c r="H359" t="s">
-        <v>1125</v>
+        <v>1114</v>
       </c>
       <c r="I359" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.3">
@@ -13306,7 +13306,7 @@
         <v>361</v>
       </c>
       <c r="E360" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F360" t="s">
         <v>737</v>
@@ -13315,10 +13315,10 @@
         <v>762</v>
       </c>
       <c r="H360" t="s">
-        <v>1125</v>
+        <v>1114</v>
       </c>
       <c r="I360" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.3">
@@ -13332,7 +13332,7 @@
         <v>362</v>
       </c>
       <c r="E361" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F361" t="s">
         <v>738</v>
@@ -13341,10 +13341,10 @@
         <v>770</v>
       </c>
       <c r="H361" t="s">
-        <v>1125</v>
+        <v>1114</v>
       </c>
       <c r="I361" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.3">
@@ -13358,7 +13358,7 @@
         <v>363</v>
       </c>
       <c r="E362" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F362" t="s">
         <v>739</v>
@@ -13367,10 +13367,10 @@
         <v>985</v>
       </c>
       <c r="H362" t="s">
-        <v>1125</v>
+        <v>1114</v>
       </c>
       <c r="I362" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.3">
@@ -13384,7 +13384,7 @@
         <v>364</v>
       </c>
       <c r="E363" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F363" t="s">
         <v>740</v>
@@ -13393,10 +13393,10 @@
         <v>770</v>
       </c>
       <c r="H363" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="I363" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.3">
@@ -13410,7 +13410,7 @@
         <v>365</v>
       </c>
       <c r="E364" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F364" t="s">
         <v>741</v>
@@ -13419,10 +13419,10 @@
         <v>770</v>
       </c>
       <c r="H364" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="I364" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.3">
@@ -13436,7 +13436,7 @@
         <v>366</v>
       </c>
       <c r="E365" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F365" t="s">
         <v>742</v>
@@ -13445,10 +13445,10 @@
         <v>762</v>
       </c>
       <c r="H365" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="I365" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.3">
@@ -13462,7 +13462,7 @@
         <v>367</v>
       </c>
       <c r="E366" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F366" t="s">
         <v>743</v>
@@ -13471,10 +13471,10 @@
         <v>770</v>
       </c>
       <c r="H366" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="I366" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.3">
@@ -13488,7 +13488,7 @@
         <v>368</v>
       </c>
       <c r="E367" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F367" t="s">
         <v>744</v>
@@ -13497,10 +13497,10 @@
         <v>986</v>
       </c>
       <c r="H367" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="I367" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.3">
@@ -13514,7 +13514,7 @@
         <v>369</v>
       </c>
       <c r="E368" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F368" t="s">
         <v>745</v>
@@ -13523,10 +13523,10 @@
         <v>987</v>
       </c>
       <c r="H368" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="I368" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.3">
@@ -13540,7 +13540,7 @@
         <v>370</v>
       </c>
       <c r="E369" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F369" t="s">
         <v>746</v>
@@ -13549,10 +13549,10 @@
         <v>885</v>
       </c>
       <c r="H369" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="I369" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.3">
@@ -13566,7 +13566,7 @@
         <v>371</v>
       </c>
       <c r="E370" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F370" t="s">
         <v>747</v>
@@ -13575,16 +13575,16 @@
         <v>988</v>
       </c>
       <c r="H370" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="I370" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="K370" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="L370" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.3">
@@ -13598,7 +13598,7 @@
         <v>372</v>
       </c>
       <c r="E371" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F371" t="s">
         <v>748</v>
@@ -13607,16 +13607,16 @@
         <v>989</v>
       </c>
       <c r="H371" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="I371" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="K371" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="L371" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.3">
@@ -13630,7 +13630,7 @@
         <v>373</v>
       </c>
       <c r="E372" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F372" t="s">
         <v>749</v>
@@ -13639,10 +13639,10 @@
         <v>852</v>
       </c>
       <c r="H372" t="s">
-        <v>1090</v>
+        <v>1129</v>
       </c>
       <c r="I372" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.3">
@@ -13656,7 +13656,7 @@
         <v>374</v>
       </c>
       <c r="E373" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F373" t="s">
         <v>750</v>
@@ -13665,10 +13665,10 @@
         <v>990</v>
       </c>
       <c r="H373" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="I373" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.3">
@@ -13682,7 +13682,7 @@
         <v>375</v>
       </c>
       <c r="E374" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F374" t="s">
         <v>751</v>
@@ -13691,10 +13691,10 @@
         <v>770</v>
       </c>
       <c r="H374" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="I374" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.3">
@@ -13708,7 +13708,7 @@
         <v>376</v>
       </c>
       <c r="E375" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F375" t="s">
         <v>752</v>
@@ -13717,10 +13717,10 @@
         <v>762</v>
       </c>
       <c r="H375" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="I375" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.3">
@@ -13734,7 +13734,7 @@
         <v>377</v>
       </c>
       <c r="E376" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F376" t="s">
         <v>753</v>
@@ -13743,10 +13743,10 @@
         <v>762</v>
       </c>
       <c r="H376" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="I376" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.3">
@@ -13760,7 +13760,7 @@
         <v>378</v>
       </c>
       <c r="E377" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="F377" t="s">
         <v>754</v>
@@ -13769,10 +13769,10 @@
         <v>991</v>
       </c>
       <c r="H377" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="I377" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
   </sheetData>
